--- a/Doc/CustomerAction.xlsx
+++ b/Doc/CustomerAction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CustomerManagementSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5D7CF1EC-8DB9-466D-8F5A-FE2DA4F4D316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FD7C66-6723-4488-9D19-E79EBCB66484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4"/>
+    <workbookView xWindow="7740" yWindow="1230" windowWidth="11850" windowHeight="13590" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="6" r:id="rId1"/>
@@ -19,12 +19,25 @@
     <sheet name="Staff" sheetId="3" r:id="rId4"/>
     <sheet name="Customers" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="363">
   <si>
     <t>customer_name</t>
   </si>
@@ -854,12 +867,336 @@
   </si>
   <si>
     <t>北山道代</t>
+  </si>
+  <si>
+    <t>300-1261</t>
+  </si>
+  <si>
+    <t>311-2425</t>
+  </si>
+  <si>
+    <t>300-0341</t>
+  </si>
+  <si>
+    <t>300-0028</t>
+  </si>
+  <si>
+    <t>319-1417</t>
+  </si>
+  <si>
+    <t>300-2668</t>
+  </si>
+  <si>
+    <t>310-0842</t>
+  </si>
+  <si>
+    <t>302-0128</t>
+  </si>
+  <si>
+    <t>306-0055</t>
+  </si>
+  <si>
+    <t>306-0308</t>
+  </si>
+  <si>
+    <t>305-0019</t>
+  </si>
+  <si>
+    <t>300-1217</t>
+  </si>
+  <si>
+    <t>310-0051</t>
+  </si>
+  <si>
+    <t>312-0054</t>
+  </si>
+  <si>
+    <t>302-0131</t>
+  </si>
+  <si>
+    <t>300-1206</t>
+  </si>
+  <si>
+    <t>300-1207</t>
+  </si>
+  <si>
+    <t>316-0026</t>
+  </si>
+  <si>
+    <t>302-0121</t>
+  </si>
+  <si>
+    <t>305-0881</t>
+  </si>
+  <si>
+    <t>305-0882</t>
+  </si>
+  <si>
+    <t>305-0883</t>
+  </si>
+  <si>
+    <t>305-0884</t>
+  </si>
+  <si>
+    <t>300-0410</t>
+  </si>
+  <si>
+    <t>307-0004</t>
+  </si>
+  <si>
+    <t>308-0042</t>
+  </si>
+  <si>
+    <t>306-0637</t>
+  </si>
+  <si>
+    <t>319-1223</t>
+  </si>
+  <si>
+    <t>306-0655</t>
+  </si>
+  <si>
+    <t>306-0408</t>
+  </si>
+  <si>
+    <t>300-1606</t>
+  </si>
+  <si>
+    <t>302-0039</t>
+  </si>
+  <si>
+    <t>300-1161</t>
+  </si>
+  <si>
+    <t>311-2118</t>
+  </si>
+  <si>
+    <t>300-0331</t>
+  </si>
+  <si>
+    <t>311-1201</t>
+  </si>
+  <si>
+    <t>300-0621</t>
+  </si>
+  <si>
+    <t>300-0602</t>
+  </si>
+  <si>
+    <t>311-4344</t>
+  </si>
+  <si>
+    <t>309-1234</t>
+  </si>
+  <si>
+    <t>301-0838</t>
+  </si>
+  <si>
+    <t>310-0054</t>
+  </si>
+  <si>
+    <t>305-0804</t>
+  </si>
+  <si>
+    <t>300-2632</t>
+  </si>
+  <si>
+    <t>314-0017</t>
+  </si>
+  <si>
+    <t>308-0836</t>
+  </si>
+  <si>
+    <t>315-0038</t>
+  </si>
+  <si>
+    <t>317-0074</t>
+  </si>
+  <si>
+    <t>306-0012</t>
+  </si>
+  <si>
+    <t>309-1717</t>
+  </si>
+  <si>
+    <t>300-3555</t>
+  </si>
+  <si>
+    <t>300-3556</t>
+  </si>
+  <si>
+    <t>313-0121</t>
+  </si>
+  <si>
+    <t>319-3538</t>
+  </si>
+  <si>
+    <t>つくば市あしび野</t>
+  </si>
+  <si>
+    <t>潮来市あやめ</t>
+  </si>
+  <si>
+    <t>稲敷郡阿見町うずら野</t>
+  </si>
+  <si>
+    <t>土浦市おおつ野</t>
+  </si>
+  <si>
+    <t>日立市かみあい町</t>
+  </si>
+  <si>
+    <t>つくば市かみかわ</t>
+  </si>
+  <si>
+    <t>水戸市けやき台</t>
+  </si>
+  <si>
+    <t>守谷市けやき台</t>
+  </si>
+  <si>
+    <t>古河市けやき平</t>
+  </si>
+  <si>
+    <t>猿島郡五霞町ごかみらい</t>
+  </si>
+  <si>
+    <t>つくば市さくらの森</t>
+  </si>
+  <si>
+    <t>牛久市さくら台</t>
+  </si>
+  <si>
+    <t>水戸市ちとせ</t>
+  </si>
+  <si>
+    <t>ひたちなか市はしかべ</t>
+  </si>
+  <si>
+    <t>守谷市ひがし野</t>
+  </si>
+  <si>
+    <t>牛久市ひたち野西</t>
+  </si>
+  <si>
+    <t>牛久市ひたち野東</t>
+  </si>
+  <si>
+    <t>日立市みかの原町</t>
+  </si>
+  <si>
+    <t>守谷市みずき野</t>
+  </si>
+  <si>
+    <t>つくば市みどりの</t>
+  </si>
+  <si>
+    <t>つくば市みどりの中央</t>
+  </si>
+  <si>
+    <t>つくば市みどりの東</t>
+  </si>
+  <si>
+    <t>つくば市みどりの南</t>
+  </si>
+  <si>
+    <t>稲敷郡美浦村みどり台</t>
+  </si>
+  <si>
+    <t>結城市みどり町</t>
+  </si>
+  <si>
+    <t>筑西市みどり町</t>
+  </si>
+  <si>
+    <t>坂東市みどり町</t>
+  </si>
+  <si>
+    <t>日立市みなと町</t>
+  </si>
+  <si>
+    <t>坂東市みむら</t>
+  </si>
+  <si>
+    <t>猿島郡境町みらい平</t>
+  </si>
+  <si>
+    <t>北相馬郡利根町もえぎ野台</t>
+  </si>
+  <si>
+    <t>取手市ゆめみ野</t>
+  </si>
+  <si>
+    <t>稲敷郡阿見町よしわら</t>
+  </si>
+  <si>
+    <t>鉾田市阿玉</t>
+  </si>
+  <si>
+    <t>稲敷郡阿見町阿見</t>
+  </si>
+  <si>
+    <t>ひたちなか市阿字ケ浦町</t>
+  </si>
+  <si>
+    <t>稲敷市阿波</t>
+  </si>
+  <si>
+    <t>稲敷市阿波崎</t>
+  </si>
+  <si>
+    <t>東茨城郡城里町阿波山</t>
+  </si>
+  <si>
+    <t>桜川市阿部田</t>
+  </si>
+  <si>
+    <t>龍ケ崎市愛戸町</t>
+  </si>
+  <si>
+    <t>水戸市愛宕町</t>
+  </si>
+  <si>
+    <t>つくば市旭（１）</t>
+  </si>
+  <si>
+    <t>つくば市旭（その他）</t>
+  </si>
+  <si>
+    <t>鹿嶋市旭ケ丘</t>
+  </si>
+  <si>
+    <t>筑西市旭ケ丘</t>
+  </si>
+  <si>
+    <t>石岡市旭台</t>
+  </si>
+  <si>
+    <t>日立市旭町</t>
+  </si>
+  <si>
+    <t>古河市旭町</t>
+  </si>
+  <si>
+    <t>笠間市旭町</t>
+  </si>
+  <si>
+    <t>結城郡八千代町芦ケ谷</t>
+  </si>
+  <si>
+    <t>結城郡八千代町芦ケ谷新田</t>
+  </si>
+  <si>
+    <t>常陸太田市芦間町</t>
+  </si>
+  <si>
+    <t>久慈郡大子町芦野倉</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1461,12 +1798,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1822,7 +2162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1998,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2034,7 +2374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
@@ -2863,10 +3203,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F105" sqref="A52:F105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3991,1194 +4333,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>230</v>
-      </c>
-      <c r="C52">
-        <v>1013</v>
-      </c>
-      <c r="D52" t="str">
-        <f>CONCATENATE("pass",TEXT(C52,"@"))</f>
-        <v>pass1013</v>
-      </c>
-      <c r="E52" t="str">
-        <f>IF(MOD(C52,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>175</v>
-      </c>
-      <c r="C53">
-        <v>1035</v>
-      </c>
-      <c r="D53" t="str">
-        <f>CONCATENATE("pass",TEXT(C53,"@"))</f>
-        <v>pass1035</v>
-      </c>
-      <c r="E53" t="str">
-        <f>IF(MOD(C53,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54">
-        <v>1092</v>
-      </c>
-      <c r="D54" t="str">
-        <f>CONCATENATE("pass",TEXT(C54,"@"))</f>
-        <v>pass1092</v>
-      </c>
-      <c r="E54" t="str">
-        <f>IF(MOD(C54,7)=0,"true","false")</f>
-        <v>true</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55">
-        <v>1101</v>
-      </c>
-      <c r="D55" t="str">
-        <f>CONCATENATE("pass",TEXT(C55,"@"))</f>
-        <v>pass1101</v>
-      </c>
-      <c r="E55" t="str">
-        <f>IF(MOD(C55,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56">
-        <v>1080</v>
-      </c>
-      <c r="D56" t="str">
-        <f>CONCATENATE("pass",TEXT(C56,"@"))</f>
-        <v>pass1080</v>
-      </c>
-      <c r="E56" t="str">
-        <f>IF(MOD(C56,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57">
-        <v>1020</v>
-      </c>
-      <c r="D57" t="str">
-        <f>CONCATENATE("pass",TEXT(C57,"@"))</f>
-        <v>pass1020</v>
-      </c>
-      <c r="E57" t="str">
-        <f>IF(MOD(C57,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58">
-        <v>1094</v>
-      </c>
-      <c r="D58" t="str">
-        <f>CONCATENATE("pass",TEXT(C58,"@"))</f>
-        <v>pass1094</v>
-      </c>
-      <c r="E58" t="str">
-        <f>IF(MOD(C58,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>178</v>
-      </c>
-      <c r="C59">
-        <v>1010</v>
-      </c>
-      <c r="D59" t="str">
-        <f>CONCATENATE("pass",TEXT(C59,"@"))</f>
-        <v>pass1010</v>
-      </c>
-      <c r="E59" t="str">
-        <f>IF(MOD(C59,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>250</v>
-      </c>
-      <c r="C60">
-        <v>1085</v>
-      </c>
-      <c r="D60" t="str">
-        <f>CONCATENATE("pass",TEXT(C60,"@"))</f>
-        <v>pass1085</v>
-      </c>
-      <c r="E60" t="str">
-        <f>IF(MOD(C60,7)=0,"true","false")</f>
-        <v>true</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61">
-        <v>1079</v>
-      </c>
-      <c r="D61" t="str">
-        <f>CONCATENATE("pass",TEXT(C61,"@"))</f>
-        <v>pass1079</v>
-      </c>
-      <c r="E61" t="str">
-        <f>IF(MOD(C61,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62">
-        <v>1039</v>
-      </c>
-      <c r="D62" t="str">
-        <f>CONCATENATE("pass",TEXT(C62,"@"))</f>
-        <v>pass1039</v>
-      </c>
-      <c r="E62" t="str">
-        <f>IF(MOD(C62,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>180</v>
-      </c>
-      <c r="C63">
-        <v>1060</v>
-      </c>
-      <c r="D63" t="str">
-        <f>CONCATENATE("pass",TEXT(C63,"@"))</f>
-        <v>pass1060</v>
-      </c>
-      <c r="E63" t="str">
-        <f>IF(MOD(C63,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64">
-        <v>1048</v>
-      </c>
-      <c r="D64" t="str">
-        <f>CONCATENATE("pass",TEXT(C64,"@"))</f>
-        <v>pass1048</v>
-      </c>
-      <c r="E64" t="str">
-        <f>IF(MOD(C64,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65">
-        <v>1089</v>
-      </c>
-      <c r="D65" t="str">
-        <f>CONCATENATE("pass",TEXT(C65,"@"))</f>
-        <v>pass1089</v>
-      </c>
-      <c r="E65" t="str">
-        <f>IF(MOD(C65,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>223</v>
-      </c>
-      <c r="C66">
-        <v>1002</v>
-      </c>
-      <c r="D66" t="str">
-        <f>CONCATENATE("pass",TEXT(C66,"@"))</f>
-        <v>pass1002</v>
-      </c>
-      <c r="E66" t="str">
-        <f>IF(MOD(C66,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67">
-        <v>1075</v>
-      </c>
-      <c r="D67" t="str">
-        <f>CONCATENATE("pass",TEXT(C67,"@"))</f>
-        <v>pass1075</v>
-      </c>
-      <c r="E67" t="str">
-        <f>IF(MOD(C67,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>231</v>
-      </c>
-      <c r="C68">
-        <v>1032</v>
-      </c>
-      <c r="D68" t="str">
-        <f>CONCATENATE("pass",TEXT(C68,"@"))</f>
-        <v>pass1032</v>
-      </c>
-      <c r="E68" t="str">
-        <f>IF(MOD(C68,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69">
-        <v>1102</v>
-      </c>
-      <c r="D69" t="str">
-        <f>CONCATENATE("pass",TEXT(C69,"@"))</f>
-        <v>pass1102</v>
-      </c>
-      <c r="E69" t="str">
-        <f>IF(MOD(C69,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>226</v>
-      </c>
-      <c r="C70">
-        <v>1007</v>
-      </c>
-      <c r="D70" t="str">
-        <f>CONCATENATE("pass",TEXT(C70,"@"))</f>
-        <v>pass1007</v>
-      </c>
-      <c r="E70" t="str">
-        <f>IF(MOD(C70,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>184</v>
-      </c>
-      <c r="C71">
-        <v>1026</v>
-      </c>
-      <c r="D71" t="str">
-        <f>CONCATENATE("pass",TEXT(C71,"@"))</f>
-        <v>pass1026</v>
-      </c>
-      <c r="E71" t="str">
-        <f>IF(MOD(C71,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>219</v>
-      </c>
-      <c r="C72">
-        <v>1061</v>
-      </c>
-      <c r="D72" t="str">
-        <f>CONCATENATE("pass",TEXT(C72,"@"))</f>
-        <v>pass1061</v>
-      </c>
-      <c r="E72" t="str">
-        <f>IF(MOD(C72,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>185</v>
-      </c>
-      <c r="C73">
-        <v>1050</v>
-      </c>
-      <c r="D73" t="str">
-        <f>CONCATENATE("pass",TEXT(C73,"@"))</f>
-        <v>pass1050</v>
-      </c>
-      <c r="E73" t="str">
-        <f>IF(MOD(C73,7)=0,"true","false")</f>
-        <v>true</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>242</v>
-      </c>
-      <c r="C74">
-        <v>1062</v>
-      </c>
-      <c r="D74" t="str">
-        <f>CONCATENATE("pass",TEXT(C74,"@"))</f>
-        <v>pass1062</v>
-      </c>
-      <c r="E74" t="str">
-        <f>IF(MOD(C74,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75">
-        <v>1049</v>
-      </c>
-      <c r="D75" t="str">
-        <f>CONCATENATE("pass",TEXT(C75,"@"))</f>
-        <v>pass1049</v>
-      </c>
-      <c r="E75" t="str">
-        <f>IF(MOD(C75,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>241</v>
-      </c>
-      <c r="C76">
-        <v>1059</v>
-      </c>
-      <c r="D76" t="str">
-        <f>CONCATENATE("pass",TEXT(C76,"@"))</f>
-        <v>pass1059</v>
-      </c>
-      <c r="E76" t="str">
-        <f>IF(MOD(C76,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>187</v>
-      </c>
-      <c r="C77">
-        <v>1104</v>
-      </c>
-      <c r="D77" t="str">
-        <f>CONCATENATE("pass",TEXT(C77,"@"))</f>
-        <v>pass1104</v>
-      </c>
-      <c r="E77" t="str">
-        <f>IF(MOD(C77,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>233</v>
-      </c>
-      <c r="C78">
-        <v>1038</v>
-      </c>
-      <c r="D78" t="str">
-        <f>CONCATENATE("pass",TEXT(C78,"@"))</f>
-        <v>pass1038</v>
-      </c>
-      <c r="E78" t="str">
-        <f>IF(MOD(C78,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79">
-        <v>1090</v>
-      </c>
-      <c r="D79" t="str">
-        <f>CONCATENATE("pass",TEXT(C79,"@"))</f>
-        <v>pass1090</v>
-      </c>
-      <c r="E79" t="str">
-        <f>IF(MOD(C79,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>236</v>
-      </c>
-      <c r="C80">
-        <v>1044</v>
-      </c>
-      <c r="D80" t="str">
-        <f>CONCATENATE("pass",TEXT(C80,"@"))</f>
-        <v>pass1044</v>
-      </c>
-      <c r="E80" t="str">
-        <f>IF(MOD(C80,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>189</v>
-      </c>
-      <c r="C81">
-        <v>1004</v>
-      </c>
-      <c r="D81" t="str">
-        <f>CONCATENATE("pass",TEXT(C81,"@"))</f>
-        <v>pass1004</v>
-      </c>
-      <c r="E81" t="str">
-        <f>IF(MOD(C81,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>224</v>
-      </c>
-      <c r="C82">
-        <v>1003</v>
-      </c>
-      <c r="D82" t="str">
-        <f>CONCATENATE("pass",TEXT(C82,"@"))</f>
-        <v>pass1003</v>
-      </c>
-      <c r="E82" t="str">
-        <f>IF(MOD(C82,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83">
-        <v>1037</v>
-      </c>
-      <c r="D83" t="str">
-        <f>CONCATENATE("pass",TEXT(C83,"@"))</f>
-        <v>pass1037</v>
-      </c>
-      <c r="E83" t="str">
-        <f>IF(MOD(C83,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84">
-        <v>1011</v>
-      </c>
-      <c r="D84" t="str">
-        <f>CONCATENATE("pass",TEXT(C84,"@"))</f>
-        <v>pass1011</v>
-      </c>
-      <c r="E84" t="str">
-        <f>IF(MOD(C84,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>191</v>
-      </c>
-      <c r="C85">
-        <v>1051</v>
-      </c>
-      <c r="D85" t="str">
-        <f>CONCATENATE("pass",TEXT(C85,"@"))</f>
-        <v>pass1051</v>
-      </c>
-      <c r="E85" t="str">
-        <f>IF(MOD(C85,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>251</v>
-      </c>
-      <c r="C86">
-        <v>1088</v>
-      </c>
-      <c r="D86" t="str">
-        <f>CONCATENATE("pass",TEXT(C86,"@"))</f>
-        <v>pass1088</v>
-      </c>
-      <c r="E86" t="str">
-        <f>IF(MOD(C86,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>192</v>
-      </c>
-      <c r="C87">
-        <v>1055</v>
-      </c>
-      <c r="D87" t="str">
-        <f>CONCATENATE("pass",TEXT(C87,"@"))</f>
-        <v>pass1055</v>
-      </c>
-      <c r="E87" t="str">
-        <f>IF(MOD(C87,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>254</v>
-      </c>
-      <c r="C88">
-        <v>1099</v>
-      </c>
-      <c r="D88" t="str">
-        <f>CONCATENATE("pass",TEXT(C88,"@"))</f>
-        <v>pass1099</v>
-      </c>
-      <c r="E88" t="str">
-        <f>IF(MOD(C88,7)=0,"true","false")</f>
-        <v>true</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>193</v>
-      </c>
-      <c r="C89">
-        <v>1046</v>
-      </c>
-      <c r="D89" t="str">
-        <f>CONCATENATE("pass",TEXT(C89,"@"))</f>
-        <v>pass1046</v>
-      </c>
-      <c r="E89" t="str">
-        <f>IF(MOD(C89,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>239</v>
-      </c>
-      <c r="C90">
-        <v>1056</v>
-      </c>
-      <c r="D90" t="str">
-        <f>CONCATENATE("pass",TEXT(C90,"@"))</f>
-        <v>pass1056</v>
-      </c>
-      <c r="E90" t="str">
-        <f>IF(MOD(C90,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>194</v>
-      </c>
-      <c r="C91">
-        <v>1077</v>
-      </c>
-      <c r="D91" t="str">
-        <f>CONCATENATE("pass",TEXT(C91,"@"))</f>
-        <v>pass1077</v>
-      </c>
-      <c r="E91" t="str">
-        <f>IF(MOD(C91,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>220</v>
-      </c>
-      <c r="C92">
-        <v>1047</v>
-      </c>
-      <c r="D92" t="str">
-        <f>CONCATENATE("pass",TEXT(C92,"@"))</f>
-        <v>pass1047</v>
-      </c>
-      <c r="E92" t="str">
-        <f>IF(MOD(C92,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>195</v>
-      </c>
-      <c r="C93">
-        <v>1008</v>
-      </c>
-      <c r="D93" t="str">
-        <f>CONCATENATE("pass",TEXT(C93,"@"))</f>
-        <v>pass1008</v>
-      </c>
-      <c r="E93" t="str">
-        <f>IF(MOD(C93,7)=0,"true","false")</f>
-        <v>true</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C94">
-        <v>1097</v>
-      </c>
-      <c r="D94" t="str">
-        <f>CONCATENATE("pass",TEXT(C94,"@"))</f>
-        <v>pass1097</v>
-      </c>
-      <c r="E94" t="str">
-        <f>IF(MOD(C94,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>196</v>
-      </c>
-      <c r="C95">
-        <v>1071</v>
-      </c>
-      <c r="D95" t="str">
-        <f>CONCATENATE("pass",TEXT(C95,"@"))</f>
-        <v>pass1071</v>
-      </c>
-      <c r="E95" t="str">
-        <f>IF(MOD(C95,7)=0,"true","false")</f>
-        <v>true</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>222</v>
-      </c>
-      <c r="C96">
-        <v>1030</v>
-      </c>
-      <c r="D96" t="str">
-        <f>CONCATENATE("pass",TEXT(C96,"@"))</f>
-        <v>pass1030</v>
-      </c>
-      <c r="E96" t="str">
-        <f>IF(MOD(C96,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>197</v>
-      </c>
-      <c r="C97">
-        <v>1091</v>
-      </c>
-      <c r="D97" t="str">
-        <f>CONCATENATE("pass",TEXT(C97,"@"))</f>
-        <v>pass1091</v>
-      </c>
-      <c r="E97" t="str">
-        <f>IF(MOD(C97,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>238</v>
-      </c>
-      <c r="C98">
-        <v>1054</v>
-      </c>
-      <c r="D98" t="str">
-        <f>CONCATENATE("pass",TEXT(C98,"@"))</f>
-        <v>pass1054</v>
-      </c>
-      <c r="E98" t="str">
-        <f>IF(MOD(C98,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>198</v>
-      </c>
-      <c r="C99">
-        <v>1018</v>
-      </c>
-      <c r="D99" t="str">
-        <f>CONCATENATE("pass",TEXT(C99,"@"))</f>
-        <v>pass1018</v>
-      </c>
-      <c r="E99" t="str">
-        <f>IF(MOD(C99,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>249</v>
-      </c>
-      <c r="C100">
-        <v>1083</v>
-      </c>
-      <c r="D100" t="str">
-        <f>CONCATENATE("pass",TEXT(C100,"@"))</f>
-        <v>pass1083</v>
-      </c>
-      <c r="E100" t="str">
-        <f>IF(MOD(C100,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>199</v>
-      </c>
-      <c r="C101">
-        <v>1067</v>
-      </c>
-      <c r="D101" t="str">
-        <f>CONCATENATE("pass",TEXT(C101,"@"))</f>
-        <v>pass1067</v>
-      </c>
-      <c r="E101" t="str">
-        <f>IF(MOD(C101,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>200</v>
-      </c>
-      <c r="C102">
-        <v>1058</v>
-      </c>
-      <c r="D102" t="str">
-        <f>CONCATENATE("pass",TEXT(C102,"@"))</f>
-        <v>pass1058</v>
-      </c>
-      <c r="E102" t="str">
-        <f>IF(MOD(C102,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>201</v>
-      </c>
-      <c r="C103">
-        <v>1036</v>
-      </c>
-      <c r="D103" t="str">
-        <f>CONCATENATE("pass",TEXT(C103,"@"))</f>
-        <v>pass1036</v>
-      </c>
-      <c r="E103" t="str">
-        <f>IF(MOD(C103,7)=0,"true","false")</f>
-        <v>true</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104">
-        <v>1016</v>
-      </c>
-      <c r="D104" t="str">
-        <f>CONCATENATE("pass",TEXT(C104,"@"))</f>
-        <v>pass1016</v>
-      </c>
-      <c r="E104" t="str">
-        <f>IF(MOD(C104,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>203</v>
-      </c>
-      <c r="C105">
-        <v>1025</v>
-      </c>
-      <c r="D105" t="str">
-        <f>CONCATENATE("pass",TEXT(C105,"@"))</f>
-        <v>pass1025</v>
-      </c>
-      <c r="E105" t="str">
-        <f>IF(MOD(C105,7)=0,"true","false")</f>
-        <v>false</v>
-      </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T121">
     <sortCondition ref="A2:A121"/>
@@ -5189,93 +4343,1146 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H19" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>274</v>
+      </c>
+      <c r="H21" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>275</v>
+      </c>
+      <c r="H22" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>276</v>
+      </c>
+      <c r="H23" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="H24" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>278</v>
+      </c>
+      <c r="H25" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>281</v>
+      </c>
+      <c r="H28" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H29" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>286</v>
+      </c>
+      <c r="H33" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>287</v>
+      </c>
+      <c r="H34" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>288</v>
+      </c>
+      <c r="H35" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>289</v>
+      </c>
+      <c r="H36" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>290</v>
+      </c>
+      <c r="H37" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>291</v>
+      </c>
+      <c r="H38" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>292</v>
+      </c>
+      <c r="H39" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>293</v>
+      </c>
+      <c r="H40" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>294</v>
+      </c>
+      <c r="H41" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>296</v>
+      </c>
+      <c r="H43" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>297</v>
+      </c>
+      <c r="H44" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>298</v>
+      </c>
+      <c r="H45" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>299</v>
+      </c>
+      <c r="H46" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s">
+        <v>300</v>
+      </c>
+      <c r="H47" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>301</v>
+      </c>
+      <c r="H48" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>302</v>
+      </c>
+      <c r="H49" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>303</v>
+      </c>
+      <c r="H50" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51">
+        <v>54</v>
+      </c>
+      <c r="G51" t="s">
+        <v>304</v>
+      </c>
+      <c r="H51" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>305</v>
+      </c>
+      <c r="H52" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
+        <v>306</v>
+      </c>
+      <c r="H53" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>307</v>
+      </c>
+      <c r="H54" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>308</v>
+      </c>
+      <c r="H55" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/CustomerAction.xlsx
+++ b/Doc/CustomerAction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CustomerManagementSystem\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CustomerManagementSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FD7C66-6723-4488-9D19-E79EBCB66484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF515BBB-075E-470F-8874-B079A6E862F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="1230" windowWidth="11850" windowHeight="13590" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="631">
   <si>
     <t>customer_name</t>
   </si>
@@ -1191,6 +1191,901 @@
   </si>
   <si>
     <t>久慈郡大子町芦野倉</t>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>社長</t>
+    <rPh sb="0" eb="2">
+      <t>シャチョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>部長</t>
+    <rPh sb="0" eb="2">
+      <t>ブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>課長</t>
+    <rPh sb="0" eb="2">
+      <t>カチョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>主任</t>
+    <rPh sb="0" eb="2">
+      <t>シュニン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総務部</t>
+    <rPh sb="0" eb="3">
+      <t>ソウムブ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>設計部</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイブ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>経理部</t>
+    <rPh sb="0" eb="3">
+      <t>ケイリブ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>製造部</t>
+    <rPh sb="0" eb="3">
+      <t>セイゾウブ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>部員</t>
+    <rPh sb="0" eb="2">
+      <t>ブイン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>03-727-8488</t>
+  </si>
+  <si>
+    <t>03-528-3711</t>
+  </si>
+  <si>
+    <t>03-6216-5268</t>
+  </si>
+  <si>
+    <t>03-6488-949</t>
+  </si>
+  <si>
+    <t>03-8225-3243</t>
+  </si>
+  <si>
+    <t>03-8071-1103</t>
+  </si>
+  <si>
+    <t>03-6978-8883</t>
+  </si>
+  <si>
+    <t>03-2793-1778</t>
+  </si>
+  <si>
+    <t>03-241-2105</t>
+  </si>
+  <si>
+    <t>03-5277-8160</t>
+  </si>
+  <si>
+    <t>03-2386-3299</t>
+  </si>
+  <si>
+    <t>03-504-5358</t>
+  </si>
+  <si>
+    <t>03-500-8897</t>
+  </si>
+  <si>
+    <t>03-3159-6519</t>
+  </si>
+  <si>
+    <t>080-511-5257</t>
+  </si>
+  <si>
+    <t>050-602-5048</t>
+  </si>
+  <si>
+    <t>084-6602-9674</t>
+  </si>
+  <si>
+    <t>036-59-1978</t>
+  </si>
+  <si>
+    <t>018-6690-5241</t>
+  </si>
+  <si>
+    <t>084-7041-9315</t>
+  </si>
+  <si>
+    <t>035-9498-5160</t>
+  </si>
+  <si>
+    <t>026-1577-6891</t>
+  </si>
+  <si>
+    <t>037-4524-9624</t>
+  </si>
+  <si>
+    <t>021-5431-4389</t>
+  </si>
+  <si>
+    <t>072-764-7117</t>
+  </si>
+  <si>
+    <t>066-171-7467</t>
+  </si>
+  <si>
+    <t>077-1955-744</t>
+  </si>
+  <si>
+    <t>077-1475-2713</t>
+  </si>
+  <si>
+    <t>099-158-3966</t>
+  </si>
+  <si>
+    <t>078-2743-1983</t>
+  </si>
+  <si>
+    <t>010-9916-3193</t>
+  </si>
+  <si>
+    <t>085-7879-9042</t>
+  </si>
+  <si>
+    <t>010-9612-1572</t>
+  </si>
+  <si>
+    <t>048-6463-5427</t>
+  </si>
+  <si>
+    <t>083-4832-3001</t>
+  </si>
+  <si>
+    <t>032-1654-1042</t>
+  </si>
+  <si>
+    <t>026-4370-8525</t>
+  </si>
+  <si>
+    <t>094-4790-2894</t>
+  </si>
+  <si>
+    <t>085-3628-7705</t>
+  </si>
+  <si>
+    <t>034-6078-137</t>
+  </si>
+  <si>
+    <t>098-92-3299</t>
+  </si>
+  <si>
+    <t>059-2210-5996</t>
+  </si>
+  <si>
+    <t>064-8008-5704</t>
+  </si>
+  <si>
+    <t>074-7054-4051</t>
+  </si>
+  <si>
+    <t>020-5453-8202</t>
+  </si>
+  <si>
+    <t>012-8962-4422</t>
+  </si>
+  <si>
+    <t>09-2136-4678</t>
+  </si>
+  <si>
+    <t>016-2081-8356</t>
+  </si>
+  <si>
+    <t>01-4886-3506</t>
+  </si>
+  <si>
+    <t>020-9038-2885</t>
+  </si>
+  <si>
+    <t>097-6466-7157</t>
+  </si>
+  <si>
+    <t>052-123-8602</t>
+  </si>
+  <si>
+    <t>069-4921-4727</t>
+  </si>
+  <si>
+    <t>055-8618-6882</t>
+  </si>
+  <si>
+    <t>ミヤザキノリコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>サガヨウ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>オマツヨシミ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ホンシオリョウ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>タニカケレイコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コンドウアキラ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>フクダミキ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>セキグチユウタ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>トリウチケイコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>タツミアラタ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ヤマグチテルミ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>シバナカアサミ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>サカモトリュウユウ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ウマツカタカヒロ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>イトウレイカ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ムラオカユウト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>タカヤマカナ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>スエツグシンゴ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>シオミユカ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>エリグチタダシ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>シミズユキコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コイケユウキ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ニシヤマミワ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>モリヒロアキ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ヒトミカナエ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ナシモトマキ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ヤマシタカオリ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>イイヅカショウタ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>テラダケイコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>イノウエサトル</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>イノウエカズコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ミノワサッタ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>イワマミスズ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コジマシゲユキ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>シマダクニコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ニッタコウイチ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>キタヤマミチヨ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>シノタカヒロ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>モリタジュンコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>オオマエユウスケ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>シノダマチコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カワダヒロノリ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ヒラオカエリコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マスダタクミ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>タカハシユキコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ヒグチリクト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ウエスギヒトミ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ハシモトコウシ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ナカムラミキ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カワカミタクヤ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>フカガワシンペイ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>サイトウユウマ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ミヤタタカシ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ゴトウノリタケ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2021/1/13</t>
+  </si>
+  <si>
+    <t>2022/9/8</t>
+  </si>
+  <si>
+    <t>2018/5/13</t>
+  </si>
+  <si>
+    <t>2018/12/13</t>
+  </si>
+  <si>
+    <t>2020/10/10</t>
+  </si>
+  <si>
+    <t>2021/7/30</t>
+  </si>
+  <si>
+    <t>2021/5/12</t>
+  </si>
+  <si>
+    <t>2022/12/13</t>
+  </si>
+  <si>
+    <t>2019/8/8</t>
+  </si>
+  <si>
+    <t>2019/4/15</t>
+  </si>
+  <si>
+    <t>2022/4/5</t>
+  </si>
+  <si>
+    <t>2019/6/24</t>
+  </si>
+  <si>
+    <t>2018/12/19</t>
+  </si>
+  <si>
+    <t>2020/5/23</t>
+  </si>
+  <si>
+    <t>2018/10/2</t>
+  </si>
+  <si>
+    <t>2020/1/3</t>
+  </si>
+  <si>
+    <t>2018/9/15</t>
+  </si>
+  <si>
+    <t>2022/6/16</t>
+  </si>
+  <si>
+    <t>2021/3/11</t>
+  </si>
+  <si>
+    <t>2022/4/30</t>
+  </si>
+  <si>
+    <t>2018/11/9</t>
+  </si>
+  <si>
+    <t>2022/10/27</t>
+  </si>
+  <si>
+    <t>2018/4/8</t>
+  </si>
+  <si>
+    <t>2020/12/23</t>
+  </si>
+  <si>
+    <t>2019/9/4</t>
+  </si>
+  <si>
+    <t>2020/1/22</t>
+  </si>
+  <si>
+    <t>2021/12/7</t>
+  </si>
+  <si>
+    <t>2021/12/11</t>
+  </si>
+  <si>
+    <t>2019/11/10</t>
+  </si>
+  <si>
+    <t>2019/11/1</t>
+  </si>
+  <si>
+    <t>2020/8/16</t>
+  </si>
+  <si>
+    <t>2022/9/5</t>
+  </si>
+  <si>
+    <t>2019/8/28</t>
+  </si>
+  <si>
+    <t>2018/8/25</t>
+  </si>
+  <si>
+    <t>2018/8/4</t>
+  </si>
+  <si>
+    <t>2020/5/4</t>
+  </si>
+  <si>
+    <t>2021/10/21</t>
+  </si>
+  <si>
+    <t>2019/4/22</t>
+  </si>
+  <si>
+    <t>2021/10/9</t>
+  </si>
+  <si>
+    <t>2020/8/4</t>
+  </si>
+  <si>
+    <t>2019/1/2</t>
+  </si>
+  <si>
+    <t>2019/6/30</t>
+  </si>
+  <si>
+    <t>2019/1/16</t>
+  </si>
+  <si>
+    <t>2022/1/2</t>
+  </si>
+  <si>
+    <t>2022/2/15</t>
+  </si>
+  <si>
+    <t>2019/10/15</t>
+  </si>
+  <si>
+    <t>2022/8/4</t>
+  </si>
+  <si>
+    <t>2021/9/6</t>
+  </si>
+  <si>
+    <t>2020/11/29</t>
+  </si>
+  <si>
+    <t>2022/7/14</t>
+  </si>
+  <si>
+    <t>2020/2/29</t>
+  </si>
+  <si>
+    <t>2019/8/1</t>
+  </si>
+  <si>
+    <t>2019/1/8</t>
+  </si>
+  <si>
+    <t>2021/6/30</t>
+  </si>
+  <si>
+    <t>2019/12/5</t>
+  </si>
+  <si>
+    <t>2019/10/3</t>
+  </si>
+  <si>
+    <t>2020/12/13</t>
+  </si>
+  <si>
+    <t>2022/8/28</t>
+  </si>
+  <si>
+    <t>2020/4/21</t>
+  </si>
+  <si>
+    <t>2021/12/30</t>
+  </si>
+  <si>
+    <t>2022/2/6</t>
+  </si>
+  <si>
+    <t>2022/3/18</t>
+  </si>
+  <si>
+    <t>2020/3/18</t>
+  </si>
+  <si>
+    <t>2022/2/19</t>
+  </si>
+  <si>
+    <t>2020/5/29</t>
+  </si>
+  <si>
+    <t>2022/5/5</t>
+  </si>
+  <si>
+    <t>2022/3/25</t>
+  </si>
+  <si>
+    <t>2021/8/4</t>
+  </si>
+  <si>
+    <t>2018/10/16</t>
+  </si>
+  <si>
+    <t>2022/4/7</t>
+  </si>
+  <si>
+    <t>2020/7/3</t>
+  </si>
+  <si>
+    <t>2022/11/30</t>
+  </si>
+  <si>
+    <t>2020/8/18</t>
+  </si>
+  <si>
+    <t>2022/11/14</t>
+  </si>
+  <si>
+    <t>2020/7/12</t>
+  </si>
+  <si>
+    <t>2019/6/8</t>
+  </si>
+  <si>
+    <t>2018/5/10</t>
+  </si>
+  <si>
+    <t>2021/6/11</t>
+  </si>
+  <si>
+    <t>2019/3/8</t>
+  </si>
+  <si>
+    <t>2018/7/30</t>
+  </si>
+  <si>
+    <t>2022/5/20</t>
+  </si>
+  <si>
+    <t>2020/10/5</t>
+  </si>
+  <si>
+    <t>2021/9/28</t>
+  </si>
+  <si>
+    <t>2019/6/5</t>
+  </si>
+  <si>
+    <t>2018/12/8</t>
+  </si>
+  <si>
+    <t>2018/12/22</t>
+  </si>
+  <si>
+    <t>2018/9/20</t>
+  </si>
+  <si>
+    <t>2018/12/25</t>
+  </si>
+  <si>
+    <t>2021/4/9</t>
+  </si>
+  <si>
+    <t>2022/2/30</t>
+  </si>
+  <si>
+    <t>2019/11/8</t>
+  </si>
+  <si>
+    <t>2022/12/9</t>
+  </si>
+  <si>
+    <t>2018/6/30</t>
+  </si>
+  <si>
+    <t>2020/8/3</t>
+  </si>
+  <si>
+    <t>2022/12/7</t>
+  </si>
+  <si>
+    <t>2019/6/27</t>
+  </si>
+  <si>
+    <t>2018/1/4</t>
+  </si>
+  <si>
+    <t>2021/12/26</t>
+  </si>
+  <si>
+    <t>2018/1/13</t>
+  </si>
+  <si>
+    <t>2019/12/19</t>
+  </si>
+  <si>
+    <t>2018/8/26</t>
+  </si>
+  <si>
+    <t>2022/6/5</t>
+  </si>
+  <si>
+    <t>2022/7/18</t>
+  </si>
+  <si>
+    <t>2021/7/26</t>
+  </si>
+  <si>
+    <t>2020/7/19</t>
+  </si>
+  <si>
+    <t>2020/8/22</t>
+  </si>
+  <si>
+    <t>2019/11/22</t>
+  </si>
+  <si>
+    <t>2018/6/21</t>
+  </si>
+  <si>
+    <t>2019/10/30</t>
+  </si>
+  <si>
+    <t>2018/5/27</t>
+  </si>
+  <si>
+    <t>2019/3/7</t>
+  </si>
+  <si>
+    <t>2019/9/30</t>
+  </si>
+  <si>
+    <t>2021/11/14</t>
+  </si>
+  <si>
+    <t>2020/4/26</t>
+  </si>
+  <si>
+    <t>2022/2/3</t>
+  </si>
+  <si>
+    <t>2018/11/19</t>
+  </si>
+  <si>
+    <t>2022/4/2</t>
+  </si>
+  <si>
+    <t>2022/12/17</t>
+  </si>
+  <si>
+    <t>2019/12/26</t>
+  </si>
+  <si>
+    <t>2021/4/15</t>
+  </si>
+  <si>
+    <t>2022/11/16</t>
+  </si>
+  <si>
+    <t>2022/5/24</t>
+  </si>
+  <si>
+    <t>2020/10/1</t>
+  </si>
+  <si>
+    <t>2022/7/26</t>
+  </si>
+  <si>
+    <t>2022/12/11</t>
+  </si>
+  <si>
+    <t>2018/3/18</t>
+  </si>
+  <si>
+    <t>2020/2/19</t>
+  </si>
+  <si>
+    <t>2018/12/14</t>
+  </si>
+  <si>
+    <t>2019/7/21</t>
+  </si>
+  <si>
+    <t>2021/2/12</t>
+  </si>
+  <si>
+    <t>2022/7/7</t>
+  </si>
+  <si>
+    <t>2020/3/28</t>
+  </si>
+  <si>
+    <t>2020/10/18</t>
+  </si>
+  <si>
+    <t>2020/7/16</t>
+  </si>
+  <si>
+    <t>2019/4/1</t>
+  </si>
+  <si>
+    <t>2022/7/15</t>
+  </si>
+  <si>
+    <t>2019/3/5</t>
+  </si>
+  <si>
+    <t>2020/8/19</t>
+  </si>
+  <si>
+    <t>2019/10/21</t>
+  </si>
+  <si>
+    <t>2018/5/25</t>
+  </si>
+  <si>
+    <t>2018/10/15</t>
+  </si>
+  <si>
+    <t>2021/2/14</t>
+  </si>
+  <si>
+    <t>2018/2/12</t>
+  </si>
+  <si>
+    <t>2020/3/4</t>
+  </si>
+  <si>
+    <t>2019/2/20</t>
+  </si>
+  <si>
+    <t>2018/4/12</t>
+  </si>
+  <si>
+    <t>2022/1/14</t>
+  </si>
+  <si>
+    <t>2021/6/8</t>
+  </si>
+  <si>
+    <t>2018/5/19</t>
+  </si>
+  <si>
+    <t>2020/8/2</t>
   </si>
 </sst>
 </file>
@@ -2341,7 +3236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3206,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F105" sqref="A52:F105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3244,11 +4139,11 @@
         <v>1019</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("pass",TEXT(C2,"@"))</f>
+        <f t="shared" ref="D2:D33" si="0">CONCATENATE("pass",TEXT(C2,"@"))</f>
         <v>pass1019</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(MOD(C2,7)=0,"true","false")</f>
+        <f t="shared" ref="E2:E33" si="1">IF(MOD(C2,7)=0,"true","false")</f>
         <v>false</v>
       </c>
       <c r="F2" t="b">
@@ -3266,11 +4161,11 @@
         <v>1074</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE("pass",TEXT(C3,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1074</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(MOD(C3,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F3" t="b">
@@ -3288,11 +4183,11 @@
         <v>1053</v>
       </c>
       <c r="D4" t="str">
-        <f>CONCATENATE("pass",TEXT(C4,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1053</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(MOD(C4,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F4" t="b">
@@ -3310,11 +4205,11 @@
         <v>1103</v>
       </c>
       <c r="D5" t="str">
-        <f>CONCATENATE("pass",TEXT(C5,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1103</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(MOD(C5,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F5" t="b">
@@ -3332,11 +4227,11 @@
         <v>1042</v>
       </c>
       <c r="D6" t="str">
-        <f>CONCATENATE("pass",TEXT(C6,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1042</v>
       </c>
       <c r="E6" t="str">
-        <f>IF(MOD(C6,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F6" t="b">
@@ -3354,11 +4249,11 @@
         <v>1052</v>
       </c>
       <c r="D7" t="str">
-        <f>CONCATENATE("pass",TEXT(C7,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1052</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(MOD(C7,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F7" t="b">
@@ -3376,11 +4271,11 @@
         <v>1066</v>
       </c>
       <c r="D8" t="str">
-        <f>CONCATENATE("pass",TEXT(C8,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1066</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(MOD(C8,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F8" t="b">
@@ -3398,11 +4293,11 @@
         <v>1017</v>
       </c>
       <c r="D9" t="str">
-        <f>CONCATENATE("pass",TEXT(C9,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1017</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(MOD(C9,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F9" t="b">
@@ -3420,11 +4315,11 @@
         <v>1098</v>
       </c>
       <c r="D10" t="str">
-        <f>CONCATENATE("pass",TEXT(C10,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1098</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(MOD(C10,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F10" t="b">
@@ -3442,11 +4337,11 @@
         <v>1076</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE("pass",TEXT(C11,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1076</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(MOD(C11,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F11" t="b">
@@ -3464,11 +4359,11 @@
         <v>1033</v>
       </c>
       <c r="D12" t="str">
-        <f>CONCATENATE("pass",TEXT(C12,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1033</v>
       </c>
       <c r="E12" t="str">
-        <f>IF(MOD(C12,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F12" t="b">
@@ -3486,11 +4381,11 @@
         <v>1031</v>
       </c>
       <c r="D13" t="str">
-        <f>CONCATENATE("pass",TEXT(C13,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1031</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(MOD(C13,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F13" t="b">
@@ -3508,11 +4403,11 @@
         <v>1012</v>
       </c>
       <c r="D14" t="str">
-        <f>CONCATENATE("pass",TEXT(C14,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1012</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(MOD(C14,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F14" t="b">
@@ -3530,11 +4425,11 @@
         <v>1015</v>
       </c>
       <c r="D15" t="str">
-        <f>CONCATENATE("pass",TEXT(C15,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1015</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(MOD(C15,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F15" t="b">
@@ -3552,11 +4447,11 @@
         <v>1072</v>
       </c>
       <c r="D16" t="str">
-        <f>CONCATENATE("pass",TEXT(C16,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1072</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(MOD(C16,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F16" t="b">
@@ -3574,11 +4469,11 @@
         <v>1024</v>
       </c>
       <c r="D17" t="str">
-        <f>CONCATENATE("pass",TEXT(C17,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1024</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(MOD(C17,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F17" t="b">
@@ -3596,11 +4491,11 @@
         <v>1040</v>
       </c>
       <c r="D18" t="str">
-        <f>CONCATENATE("pass",TEXT(C18,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1040</v>
       </c>
       <c r="E18" t="str">
-        <f>IF(MOD(C18,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F18" t="b">
@@ -3618,11 +4513,11 @@
         <v>1014</v>
       </c>
       <c r="D19" t="str">
-        <f>CONCATENATE("pass",TEXT(C19,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1014</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(MOD(C19,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F19" t="b">
@@ -3640,11 +4535,11 @@
         <v>1041</v>
       </c>
       <c r="D20" t="str">
-        <f>CONCATENATE("pass",TEXT(C20,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1041</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(MOD(C20,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F20" t="b">
@@ -3662,11 +4557,11 @@
         <v>1078</v>
       </c>
       <c r="D21" t="str">
-        <f>CONCATENATE("pass",TEXT(C21,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1078</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(MOD(C21,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F21" t="b">
@@ -3684,11 +4579,11 @@
         <v>1029</v>
       </c>
       <c r="D22" t="str">
-        <f>CONCATENATE("pass",TEXT(C22,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1029</v>
       </c>
       <c r="E22" t="str">
-        <f>IF(MOD(C22,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F22" t="b">
@@ -3706,11 +4601,11 @@
         <v>1034</v>
       </c>
       <c r="D23" t="str">
-        <f>CONCATENATE("pass",TEXT(C23,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1034</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(MOD(C23,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F23" t="b">
@@ -3728,11 +4623,11 @@
         <v>1081</v>
       </c>
       <c r="D24" t="str">
-        <f>CONCATENATE("pass",TEXT(C24,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1081</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(MOD(C24,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F24" t="b">
@@ -3750,11 +4645,11 @@
         <v>1068</v>
       </c>
       <c r="D25" t="str">
-        <f>CONCATENATE("pass",TEXT(C25,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1068</v>
       </c>
       <c r="E25" t="str">
-        <f>IF(MOD(C25,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F25" t="b">
@@ -3772,11 +4667,11 @@
         <v>1006</v>
       </c>
       <c r="D26" t="str">
-        <f>CONCATENATE("pass",TEXT(C26,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1006</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(MOD(C26,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F26" t="b">
@@ -3794,11 +4689,11 @@
         <v>1028</v>
       </c>
       <c r="D27" t="str">
-        <f>CONCATENATE("pass",TEXT(C27,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1028</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(MOD(C27,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F27" t="b">
@@ -3816,11 +4711,11 @@
         <v>1084</v>
       </c>
       <c r="D28" t="str">
-        <f>CONCATENATE("pass",TEXT(C28,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1084</v>
       </c>
       <c r="E28" t="str">
-        <f>IF(MOD(C28,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F28" t="b">
@@ -3838,11 +4733,11 @@
         <v>1070</v>
       </c>
       <c r="D29" t="str">
-        <f>CONCATENATE("pass",TEXT(C29,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1070</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(MOD(C29,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F29" t="b">
@@ -3860,11 +4755,11 @@
         <v>1045</v>
       </c>
       <c r="D30" t="str">
-        <f>CONCATENATE("pass",TEXT(C30,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1045</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(MOD(C30,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F30" t="b">
@@ -3882,11 +4777,11 @@
         <v>1043</v>
       </c>
       <c r="D31" t="str">
-        <f>CONCATENATE("pass",TEXT(C31,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1043</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(MOD(C31,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F31" t="b">
@@ -3904,11 +4799,11 @@
         <v>1063</v>
       </c>
       <c r="D32" t="str">
-        <f>CONCATENATE("pass",TEXT(C32,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1063</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(MOD(C32,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F32" t="b">
@@ -3926,11 +4821,11 @@
         <v>1086</v>
       </c>
       <c r="D33" t="str">
-        <f>CONCATENATE("pass",TEXT(C33,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1086</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(MOD(C33,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F33" t="b">
@@ -3948,11 +4843,11 @@
         <v>1069</v>
       </c>
       <c r="D34" t="str">
-        <f>CONCATENATE("pass",TEXT(C34,"@"))</f>
+        <f t="shared" ref="D34:D65" si="2">CONCATENATE("pass",TEXT(C34,"@"))</f>
         <v>pass1069</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(MOD(C34,7)=0,"true","false")</f>
+        <f t="shared" ref="E34:E51" si="3">IF(MOD(C34,7)=0,"true","false")</f>
         <v>false</v>
       </c>
       <c r="F34" t="b">
@@ -3970,11 +4865,11 @@
         <v>1021</v>
       </c>
       <c r="D35" t="str">
-        <f>CONCATENATE("pass",TEXT(C35,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1021</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(MOD(C35,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F35" t="b">
@@ -3992,11 +4887,11 @@
         <v>1001</v>
       </c>
       <c r="D36" t="str">
-        <f>CONCATENATE("pass",TEXT(C36,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1001</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(MOD(C36,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>true</v>
       </c>
       <c r="F36" t="b">
@@ -4014,11 +4909,11 @@
         <v>1100</v>
       </c>
       <c r="D37" t="str">
-        <f>CONCATENATE("pass",TEXT(C37,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1100</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(MOD(C37,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F37" t="b">
@@ -4036,11 +4931,11 @@
         <v>1065</v>
       </c>
       <c r="D38" t="str">
-        <f>CONCATENATE("pass",TEXT(C38,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1065</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(MOD(C38,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F38" t="b">
@@ -4058,11 +4953,11 @@
         <v>1093</v>
       </c>
       <c r="D39" t="str">
-        <f>CONCATENATE("pass",TEXT(C39,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1093</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(MOD(C39,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F39" t="b">
@@ -4080,11 +4975,11 @@
         <v>1027</v>
       </c>
       <c r="D40" t="str">
-        <f>CONCATENATE("pass",TEXT(C40,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1027</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(MOD(C40,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F40" t="b">
@@ -4102,11 +4997,11 @@
         <v>1096</v>
       </c>
       <c r="D41" t="str">
-        <f>CONCATENATE("pass",TEXT(C41,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1096</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(MOD(C41,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F41" t="b">
@@ -4124,11 +5019,11 @@
         <v>1087</v>
       </c>
       <c r="D42" t="str">
-        <f>CONCATENATE("pass",TEXT(C42,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1087</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(MOD(C42,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F42" t="b">
@@ -4146,11 +5041,11 @@
         <v>1095</v>
       </c>
       <c r="D43" t="str">
-        <f>CONCATENATE("pass",TEXT(C43,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1095</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(MOD(C43,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F43" t="b">
@@ -4168,11 +5063,11 @@
         <v>1057</v>
       </c>
       <c r="D44" t="str">
-        <f>CONCATENATE("pass",TEXT(C44,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1057</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(MOD(C44,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>true</v>
       </c>
       <c r="F44" t="b">
@@ -4190,11 +5085,11 @@
         <v>1022</v>
       </c>
       <c r="D45" t="str">
-        <f>CONCATENATE("pass",TEXT(C45,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1022</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(MOD(C45,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>true</v>
       </c>
       <c r="F45" t="b">
@@ -4212,11 +5107,11 @@
         <v>1009</v>
       </c>
       <c r="D46" t="str">
-        <f>CONCATENATE("pass",TEXT(C46,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1009</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(MOD(C46,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F46" t="b">
@@ -4234,11 +5129,11 @@
         <v>1005</v>
       </c>
       <c r="D47" t="str">
-        <f>CONCATENATE("pass",TEXT(C47,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1005</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(MOD(C47,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F47" t="b">
@@ -4256,11 +5151,11 @@
         <v>1073</v>
       </c>
       <c r="D48" t="str">
-        <f>CONCATENATE("pass",TEXT(C48,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1073</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(MOD(C48,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F48" t="b">
@@ -4278,11 +5173,11 @@
         <v>1082</v>
       </c>
       <c r="D49" t="str">
-        <f>CONCATENATE("pass",TEXT(C49,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1082</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(MOD(C49,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F49" t="b">
@@ -4300,11 +5195,11 @@
         <v>1064</v>
       </c>
       <c r="D50" t="str">
-        <f>CONCATENATE("pass",TEXT(C50,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1064</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(MOD(C50,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>true</v>
       </c>
       <c r="F50" t="b">
@@ -4322,11 +5217,11 @@
         <v>1023</v>
       </c>
       <c r="D51" t="str">
-        <f>CONCATENATE("pass",TEXT(C51,"@"))</f>
+        <f t="shared" si="2"/>
         <v>pass1023</v>
       </c>
       <c r="E51" t="str">
-        <f>IF(MOD(C51,7)=0,"true","false")</f>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F51" t="b">
@@ -4346,13 +5241,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -4412,14 +5311,47 @@
       <c r="B2" t="s">
         <v>230</v>
       </c>
+      <c r="C2" t="s">
+        <v>427</v>
+      </c>
       <c r="D2">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" t="s">
+        <v>364</v>
+      </c>
       <c r="G2" t="s">
         <v>255</v>
       </c>
       <c r="H2" t="s">
         <v>309</v>
+      </c>
+      <c r="I2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M2" t="s">
+        <v>576</v>
+      </c>
+      <c r="N2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O2" t="s">
+        <v>507</v>
+      </c>
+      <c r="P2" t="s">
+        <v>208</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
@@ -4432,14 +5364,47 @@
       <c r="B3" t="s">
         <v>175</v>
       </c>
+      <c r="C3" t="s">
+        <v>428</v>
+      </c>
       <c r="D3">
         <v>38</v>
       </c>
+      <c r="E3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" t="s">
+        <v>365</v>
+      </c>
       <c r="G3" t="s">
         <v>256</v>
       </c>
       <c r="H3" t="s">
         <v>310</v>
+      </c>
+      <c r="I3" t="s">
+        <v>374</v>
+      </c>
+      <c r="J3">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>484</v>
+      </c>
+      <c r="L3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" t="s">
+        <v>553</v>
+      </c>
+      <c r="N3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O3" t="s">
+        <v>513</v>
+      </c>
+      <c r="P3" t="s">
+        <v>232</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -4452,14 +5417,47 @@
       <c r="B4" t="s">
         <v>252</v>
       </c>
+      <c r="C4" t="s">
+        <v>429</v>
+      </c>
       <c r="D4">
         <v>38</v>
       </c>
+      <c r="E4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F4" t="s">
+        <v>366</v>
+      </c>
       <c r="G4" t="s">
         <v>257</v>
       </c>
       <c r="H4" t="s">
         <v>311</v>
+      </c>
+      <c r="I4" t="s">
+        <v>375</v>
+      </c>
+      <c r="J4">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>487</v>
+      </c>
+      <c r="L4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M4" t="s">
+        <v>494</v>
+      </c>
+      <c r="N4" t="s">
+        <v>205</v>
+      </c>
+      <c r="O4" t="s">
+        <v>499</v>
+      </c>
+      <c r="P4" t="s">
+        <v>215</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
@@ -4472,14 +5470,47 @@
       <c r="B5" t="s">
         <v>176</v>
       </c>
+      <c r="C5" t="s">
+        <v>430</v>
+      </c>
       <c r="D5">
         <v>6</v>
       </c>
+      <c r="E5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F5" t="s">
+        <v>367</v>
+      </c>
       <c r="G5" t="s">
         <v>258</v>
       </c>
       <c r="H5" t="s">
         <v>312</v>
+      </c>
+      <c r="I5" t="s">
+        <v>376</v>
+      </c>
+      <c r="J5">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>490</v>
+      </c>
+      <c r="L5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" t="s">
+        <v>567</v>
+      </c>
+      <c r="N5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" t="s">
+        <v>585</v>
+      </c>
+      <c r="P5" t="s">
+        <v>167</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
@@ -4492,14 +5523,47 @@
       <c r="B6" t="s">
         <v>248</v>
       </c>
+      <c r="C6" t="s">
+        <v>431</v>
+      </c>
       <c r="D6">
         <v>39</v>
       </c>
+      <c r="E6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" t="s">
+        <v>372</v>
+      </c>
       <c r="G6" t="s">
         <v>259</v>
       </c>
       <c r="H6" t="s">
         <v>313</v>
+      </c>
+      <c r="I6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J6">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>493</v>
+      </c>
+      <c r="L6" t="s">
+        <v>211</v>
+      </c>
+      <c r="M6" t="s">
+        <v>570</v>
+      </c>
+      <c r="N6" t="s">
+        <v>243</v>
+      </c>
+      <c r="O6" t="s">
+        <v>528</v>
+      </c>
+      <c r="P6" t="s">
+        <v>157</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
@@ -4512,14 +5576,47 @@
       <c r="B7" t="s">
         <v>177</v>
       </c>
+      <c r="C7" t="s">
+        <v>432</v>
+      </c>
       <c r="D7">
         <v>27</v>
       </c>
+      <c r="E7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" t="s">
+        <v>363</v>
+      </c>
       <c r="G7" t="s">
         <v>260</v>
       </c>
       <c r="H7" t="s">
         <v>314</v>
+      </c>
+      <c r="I7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J7">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>496</v>
+      </c>
+      <c r="L7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" t="s">
+        <v>539</v>
+      </c>
+      <c r="N7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P7" t="s">
+        <v>227</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
@@ -4532,14 +5629,47 @@
       <c r="B8" t="s">
         <v>253</v>
       </c>
+      <c r="C8" t="s">
+        <v>433</v>
+      </c>
       <c r="D8">
         <v>2</v>
       </c>
+      <c r="E8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8" t="s">
+        <v>365</v>
+      </c>
       <c r="G8" t="s">
         <v>261</v>
       </c>
       <c r="H8" t="s">
         <v>315</v>
+      </c>
+      <c r="I8" t="s">
+        <v>379</v>
+      </c>
+      <c r="J8">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>499</v>
+      </c>
+      <c r="L8" t="s">
+        <v>210</v>
+      </c>
+      <c r="M8" t="s">
+        <v>542</v>
+      </c>
+      <c r="N8" t="s">
+        <v>210</v>
+      </c>
+      <c r="O8" t="s">
+        <v>628</v>
+      </c>
+      <c r="P8" t="s">
+        <v>216</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -4552,14 +5682,47 @@
       <c r="B9" t="s">
         <v>178</v>
       </c>
+      <c r="C9" t="s">
+        <v>434</v>
+      </c>
       <c r="D9">
         <v>54</v>
       </c>
+      <c r="E9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F9" t="s">
+        <v>366</v>
+      </c>
       <c r="G9" t="s">
         <v>262</v>
       </c>
       <c r="H9" t="s">
         <v>316</v>
+      </c>
+      <c r="I9" t="s">
+        <v>380</v>
+      </c>
+      <c r="J9">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>502</v>
+      </c>
+      <c r="L9" t="s">
+        <v>159</v>
+      </c>
+      <c r="M9" t="s">
+        <v>488</v>
+      </c>
+      <c r="N9" t="s">
+        <v>237</v>
+      </c>
+      <c r="O9" t="s">
+        <v>557</v>
+      </c>
+      <c r="P9" t="s">
+        <v>162</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -4572,14 +5735,47 @@
       <c r="B10" t="s">
         <v>250</v>
       </c>
+      <c r="C10" t="s">
+        <v>435</v>
+      </c>
       <c r="D10">
         <v>22</v>
       </c>
+      <c r="E10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" t="s">
+        <v>367</v>
+      </c>
       <c r="G10" t="s">
         <v>263</v>
       </c>
       <c r="H10" t="s">
         <v>317</v>
+      </c>
+      <c r="I10" t="s">
+        <v>381</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>505</v>
+      </c>
+      <c r="L10" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10" t="s">
+        <v>548</v>
+      </c>
+      <c r="N10" t="s">
+        <v>211</v>
+      </c>
+      <c r="O10" t="s">
+        <v>540</v>
+      </c>
+      <c r="P10" t="s">
+        <v>159</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
@@ -4592,14 +5788,47 @@
       <c r="B11" t="s">
         <v>179</v>
       </c>
+      <c r="C11" t="s">
+        <v>436</v>
+      </c>
       <c r="D11">
         <v>40</v>
       </c>
+      <c r="E11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" t="s">
+        <v>372</v>
+      </c>
       <c r="G11" t="s">
         <v>264</v>
       </c>
       <c r="H11" t="s">
         <v>318</v>
+      </c>
+      <c r="I11" t="s">
+        <v>382</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>508</v>
+      </c>
+      <c r="L11" t="s">
+        <v>153</v>
+      </c>
+      <c r="M11" t="s">
+        <v>482</v>
+      </c>
+      <c r="N11" t="s">
+        <v>151</v>
+      </c>
+      <c r="O11" t="s">
+        <v>559</v>
+      </c>
+      <c r="P11" t="s">
+        <v>212</v>
       </c>
       <c r="Q11" t="b">
         <v>0</v>
@@ -4612,14 +5841,47 @@
       <c r="B12" t="s">
         <v>234</v>
       </c>
+      <c r="C12" t="s">
+        <v>437</v>
+      </c>
       <c r="D12">
         <v>11</v>
       </c>
+      <c r="E12" t="s">
+        <v>370</v>
+      </c>
+      <c r="F12" t="s">
+        <v>363</v>
+      </c>
       <c r="G12" t="s">
         <v>265</v>
       </c>
       <c r="H12" t="s">
         <v>319</v>
+      </c>
+      <c r="I12" t="s">
+        <v>383</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>511</v>
+      </c>
+      <c r="L12" t="s">
+        <v>225</v>
+      </c>
+      <c r="M12" t="s">
+        <v>624</v>
+      </c>
+      <c r="N12" t="s">
+        <v>217</v>
+      </c>
+      <c r="O12" t="s">
+        <v>596</v>
+      </c>
+      <c r="P12" t="s">
+        <v>169</v>
       </c>
       <c r="Q12" t="b">
         <v>0</v>
@@ -4632,14 +5894,47 @@
       <c r="B13" t="s">
         <v>180</v>
       </c>
+      <c r="C13" t="s">
+        <v>439</v>
+      </c>
       <c r="D13">
         <v>48</v>
       </c>
+      <c r="E13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" t="s">
+        <v>365</v>
+      </c>
       <c r="G13" t="s">
         <v>266</v>
       </c>
       <c r="H13" t="s">
         <v>320</v>
+      </c>
+      <c r="I13" t="s">
+        <v>384</v>
+      </c>
+      <c r="J13">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>514</v>
+      </c>
+      <c r="L13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s">
+        <v>491</v>
+      </c>
+      <c r="N13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" t="s">
+        <v>546</v>
+      </c>
+      <c r="P13" t="s">
+        <v>170</v>
       </c>
       <c r="Q13" t="b">
         <v>0</v>
@@ -4652,14 +5947,47 @@
       <c r="B14" t="s">
         <v>218</v>
       </c>
+      <c r="C14" t="s">
+        <v>438</v>
+      </c>
       <c r="D14">
         <v>43</v>
       </c>
+      <c r="E14" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" t="s">
+        <v>366</v>
+      </c>
       <c r="G14" t="s">
         <v>267</v>
       </c>
       <c r="H14" t="s">
         <v>321</v>
+      </c>
+      <c r="I14" t="s">
+        <v>385</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>517</v>
+      </c>
+      <c r="L14" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" t="s">
+        <v>506</v>
+      </c>
+      <c r="N14" t="s">
+        <v>208</v>
+      </c>
+      <c r="O14" t="s">
+        <v>495</v>
+      </c>
+      <c r="P14" t="s">
+        <v>205</v>
       </c>
       <c r="Q14" t="b">
         <v>0</v>
@@ -4672,14 +6000,47 @@
       <c r="B15" t="s">
         <v>181</v>
       </c>
+      <c r="C15" t="s">
+        <v>440</v>
+      </c>
       <c r="D15">
         <v>48</v>
       </c>
+      <c r="E15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" t="s">
+        <v>367</v>
+      </c>
       <c r="G15" t="s">
         <v>268</v>
       </c>
       <c r="H15" t="s">
         <v>322</v>
+      </c>
+      <c r="I15" t="s">
+        <v>386</v>
+      </c>
+      <c r="J15">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>520</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="s">
+        <v>538</v>
+      </c>
+      <c r="N15" t="s">
+        <v>212</v>
+      </c>
+      <c r="O15" t="s">
+        <v>501</v>
+      </c>
+      <c r="P15" t="s">
+        <v>207</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
@@ -4692,14 +6053,47 @@
       <c r="B16" t="s">
         <v>223</v>
       </c>
+      <c r="C16" t="s">
+        <v>441</v>
+      </c>
       <c r="D16">
         <v>8</v>
       </c>
+      <c r="E16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" t="s">
+        <v>372</v>
+      </c>
       <c r="G16" t="s">
         <v>269</v>
       </c>
       <c r="H16" t="s">
         <v>323</v>
+      </c>
+      <c r="I16" t="s">
+        <v>387</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>523</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="s">
+        <v>587</v>
+      </c>
+      <c r="N16" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" t="s">
+        <v>510</v>
+      </c>
+      <c r="P16" t="s">
+        <v>154</v>
       </c>
       <c r="Q16" t="b">
         <v>0</v>
@@ -4712,14 +6106,47 @@
       <c r="B17" t="s">
         <v>182</v>
       </c>
+      <c r="C17" t="s">
+        <v>442</v>
+      </c>
       <c r="D17">
         <v>56</v>
       </c>
+      <c r="E17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" t="s">
+        <v>363</v>
+      </c>
       <c r="G17" t="s">
         <v>270</v>
       </c>
       <c r="H17" t="s">
         <v>324</v>
+      </c>
+      <c r="I17" t="s">
+        <v>388</v>
+      </c>
+      <c r="J17">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>526</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="s">
+        <v>621</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>483</v>
+      </c>
+      <c r="P17" t="s">
+        <v>151</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
@@ -4732,14 +6159,47 @@
       <c r="B18" t="s">
         <v>231</v>
       </c>
+      <c r="C18" t="s">
+        <v>443</v>
+      </c>
       <c r="D18">
         <v>7</v>
       </c>
+      <c r="E18" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" t="s">
+        <v>365</v>
+      </c>
       <c r="G18" t="s">
         <v>271</v>
       </c>
       <c r="H18" t="s">
         <v>325</v>
+      </c>
+      <c r="I18" t="s">
+        <v>389</v>
+      </c>
+      <c r="J18">
+        <v>49</v>
+      </c>
+      <c r="K18" t="s">
+        <v>529</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="s">
+        <v>519</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>546</v>
+      </c>
+      <c r="P18" t="s">
+        <v>160</v>
       </c>
       <c r="Q18" t="b">
         <v>0</v>
@@ -4752,14 +6212,47 @@
       <c r="B19" t="s">
         <v>183</v>
       </c>
+      <c r="C19" t="s">
+        <v>444</v>
+      </c>
       <c r="D19">
         <v>57</v>
       </c>
+      <c r="E19" t="s">
+        <v>369</v>
+      </c>
+      <c r="F19" t="s">
+        <v>366</v>
+      </c>
       <c r="G19" t="s">
         <v>272</v>
       </c>
       <c r="H19" t="s">
         <v>326</v>
+      </c>
+      <c r="I19" t="s">
+        <v>390</v>
+      </c>
+      <c r="J19">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>532</v>
+      </c>
+      <c r="L19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M19" t="s">
+        <v>518</v>
+      </c>
+      <c r="N19" t="s">
+        <v>229</v>
+      </c>
+      <c r="O19" t="s">
+        <v>613</v>
+      </c>
+      <c r="P19" t="s">
+        <v>216</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
@@ -4772,14 +6265,47 @@
       <c r="B20" t="s">
         <v>226</v>
       </c>
+      <c r="C20" t="s">
+        <v>445</v>
+      </c>
       <c r="D20">
         <v>40</v>
       </c>
+      <c r="E20" t="s">
+        <v>370</v>
+      </c>
+      <c r="F20" t="s">
+        <v>367</v>
+      </c>
       <c r="G20" t="s">
         <v>273</v>
       </c>
       <c r="H20" t="s">
         <v>327</v>
+      </c>
+      <c r="I20" t="s">
+        <v>391</v>
+      </c>
+      <c r="J20">
+        <v>45</v>
+      </c>
+      <c r="K20" t="s">
+        <v>535</v>
+      </c>
+      <c r="L20" t="s">
+        <v>235</v>
+      </c>
+      <c r="M20" t="s">
+        <v>491</v>
+      </c>
+      <c r="N20" t="s">
+        <v>227</v>
+      </c>
+      <c r="O20" t="s">
+        <v>591</v>
+      </c>
+      <c r="P20" t="s">
+        <v>168</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
@@ -4792,14 +6318,47 @@
       <c r="B21" t="s">
         <v>184</v>
       </c>
+      <c r="C21" t="s">
+        <v>446</v>
+      </c>
       <c r="D21">
         <v>47</v>
       </c>
+      <c r="E21" t="s">
+        <v>371</v>
+      </c>
+      <c r="F21" t="s">
+        <v>372</v>
+      </c>
       <c r="G21" t="s">
         <v>274</v>
       </c>
       <c r="H21" t="s">
         <v>328</v>
+      </c>
+      <c r="I21" t="s">
+        <v>392</v>
+      </c>
+      <c r="J21">
+        <v>48</v>
+      </c>
+      <c r="K21" t="s">
+        <v>538</v>
+      </c>
+      <c r="L21" t="s">
+        <v>157</v>
+      </c>
+      <c r="M21" t="s">
+        <v>512</v>
+      </c>
+      <c r="N21" t="s">
+        <v>232</v>
+      </c>
+      <c r="O21" t="s">
+        <v>519</v>
+      </c>
+      <c r="P21" t="s">
+        <v>229</v>
       </c>
       <c r="Q21" t="b">
         <v>0</v>
@@ -4812,14 +6371,47 @@
       <c r="B22" t="s">
         <v>219</v>
       </c>
+      <c r="C22" t="s">
+        <v>447</v>
+      </c>
       <c r="D22">
         <v>3</v>
       </c>
+      <c r="E22" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" t="s">
+        <v>363</v>
+      </c>
       <c r="G22" t="s">
         <v>275</v>
       </c>
       <c r="H22" t="s">
         <v>329</v>
+      </c>
+      <c r="I22" t="s">
+        <v>393</v>
+      </c>
+      <c r="J22">
+        <v>36</v>
+      </c>
+      <c r="K22" t="s">
+        <v>541</v>
+      </c>
+      <c r="L22" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" t="s">
+        <v>590</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>543</v>
+      </c>
+      <c r="P22" t="s">
+        <v>210</v>
       </c>
       <c r="Q22" t="b">
         <v>0</v>
@@ -4832,14 +6424,47 @@
       <c r="B23" t="s">
         <v>185</v>
       </c>
+      <c r="C23" t="s">
+        <v>448</v>
+      </c>
       <c r="D23">
         <v>47</v>
       </c>
+      <c r="E23" t="s">
+        <v>369</v>
+      </c>
+      <c r="F23" t="s">
+        <v>365</v>
+      </c>
       <c r="G23" t="s">
         <v>276</v>
       </c>
       <c r="H23" t="s">
         <v>330</v>
+      </c>
+      <c r="I23" t="s">
+        <v>394</v>
+      </c>
+      <c r="J23">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>544</v>
+      </c>
+      <c r="L23" t="s">
+        <v>162</v>
+      </c>
+      <c r="M23" t="s">
+        <v>536</v>
+      </c>
+      <c r="N23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O23" t="s">
+        <v>554</v>
+      </c>
+      <c r="P23" t="s">
+        <v>225</v>
       </c>
       <c r="Q23" t="b">
         <v>0</v>
@@ -4852,14 +6477,47 @@
       <c r="B24" t="s">
         <v>242</v>
       </c>
+      <c r="C24" t="s">
+        <v>449</v>
+      </c>
       <c r="D24">
         <v>18</v>
       </c>
+      <c r="E24" t="s">
+        <v>370</v>
+      </c>
+      <c r="F24" t="s">
+        <v>366</v>
+      </c>
       <c r="G24" t="s">
         <v>277</v>
       </c>
       <c r="H24" t="s">
         <v>331</v>
+      </c>
+      <c r="I24" t="s">
+        <v>395</v>
+      </c>
+      <c r="J24">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>547</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="s">
+        <v>563</v>
+      </c>
+      <c r="N24" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" t="s">
+        <v>579</v>
+      </c>
+      <c r="P24" t="s">
+        <v>166</v>
       </c>
       <c r="Q24" t="b">
         <v>0</v>
@@ -4872,14 +6530,47 @@
       <c r="B25" t="s">
         <v>186</v>
       </c>
+      <c r="C25" t="s">
+        <v>450</v>
+      </c>
       <c r="D25">
         <v>24</v>
       </c>
+      <c r="E25" t="s">
+        <v>371</v>
+      </c>
+      <c r="F25" t="s">
+        <v>367</v>
+      </c>
       <c r="G25" t="s">
         <v>278</v>
       </c>
       <c r="H25" t="s">
         <v>332</v>
+      </c>
+      <c r="I25" t="s">
+        <v>396</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>550</v>
+      </c>
+      <c r="L25" t="s">
+        <v>155</v>
+      </c>
+      <c r="M25" t="s">
+        <v>584</v>
+      </c>
+      <c r="N25" t="s">
+        <v>167</v>
+      </c>
+      <c r="O25" t="s">
+        <v>604</v>
+      </c>
+      <c r="P25" t="s">
+        <v>240</v>
       </c>
       <c r="Q25" t="b">
         <v>0</v>
@@ -4892,14 +6583,47 @@
       <c r="B26" t="s">
         <v>241</v>
       </c>
+      <c r="C26" t="s">
+        <v>451</v>
+      </c>
       <c r="D26">
         <v>45</v>
       </c>
+      <c r="E26" t="s">
+        <v>368</v>
+      </c>
+      <c r="F26" t="s">
+        <v>372</v>
+      </c>
       <c r="G26" t="s">
         <v>279</v>
       </c>
       <c r="H26" t="s">
         <v>333</v>
+      </c>
+      <c r="I26" t="s">
+        <v>397</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>552</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="s">
+        <v>610</v>
+      </c>
+      <c r="N26" t="s">
+        <v>172</v>
+      </c>
+      <c r="O26" t="s">
+        <v>486</v>
+      </c>
+      <c r="P26" t="s">
+        <v>204</v>
       </c>
       <c r="Q26" t="b">
         <v>0</v>
@@ -4912,14 +6636,47 @@
       <c r="B27" t="s">
         <v>187</v>
       </c>
+      <c r="C27" t="s">
+        <v>452</v>
+      </c>
       <c r="D27">
         <v>19</v>
       </c>
+      <c r="E27" t="s">
+        <v>369</v>
+      </c>
+      <c r="F27" t="s">
+        <v>363</v>
+      </c>
       <c r="G27" t="s">
         <v>280</v>
       </c>
       <c r="H27" t="s">
         <v>334</v>
+      </c>
+      <c r="I27" t="s">
+        <v>398</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>555</v>
+      </c>
+      <c r="L27" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27" t="s">
+        <v>595</v>
+      </c>
+      <c r="N27" t="s">
+        <v>169</v>
+      </c>
+      <c r="O27" t="s">
+        <v>492</v>
+      </c>
+      <c r="P27" t="s">
+        <v>152</v>
       </c>
       <c r="Q27" t="b">
         <v>0</v>
@@ -4932,14 +6689,47 @@
       <c r="B28" t="s">
         <v>233</v>
       </c>
+      <c r="C28" t="s">
+        <v>453</v>
+      </c>
       <c r="D28">
         <v>24</v>
       </c>
+      <c r="E28" t="s">
+        <v>370</v>
+      </c>
+      <c r="F28" t="s">
+        <v>365</v>
+      </c>
       <c r="G28" t="s">
         <v>281</v>
       </c>
       <c r="H28" t="s">
         <v>335</v>
+      </c>
+      <c r="I28" t="s">
+        <v>399</v>
+      </c>
+      <c r="J28">
+        <v>43</v>
+      </c>
+      <c r="K28" t="s">
+        <v>558</v>
+      </c>
+      <c r="L28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="s">
+        <v>564</v>
+      </c>
+      <c r="N28" t="s">
+        <v>213</v>
+      </c>
+      <c r="O28" t="s">
+        <v>551</v>
+      </c>
+      <c r="P28" t="s">
+        <v>161</v>
       </c>
       <c r="Q28" t="b">
         <v>0</v>
@@ -4952,14 +6742,47 @@
       <c r="B29" t="s">
         <v>188</v>
       </c>
+      <c r="C29" t="s">
+        <v>454</v>
+      </c>
       <c r="D29">
         <v>22</v>
       </c>
+      <c r="E29" t="s">
+        <v>371</v>
+      </c>
+      <c r="F29" t="s">
+        <v>366</v>
+      </c>
       <c r="G29" t="s">
         <v>282</v>
       </c>
       <c r="H29" t="s">
         <v>336</v>
+      </c>
+      <c r="I29" t="s">
+        <v>400</v>
+      </c>
+      <c r="J29">
+        <v>32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>560</v>
+      </c>
+      <c r="L29" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" t="s">
+        <v>503</v>
+      </c>
+      <c r="N29" t="s">
+        <v>153</v>
+      </c>
+      <c r="O29" t="s">
+        <v>489</v>
+      </c>
+      <c r="P29" t="s">
+        <v>237</v>
       </c>
       <c r="Q29" t="b">
         <v>0</v>
@@ -4972,14 +6795,47 @@
       <c r="B30" t="s">
         <v>236</v>
       </c>
+      <c r="C30" t="s">
+        <v>455</v>
+      </c>
       <c r="D30">
         <v>20</v>
       </c>
+      <c r="E30" t="s">
+        <v>368</v>
+      </c>
+      <c r="F30" t="s">
+        <v>367</v>
+      </c>
       <c r="G30" t="s">
         <v>283</v>
       </c>
       <c r="H30" t="s">
         <v>337</v>
+      </c>
+      <c r="I30" t="s">
+        <v>401</v>
+      </c>
+      <c r="J30">
+        <v>45</v>
+      </c>
+      <c r="K30" t="s">
+        <v>563</v>
+      </c>
+      <c r="L30" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" t="s">
+        <v>527</v>
+      </c>
+      <c r="N30" t="s">
+        <v>157</v>
+      </c>
+      <c r="O30" t="s">
+        <v>611</v>
+      </c>
+      <c r="P30" t="s">
+        <v>169</v>
       </c>
       <c r="Q30" t="b">
         <v>0</v>
@@ -4992,14 +6848,47 @@
       <c r="B31" t="s">
         <v>189</v>
       </c>
+      <c r="C31" t="s">
+        <v>456</v>
+      </c>
       <c r="D31">
         <v>17</v>
       </c>
+      <c r="E31" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" t="s">
+        <v>372</v>
+      </c>
       <c r="G31" t="s">
         <v>284</v>
       </c>
       <c r="H31" t="s">
         <v>338</v>
+      </c>
+      <c r="I31" t="s">
+        <v>402</v>
+      </c>
+      <c r="J31">
+        <v>37</v>
+      </c>
+      <c r="K31" t="s">
+        <v>566</v>
+      </c>
+      <c r="L31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" t="s">
+        <v>615</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
+        <v>606</v>
+      </c>
+      <c r="P31" t="s">
+        <v>171</v>
       </c>
       <c r="Q31" t="b">
         <v>0</v>
@@ -5012,14 +6901,47 @@
       <c r="B32" t="s">
         <v>224</v>
       </c>
+      <c r="C32" t="s">
+        <v>457</v>
+      </c>
       <c r="D32">
         <v>29</v>
       </c>
+      <c r="E32" t="s">
+        <v>370</v>
+      </c>
+      <c r="F32" t="s">
+        <v>363</v>
+      </c>
       <c r="G32" t="s">
         <v>285</v>
       </c>
       <c r="H32" t="s">
         <v>339</v>
+      </c>
+      <c r="I32" t="s">
+        <v>403</v>
+      </c>
+      <c r="J32">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>569</v>
+      </c>
+      <c r="L32" t="s">
+        <v>204</v>
+      </c>
+      <c r="M32" t="s">
+        <v>581</v>
+      </c>
+      <c r="N32" t="s">
+        <v>214</v>
+      </c>
+      <c r="O32" t="s">
+        <v>619</v>
+      </c>
+      <c r="P32" t="s">
+        <v>171</v>
       </c>
       <c r="Q32" t="b">
         <v>0</v>
@@ -5032,14 +6954,47 @@
       <c r="B33" t="s">
         <v>190</v>
       </c>
+      <c r="C33" t="s">
+        <v>458</v>
+      </c>
       <c r="D33">
         <v>31</v>
       </c>
+      <c r="E33" t="s">
+        <v>371</v>
+      </c>
+      <c r="F33" t="s">
+        <v>365</v>
+      </c>
       <c r="G33" t="s">
         <v>286</v>
       </c>
       <c r="H33" t="s">
         <v>340</v>
+      </c>
+      <c r="I33" t="s">
+        <v>404</v>
+      </c>
+      <c r="J33">
+        <v>47</v>
+      </c>
+      <c r="K33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L33" t="s">
+        <v>206</v>
+      </c>
+      <c r="M33" t="s">
+        <v>521</v>
+      </c>
+      <c r="N33" t="s">
+        <v>156</v>
+      </c>
+      <c r="O33" t="s">
+        <v>625</v>
+      </c>
+      <c r="P33" t="s">
+        <v>169</v>
       </c>
       <c r="Q33" t="b">
         <v>0</v>
@@ -5052,14 +7007,47 @@
       <c r="B34" t="s">
         <v>228</v>
       </c>
+      <c r="C34" t="s">
+        <v>459</v>
+      </c>
       <c r="D34">
         <v>42</v>
       </c>
+      <c r="E34" t="s">
+        <v>368</v>
+      </c>
+      <c r="F34" t="s">
+        <v>366</v>
+      </c>
       <c r="G34" t="s">
         <v>287</v>
       </c>
       <c r="H34" t="s">
         <v>341</v>
+      </c>
+      <c r="I34" t="s">
+        <v>405</v>
+      </c>
+      <c r="J34">
+        <v>39</v>
+      </c>
+      <c r="K34" t="s">
+        <v>575</v>
+      </c>
+      <c r="L34" t="s">
+        <v>237</v>
+      </c>
+      <c r="M34" t="s">
+        <v>630</v>
+      </c>
+      <c r="N34" t="s">
+        <v>173</v>
+      </c>
+      <c r="O34" t="s">
+        <v>525</v>
+      </c>
+      <c r="P34" t="s">
+        <v>246</v>
       </c>
       <c r="Q34" t="b">
         <v>0</v>
@@ -5072,14 +7060,47 @@
       <c r="B35" t="s">
         <v>191</v>
       </c>
+      <c r="C35" t="s">
+        <v>460</v>
+      </c>
       <c r="D35">
         <v>56</v>
       </c>
+      <c r="E35" t="s">
+        <v>369</v>
+      </c>
+      <c r="F35" t="s">
+        <v>367</v>
+      </c>
       <c r="G35" t="s">
         <v>288</v>
       </c>
       <c r="H35" t="s">
         <v>342</v>
+      </c>
+      <c r="I35" t="s">
+        <v>406</v>
+      </c>
+      <c r="J35">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>565</v>
+      </c>
+      <c r="L35" t="s">
+        <v>157</v>
+      </c>
+      <c r="M35" t="s">
+        <v>603</v>
+      </c>
+      <c r="N35" t="s">
+        <v>240</v>
+      </c>
+      <c r="O35" t="s">
+        <v>598</v>
+      </c>
+      <c r="P35" t="s">
+        <v>216</v>
       </c>
       <c r="Q35" t="b">
         <v>0</v>
@@ -5092,14 +7113,47 @@
       <c r="B36" t="s">
         <v>251</v>
       </c>
+      <c r="C36" t="s">
+        <v>461</v>
+      </c>
       <c r="D36">
         <v>17</v>
       </c>
+      <c r="E36" t="s">
+        <v>370</v>
+      </c>
+      <c r="F36" t="s">
+        <v>372</v>
+      </c>
       <c r="G36" t="s">
         <v>289</v>
       </c>
       <c r="H36" t="s">
         <v>343</v>
+      </c>
+      <c r="I36" t="s">
+        <v>407</v>
+      </c>
+      <c r="J36">
+        <v>40</v>
+      </c>
+      <c r="K36" t="s">
+        <v>580</v>
+      </c>
+      <c r="L36" t="s">
+        <v>152</v>
+      </c>
+      <c r="M36" t="s">
+        <v>612</v>
+      </c>
+      <c r="N36" t="s">
+        <v>247</v>
+      </c>
+      <c r="O36" t="s">
+        <v>498</v>
+      </c>
+      <c r="P36" t="s">
+        <v>206</v>
       </c>
       <c r="Q36" t="b">
         <v>0</v>
@@ -5112,14 +7166,47 @@
       <c r="B37" t="s">
         <v>192</v>
       </c>
+      <c r="C37" t="s">
+        <v>462</v>
+      </c>
       <c r="D37">
         <v>11</v>
       </c>
+      <c r="E37" t="s">
+        <v>371</v>
+      </c>
+      <c r="F37" t="s">
+        <v>363</v>
+      </c>
       <c r="G37" t="s">
         <v>290</v>
       </c>
       <c r="H37" t="s">
         <v>344</v>
+      </c>
+      <c r="I37" t="s">
+        <v>408</v>
+      </c>
+      <c r="J37">
+        <v>49</v>
+      </c>
+      <c r="K37" t="s">
+        <v>583</v>
+      </c>
+      <c r="L37" t="s">
+        <v>154</v>
+      </c>
+      <c r="M37" t="s">
+        <v>578</v>
+      </c>
+      <c r="N37" t="s">
+        <v>166</v>
+      </c>
+      <c r="O37" t="s">
+        <v>574</v>
+      </c>
+      <c r="P37" t="s">
+        <v>165</v>
       </c>
       <c r="Q37" t="b">
         <v>0</v>
@@ -5132,14 +7219,47 @@
       <c r="B38" t="s">
         <v>254</v>
       </c>
+      <c r="C38" t="s">
+        <v>463</v>
+      </c>
       <c r="D38">
         <v>16</v>
       </c>
+      <c r="E38" t="s">
+        <v>368</v>
+      </c>
+      <c r="F38" t="s">
+        <v>365</v>
+      </c>
       <c r="G38" t="s">
         <v>291</v>
       </c>
       <c r="H38" t="s">
         <v>345</v>
+      </c>
+      <c r="I38" t="s">
+        <v>409</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>586</v>
+      </c>
+      <c r="L38" t="s">
+        <v>207</v>
+      </c>
+      <c r="M38" t="s">
+        <v>573</v>
+      </c>
+      <c r="N38" t="s">
+        <v>165</v>
+      </c>
+      <c r="O38" t="s">
+        <v>568</v>
+      </c>
+      <c r="P38" t="s">
+        <v>164</v>
       </c>
       <c r="Q38" t="b">
         <v>0</v>
@@ -5152,14 +7272,47 @@
       <c r="B39" t="s">
         <v>193</v>
       </c>
+      <c r="C39" t="s">
+        <v>464</v>
+      </c>
       <c r="D39">
         <v>20</v>
       </c>
+      <c r="E39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F39" t="s">
+        <v>366</v>
+      </c>
       <c r="G39" t="s">
         <v>292</v>
       </c>
       <c r="H39" t="s">
         <v>346</v>
+      </c>
+      <c r="I39" t="s">
+        <v>410</v>
+      </c>
+      <c r="J39">
+        <v>35</v>
+      </c>
+      <c r="K39" t="s">
+        <v>589</v>
+      </c>
+      <c r="L39" t="s">
+        <v>161</v>
+      </c>
+      <c r="M39" t="s">
+        <v>561</v>
+      </c>
+      <c r="N39" t="s">
+        <v>163</v>
+      </c>
+      <c r="O39" t="s">
+        <v>562</v>
+      </c>
+      <c r="P39" t="s">
+        <v>163</v>
       </c>
       <c r="Q39" t="b">
         <v>0</v>
@@ -5172,14 +7325,47 @@
       <c r="B40" t="s">
         <v>239</v>
       </c>
+      <c r="C40" t="s">
+        <v>465</v>
+      </c>
       <c r="D40">
         <v>26</v>
       </c>
+      <c r="E40" t="s">
+        <v>370</v>
+      </c>
+      <c r="F40" t="s">
+        <v>367</v>
+      </c>
       <c r="G40" t="s">
         <v>293</v>
       </c>
       <c r="H40" t="s">
         <v>347</v>
+      </c>
+      <c r="I40" t="s">
+        <v>411</v>
+      </c>
+      <c r="J40">
+        <v>39</v>
+      </c>
+      <c r="K40" t="s">
+        <v>592</v>
+      </c>
+      <c r="L40" t="s">
+        <v>206</v>
+      </c>
+      <c r="M40" t="s">
+        <v>597</v>
+      </c>
+      <c r="N40" t="s">
+        <v>216</v>
+      </c>
+      <c r="O40" t="s">
+        <v>577</v>
+      </c>
+      <c r="P40" t="s">
+        <v>245</v>
       </c>
       <c r="Q40" t="b">
         <v>0</v>
@@ -5192,14 +7378,47 @@
       <c r="B41" t="s">
         <v>194</v>
       </c>
+      <c r="C41" t="s">
+        <v>466</v>
+      </c>
       <c r="D41">
         <v>1</v>
       </c>
+      <c r="E41" t="s">
+        <v>371</v>
+      </c>
+      <c r="F41" t="s">
+        <v>372</v>
+      </c>
       <c r="G41" t="s">
         <v>294</v>
       </c>
       <c r="H41" t="s">
         <v>348</v>
+      </c>
+      <c r="I41" t="s">
+        <v>412</v>
+      </c>
+      <c r="J41">
+        <v>9</v>
+      </c>
+      <c r="K41" t="s">
+        <v>594</v>
+      </c>
+      <c r="L41" t="s">
+        <v>151</v>
+      </c>
+      <c r="M41" t="s">
+        <v>500</v>
+      </c>
+      <c r="N41" t="s">
+        <v>207</v>
+      </c>
+      <c r="O41" t="s">
+        <v>608</v>
+      </c>
+      <c r="P41" t="s">
+        <v>227</v>
       </c>
       <c r="Q41" t="b">
         <v>0</v>
@@ -5212,14 +7431,47 @@
       <c r="B42" t="s">
         <v>220</v>
       </c>
+      <c r="C42" t="s">
+        <v>467</v>
+      </c>
       <c r="D42">
         <v>2</v>
       </c>
+      <c r="E42" t="s">
+        <v>368</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
       <c r="G42" t="s">
         <v>295</v>
       </c>
       <c r="H42" t="s">
         <v>349</v>
+      </c>
+      <c r="I42" t="s">
+        <v>413</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42" t="s">
+        <v>586</v>
+      </c>
+      <c r="L42" t="s">
+        <v>246</v>
+      </c>
+      <c r="M42" t="s">
+        <v>545</v>
+      </c>
+      <c r="N42" t="s">
+        <v>160</v>
+      </c>
+      <c r="O42" t="s">
+        <v>588</v>
+      </c>
+      <c r="P42" t="s">
+        <v>244</v>
       </c>
       <c r="Q42" t="b">
         <v>0</v>
@@ -5232,14 +7484,47 @@
       <c r="B43" t="s">
         <v>195</v>
       </c>
+      <c r="C43" t="s">
+        <v>468</v>
+      </c>
       <c r="D43">
         <v>17</v>
       </c>
+      <c r="E43" t="s">
+        <v>369</v>
+      </c>
+      <c r="F43" t="s">
+        <v>365</v>
+      </c>
       <c r="G43" t="s">
         <v>296</v>
       </c>
       <c r="H43" t="s">
         <v>350</v>
+      </c>
+      <c r="I43" t="s">
+        <v>414</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43" t="s">
+        <v>599</v>
+      </c>
+      <c r="L43" t="s">
+        <v>204</v>
+      </c>
+      <c r="M43" t="s">
+        <v>530</v>
+      </c>
+      <c r="N43" t="s">
+        <v>235</v>
+      </c>
+      <c r="O43" t="s">
+        <v>569</v>
+      </c>
+      <c r="P43" t="s">
+        <v>170</v>
       </c>
       <c r="Q43" t="b">
         <v>0</v>
@@ -5252,14 +7537,47 @@
       <c r="B44" t="s">
         <v>221</v>
       </c>
+      <c r="C44" t="s">
+        <v>469</v>
+      </c>
       <c r="D44">
         <v>36</v>
       </c>
+      <c r="E44" t="s">
+        <v>370</v>
+      </c>
+      <c r="F44" t="s">
+        <v>366</v>
+      </c>
       <c r="G44" t="s">
         <v>297</v>
       </c>
       <c r="H44" t="s">
         <v>351</v>
+      </c>
+      <c r="I44" t="s">
+        <v>415</v>
+      </c>
+      <c r="J44">
+        <v>23</v>
+      </c>
+      <c r="K44" t="s">
+        <v>602</v>
+      </c>
+      <c r="L44" t="s">
+        <v>154</v>
+      </c>
+      <c r="M44" t="s">
+        <v>556</v>
+      </c>
+      <c r="N44" t="s">
+        <v>162</v>
+      </c>
+      <c r="O44" t="s">
+        <v>582</v>
+      </c>
+      <c r="P44" t="s">
+        <v>214</v>
       </c>
       <c r="Q44" t="b">
         <v>0</v>
@@ -5272,14 +7590,47 @@
       <c r="B45" t="s">
         <v>196</v>
       </c>
+      <c r="C45" t="s">
+        <v>470</v>
+      </c>
       <c r="D45">
         <v>2</v>
       </c>
+      <c r="E45" t="s">
+        <v>368</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
       <c r="G45" t="s">
         <v>298</v>
       </c>
       <c r="H45" t="s">
         <v>352</v>
+      </c>
+      <c r="I45" t="s">
+        <v>416</v>
+      </c>
+      <c r="J45">
+        <v>34</v>
+      </c>
+      <c r="K45" t="s">
+        <v>605</v>
+      </c>
+      <c r="L45" t="s">
+        <v>159</v>
+      </c>
+      <c r="M45" t="s">
+        <v>515</v>
+      </c>
+      <c r="N45" t="s">
+        <v>155</v>
+      </c>
+      <c r="O45" t="s">
+        <v>504</v>
+      </c>
+      <c r="P45" t="s">
+        <v>153</v>
       </c>
       <c r="Q45" t="b">
         <v>0</v>
@@ -5292,14 +7643,47 @@
       <c r="B46" t="s">
         <v>222</v>
       </c>
+      <c r="C46" t="s">
+        <v>471</v>
+      </c>
       <c r="D46">
         <v>21</v>
       </c>
+      <c r="E46" t="s">
+        <v>369</v>
+      </c>
+      <c r="F46" t="s">
+        <v>372</v>
+      </c>
       <c r="G46" t="s">
         <v>299</v>
       </c>
       <c r="H46" t="s">
         <v>353</v>
+      </c>
+      <c r="I46" t="s">
+        <v>417</v>
+      </c>
+      <c r="J46">
+        <v>23</v>
+      </c>
+      <c r="K46" t="s">
+        <v>607</v>
+      </c>
+      <c r="L46" t="s">
+        <v>211</v>
+      </c>
+      <c r="M46" t="s">
+        <v>627</v>
+      </c>
+      <c r="N46" t="s">
+        <v>247</v>
+      </c>
+      <c r="O46" t="s">
+        <v>571</v>
+      </c>
+      <c r="P46" t="s">
+        <v>243</v>
       </c>
       <c r="Q46" t="b">
         <v>0</v>
@@ -5312,14 +7696,47 @@
       <c r="B47" t="s">
         <v>197</v>
       </c>
+      <c r="C47" t="s">
+        <v>472</v>
+      </c>
       <c r="D47">
         <v>51</v>
       </c>
+      <c r="E47" t="s">
+        <v>370</v>
+      </c>
+      <c r="F47" t="s">
+        <v>363</v>
+      </c>
       <c r="G47" t="s">
         <v>300</v>
       </c>
       <c r="H47" t="s">
         <v>354</v>
+      </c>
+      <c r="I47" t="s">
+        <v>418</v>
+      </c>
+      <c r="J47">
+        <v>42</v>
+      </c>
+      <c r="K47" t="s">
+        <v>609</v>
+      </c>
+      <c r="L47" t="s">
+        <v>212</v>
+      </c>
+      <c r="M47" t="s">
+        <v>509</v>
+      </c>
+      <c r="N47" t="s">
+        <v>154</v>
+      </c>
+      <c r="O47" t="s">
+        <v>534</v>
+      </c>
+      <c r="P47" t="s">
+        <v>158</v>
       </c>
       <c r="Q47" t="b">
         <v>0</v>
@@ -5332,14 +7749,47 @@
       <c r="B48" t="s">
         <v>238</v>
       </c>
+      <c r="C48" t="s">
+        <v>473</v>
+      </c>
       <c r="D48">
         <v>31</v>
       </c>
+      <c r="E48" t="s">
+        <v>371</v>
+      </c>
+      <c r="F48" t="s">
+        <v>365</v>
+      </c>
       <c r="G48" t="s">
         <v>301</v>
       </c>
       <c r="H48" t="s">
         <v>355</v>
+      </c>
+      <c r="I48" t="s">
+        <v>419</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+      <c r="K48" t="s">
+        <v>568</v>
+      </c>
+      <c r="L48" t="s">
+        <v>205</v>
+      </c>
+      <c r="M48" t="s">
+        <v>535</v>
+      </c>
+      <c r="N48" t="s">
+        <v>173</v>
+      </c>
+      <c r="O48" t="s">
+        <v>537</v>
+      </c>
+      <c r="P48" t="s">
+        <v>209</v>
       </c>
       <c r="Q48" t="b">
         <v>0</v>
@@ -5352,14 +7802,47 @@
       <c r="B49" t="s">
         <v>198</v>
       </c>
+      <c r="C49" t="s">
+        <v>474</v>
+      </c>
       <c r="D49">
         <v>26</v>
       </c>
+      <c r="E49" t="s">
+        <v>368</v>
+      </c>
+      <c r="F49" t="s">
+        <v>366</v>
+      </c>
       <c r="G49" t="s">
         <v>302</v>
       </c>
       <c r="H49" t="s">
         <v>356</v>
+      </c>
+      <c r="I49" t="s">
+        <v>420</v>
+      </c>
+      <c r="J49">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s">
+        <v>614</v>
+      </c>
+      <c r="L49" t="s">
+        <v>156</v>
+      </c>
+      <c r="M49" t="s">
+        <v>524</v>
+      </c>
+      <c r="N49" t="s">
+        <v>246</v>
+      </c>
+      <c r="O49" t="s">
+        <v>549</v>
+      </c>
+      <c r="P49" t="s">
+        <v>211</v>
       </c>
       <c r="Q49" t="b">
         <v>0</v>
@@ -5372,14 +7855,47 @@
       <c r="B50" t="s">
         <v>249</v>
       </c>
+      <c r="C50" t="s">
+        <v>475</v>
+      </c>
       <c r="D50">
         <v>4</v>
       </c>
+      <c r="E50" t="s">
+        <v>369</v>
+      </c>
+      <c r="F50" t="s">
+        <v>367</v>
+      </c>
       <c r="G50" t="s">
         <v>303</v>
       </c>
       <c r="H50" t="s">
         <v>357</v>
+      </c>
+      <c r="I50" t="s">
+        <v>421</v>
+      </c>
+      <c r="J50">
+        <v>15</v>
+      </c>
+      <c r="K50" t="s">
+        <v>492</v>
+      </c>
+      <c r="L50" t="s">
+        <v>232</v>
+      </c>
+      <c r="M50" t="s">
+        <v>497</v>
+      </c>
+      <c r="N50" t="s">
+        <v>206</v>
+      </c>
+      <c r="O50" t="s">
+        <v>565</v>
+      </c>
+      <c r="P50" t="s">
+        <v>213</v>
       </c>
       <c r="Q50" t="b">
         <v>0</v>
@@ -5392,14 +7908,47 @@
       <c r="B51" t="s">
         <v>199</v>
       </c>
+      <c r="C51" t="s">
+        <v>476</v>
+      </c>
       <c r="D51">
         <v>54</v>
       </c>
+      <c r="E51" t="s">
+        <v>370</v>
+      </c>
+      <c r="F51" t="s">
+        <v>365</v>
+      </c>
       <c r="G51" t="s">
         <v>304</v>
       </c>
       <c r="H51" t="s">
         <v>358</v>
+      </c>
+      <c r="I51" t="s">
+        <v>422</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51" t="s">
+        <v>617</v>
+      </c>
+      <c r="L51" t="s">
+        <v>246</v>
+      </c>
+      <c r="M51" t="s">
+        <v>600</v>
+      </c>
+      <c r="N51" t="s">
+        <v>170</v>
+      </c>
+      <c r="O51" t="s">
+        <v>531</v>
+      </c>
+      <c r="P51" t="s">
+        <v>235</v>
       </c>
       <c r="Q51" t="b">
         <v>0</v>
@@ -5412,14 +7961,47 @@
       <c r="B52" t="s">
         <v>200</v>
       </c>
+      <c r="C52" t="s">
+        <v>477</v>
+      </c>
       <c r="D52">
         <v>7</v>
       </c>
+      <c r="E52" t="s">
+        <v>371</v>
+      </c>
+      <c r="F52" t="s">
+        <v>366</v>
+      </c>
       <c r="G52" t="s">
         <v>305</v>
       </c>
       <c r="H52" t="s">
         <v>359</v>
+      </c>
+      <c r="I52" t="s">
+        <v>423</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52" t="s">
+        <v>620</v>
+      </c>
+      <c r="L52" t="s">
+        <v>229</v>
+      </c>
+      <c r="M52" t="s">
+        <v>593</v>
+      </c>
+      <c r="N52" t="s">
+        <v>215</v>
+      </c>
+      <c r="O52" t="s">
+        <v>516</v>
+      </c>
+      <c r="P52" t="s">
+        <v>155</v>
       </c>
       <c r="Q52" t="b">
         <v>0</v>
@@ -5432,14 +8014,47 @@
       <c r="B53" t="s">
         <v>201</v>
       </c>
+      <c r="C53" t="s">
+        <v>478</v>
+      </c>
       <c r="D53">
         <v>29</v>
       </c>
+      <c r="E53" t="s">
+        <v>368</v>
+      </c>
+      <c r="F53" t="s">
+        <v>367</v>
+      </c>
       <c r="G53" t="s">
         <v>306</v>
       </c>
       <c r="H53" t="s">
         <v>360</v>
+      </c>
+      <c r="I53" t="s">
+        <v>424</v>
+      </c>
+      <c r="J53">
+        <v>7</v>
+      </c>
+      <c r="K53" t="s">
+        <v>623</v>
+      </c>
+      <c r="L53" t="s">
+        <v>208</v>
+      </c>
+      <c r="M53" t="s">
+        <v>618</v>
+      </c>
+      <c r="N53" t="s">
+        <v>247</v>
+      </c>
+      <c r="O53" t="s">
+        <v>601</v>
+      </c>
+      <c r="P53" t="s">
+        <v>170</v>
       </c>
       <c r="Q53" t="b">
         <v>0</v>
@@ -5452,14 +8067,47 @@
       <c r="B54" t="s">
         <v>202</v>
       </c>
+      <c r="C54" t="s">
+        <v>479</v>
+      </c>
       <c r="D54">
         <v>17</v>
       </c>
+      <c r="E54" t="s">
+        <v>369</v>
+      </c>
+      <c r="F54" t="s">
+        <v>372</v>
+      </c>
       <c r="G54" t="s">
         <v>307</v>
       </c>
       <c r="H54" t="s">
         <v>361</v>
+      </c>
+      <c r="I54" t="s">
+        <v>425</v>
+      </c>
+      <c r="J54">
+        <v>41</v>
+      </c>
+      <c r="K54" t="s">
+        <v>626</v>
+      </c>
+      <c r="L54" t="s">
+        <v>208</v>
+      </c>
+      <c r="M54" t="s">
+        <v>533</v>
+      </c>
+      <c r="N54" t="s">
+        <v>158</v>
+      </c>
+      <c r="O54" t="s">
+        <v>616</v>
+      </c>
+      <c r="P54" t="s">
+        <v>240</v>
       </c>
       <c r="Q54" t="b">
         <v>0</v>
@@ -5472,14 +8120,47 @@
       <c r="B55" t="s">
         <v>203</v>
       </c>
+      <c r="C55" t="s">
+        <v>480</v>
+      </c>
       <c r="D55">
         <v>7</v>
       </c>
+      <c r="E55" t="s">
+        <v>370</v>
+      </c>
+      <c r="F55" t="s">
+        <v>363</v>
+      </c>
       <c r="G55" t="s">
         <v>308</v>
       </c>
       <c r="H55" t="s">
         <v>362</v>
+      </c>
+      <c r="I55" t="s">
+        <v>426</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+      <c r="K55" t="s">
+        <v>629</v>
+      </c>
+      <c r="L55" t="s">
+        <v>152</v>
+      </c>
+      <c r="M55" t="s">
+        <v>485</v>
+      </c>
+      <c r="N55" t="s">
+        <v>204</v>
+      </c>
+      <c r="O55" t="s">
+        <v>522</v>
+      </c>
+      <c r="P55" t="s">
+        <v>156</v>
       </c>
       <c r="Q55" t="b">
         <v>0</v>

--- a/Doc/CustomerAction.xlsx
+++ b/Doc/CustomerAction.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CustomerManagementSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FD7C66-6723-4488-9D19-E79EBCB66484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008877D0-E69A-43A9-B619-1A079EE0D445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="1230" windowWidth="11850" windowHeight="13590" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="1890" windowWidth="21810" windowHeight="13590" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="6" r:id="rId1"/>
-    <sheet name="Action" sheetId="5" r:id="rId2"/>
-    <sheet name="Company" sheetId="4" r:id="rId3"/>
-    <sheet name="Staff" sheetId="3" r:id="rId4"/>
-    <sheet name="Customers" sheetId="1" r:id="rId5"/>
+    <sheet name="Customers (2)" sheetId="7" state="hidden" r:id="rId1"/>
+    <sheet name="Action (2)" sheetId="8" state="hidden" r:id="rId2"/>
+    <sheet name="Company (2)" sheetId="9" state="hidden" r:id="rId3"/>
+    <sheet name="Staff (2)" sheetId="10" state="hidden" r:id="rId4"/>
+    <sheet name="Table" sheetId="6" r:id="rId5"/>
+    <sheet name="Customers" sheetId="1" r:id="rId6"/>
+    <sheet name="Action" sheetId="5" r:id="rId7"/>
+    <sheet name="Company" sheetId="4" r:id="rId8"/>
+    <sheet name="Staff" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="396">
   <si>
     <t>customer_name</t>
   </si>
@@ -1191,12 +1195,175 @@
   </si>
   <si>
     <t>久慈郡大子町芦野倉</t>
+  </si>
+  <si>
+    <t>ミヤザキノリコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>サガヨウ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>オマツヨシミ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ホンシオリョウ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>タニガケレイコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コンドウアキラ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>フクダミキ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>セキグチユウタ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>トリウチケイコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>タツミアラタ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総務部</t>
+    <rPh sb="0" eb="2">
+      <t>ソウム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>製造部</t>
+    <rPh sb="0" eb="3">
+      <t>セイゾウブ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>設計部</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイブ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>QA部</t>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>部長</t>
+    <rPh sb="0" eb="2">
+      <t>ブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>課長</t>
+    <rPh sb="0" eb="2">
+      <t>カチョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>主任</t>
+    <rPh sb="0" eb="2">
+      <t>シュニン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>パート</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>メモ2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>メモ1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>メモ3</t>
+  </si>
+  <si>
+    <t>メモ4</t>
+  </si>
+  <si>
+    <t>メモ5</t>
+  </si>
+  <si>
+    <t>メモ6</t>
+  </si>
+  <si>
+    <t>メモ7</t>
+  </si>
+  <si>
+    <t>メモ8</t>
+  </si>
+  <si>
+    <t>メモ9</t>
+  </si>
+  <si>
+    <t>メモ10</t>
+  </si>
+  <si>
+    <t>訪問</t>
+    <rPh sb="0" eb="2">
+      <t>ホウモン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>デモ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TEL受け</t>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>メール送信</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1798,7 +1965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1807,6 +1974,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2162,173 +2335,1176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962417E3-060E-43A7-BA00-AC09E4553E11}">
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B27"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H19" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>274</v>
+      </c>
+      <c r="H21" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>275</v>
+      </c>
+      <c r="H22" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>276</v>
+      </c>
+      <c r="H23" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="B24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>277</v>
+      </c>
+      <c r="H24" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>278</v>
+      </c>
+      <c r="H25" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>281</v>
+      </c>
+      <c r="H28" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H29" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>286</v>
+      </c>
+      <c r="H33" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>287</v>
+      </c>
+      <c r="H34" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>288</v>
+      </c>
+      <c r="H35" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>289</v>
+      </c>
+      <c r="H36" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>290</v>
+      </c>
+      <c r="H37" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>291</v>
+      </c>
+      <c r="H38" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>292</v>
+      </c>
+      <c r="H39" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>293</v>
+      </c>
+      <c r="H40" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="G41" t="s">
+        <v>294</v>
+      </c>
+      <c r="H41" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="G42" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>296</v>
+      </c>
+      <c r="H43" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>297</v>
+      </c>
+      <c r="H44" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>298</v>
+      </c>
+      <c r="H45" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>299</v>
+      </c>
+      <c r="H46" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s">
+        <v>300</v>
+      </c>
+      <c r="H47" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>301</v>
+      </c>
+      <c r="H48" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>302</v>
+      </c>
+      <c r="H49" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="G50" t="s">
+        <v>303</v>
+      </c>
+      <c r="H50" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51">
+        <v>54</v>
+      </c>
+      <c r="G51" t="s">
+        <v>304</v>
+      </c>
+      <c r="H51" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="G52" t="s">
+        <v>305</v>
+      </c>
+      <c r="H52" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>37</v>
+      <c r="G53" t="s">
+        <v>306</v>
+      </c>
+      <c r="H53" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>307</v>
+      </c>
+      <c r="H54" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>308</v>
+      </c>
+      <c r="H55" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2338,11 +3514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99B98A4-D414-417F-B1C5-D73073726D4C}">
   <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2374,11 +3550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8F8359-E26E-45AC-AA21-B96C2004231C}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3203,11 +4379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4053F3E-E415-4D58-A732-14037BB89162}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F105" sqref="A52:F105"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3244,11 +4420,11 @@
         <v>1019</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("pass",TEXT(C2,"@"))</f>
+        <f t="shared" ref="D2:D51" si="0">CONCATENATE("pass",TEXT(C2,"@"))</f>
         <v>pass1019</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(MOD(C2,7)=0,"true","false")</f>
+        <f t="shared" ref="E2:E51" si="1">IF(MOD(C2,7)=0,"true","false")</f>
         <v>false</v>
       </c>
       <c r="F2" t="b">
@@ -3266,11 +4442,11 @@
         <v>1074</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE("pass",TEXT(C3,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1074</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(MOD(C3,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F3" t="b">
@@ -3288,11 +4464,11 @@
         <v>1053</v>
       </c>
       <c r="D4" t="str">
-        <f>CONCATENATE("pass",TEXT(C4,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1053</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(MOD(C4,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F4" t="b">
@@ -3310,11 +4486,11 @@
         <v>1103</v>
       </c>
       <c r="D5" t="str">
-        <f>CONCATENATE("pass",TEXT(C5,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1103</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(MOD(C5,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F5" t="b">
@@ -3332,11 +4508,11 @@
         <v>1042</v>
       </c>
       <c r="D6" t="str">
-        <f>CONCATENATE("pass",TEXT(C6,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1042</v>
       </c>
       <c r="E6" t="str">
-        <f>IF(MOD(C6,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F6" t="b">
@@ -3354,11 +4530,11 @@
         <v>1052</v>
       </c>
       <c r="D7" t="str">
-        <f>CONCATENATE("pass",TEXT(C7,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1052</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(MOD(C7,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F7" t="b">
@@ -3376,11 +4552,11 @@
         <v>1066</v>
       </c>
       <c r="D8" t="str">
-        <f>CONCATENATE("pass",TEXT(C8,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1066</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(MOD(C8,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F8" t="b">
@@ -3398,11 +4574,11 @@
         <v>1017</v>
       </c>
       <c r="D9" t="str">
-        <f>CONCATENATE("pass",TEXT(C9,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1017</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(MOD(C9,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F9" t="b">
@@ -3420,11 +4596,11 @@
         <v>1098</v>
       </c>
       <c r="D10" t="str">
-        <f>CONCATENATE("pass",TEXT(C10,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1098</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(MOD(C10,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F10" t="b">
@@ -3442,11 +4618,11 @@
         <v>1076</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE("pass",TEXT(C11,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1076</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(MOD(C11,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F11" t="b">
@@ -3464,11 +4640,11 @@
         <v>1033</v>
       </c>
       <c r="D12" t="str">
-        <f>CONCATENATE("pass",TEXT(C12,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1033</v>
       </c>
       <c r="E12" t="str">
-        <f>IF(MOD(C12,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F12" t="b">
@@ -3486,11 +4662,11 @@
         <v>1031</v>
       </c>
       <c r="D13" t="str">
-        <f>CONCATENATE("pass",TEXT(C13,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1031</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(MOD(C13,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F13" t="b">
@@ -3508,11 +4684,11 @@
         <v>1012</v>
       </c>
       <c r="D14" t="str">
-        <f>CONCATENATE("pass",TEXT(C14,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1012</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(MOD(C14,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F14" t="b">
@@ -3530,11 +4706,11 @@
         <v>1015</v>
       </c>
       <c r="D15" t="str">
-        <f>CONCATENATE("pass",TEXT(C15,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1015</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(MOD(C15,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F15" t="b">
@@ -3552,11 +4728,11 @@
         <v>1072</v>
       </c>
       <c r="D16" t="str">
-        <f>CONCATENATE("pass",TEXT(C16,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1072</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(MOD(C16,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F16" t="b">
@@ -3574,11 +4750,11 @@
         <v>1024</v>
       </c>
       <c r="D17" t="str">
-        <f>CONCATENATE("pass",TEXT(C17,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1024</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(MOD(C17,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F17" t="b">
@@ -3596,11 +4772,11 @@
         <v>1040</v>
       </c>
       <c r="D18" t="str">
-        <f>CONCATENATE("pass",TEXT(C18,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1040</v>
       </c>
       <c r="E18" t="str">
-        <f>IF(MOD(C18,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F18" t="b">
@@ -3618,11 +4794,11 @@
         <v>1014</v>
       </c>
       <c r="D19" t="str">
-        <f>CONCATENATE("pass",TEXT(C19,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1014</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(MOD(C19,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F19" t="b">
@@ -3640,11 +4816,11 @@
         <v>1041</v>
       </c>
       <c r="D20" t="str">
-        <f>CONCATENATE("pass",TEXT(C20,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1041</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(MOD(C20,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F20" t="b">
@@ -3662,11 +4838,11 @@
         <v>1078</v>
       </c>
       <c r="D21" t="str">
-        <f>CONCATENATE("pass",TEXT(C21,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1078</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(MOD(C21,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F21" t="b">
@@ -3684,11 +4860,11 @@
         <v>1029</v>
       </c>
       <c r="D22" t="str">
-        <f>CONCATENATE("pass",TEXT(C22,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1029</v>
       </c>
       <c r="E22" t="str">
-        <f>IF(MOD(C22,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F22" t="b">
@@ -3706,11 +4882,11 @@
         <v>1034</v>
       </c>
       <c r="D23" t="str">
-        <f>CONCATENATE("pass",TEXT(C23,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1034</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(MOD(C23,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F23" t="b">
@@ -3728,11 +4904,11 @@
         <v>1081</v>
       </c>
       <c r="D24" t="str">
-        <f>CONCATENATE("pass",TEXT(C24,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1081</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(MOD(C24,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F24" t="b">
@@ -3750,11 +4926,11 @@
         <v>1068</v>
       </c>
       <c r="D25" t="str">
-        <f>CONCATENATE("pass",TEXT(C25,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1068</v>
       </c>
       <c r="E25" t="str">
-        <f>IF(MOD(C25,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F25" t="b">
@@ -3772,11 +4948,11 @@
         <v>1006</v>
       </c>
       <c r="D26" t="str">
-        <f>CONCATENATE("pass",TEXT(C26,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1006</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(MOD(C26,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F26" t="b">
@@ -3794,11 +4970,11 @@
         <v>1028</v>
       </c>
       <c r="D27" t="str">
-        <f>CONCATENATE("pass",TEXT(C27,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1028</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(MOD(C27,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F27" t="b">
@@ -3816,11 +4992,11 @@
         <v>1084</v>
       </c>
       <c r="D28" t="str">
-        <f>CONCATENATE("pass",TEXT(C28,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1084</v>
       </c>
       <c r="E28" t="str">
-        <f>IF(MOD(C28,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F28" t="b">
@@ -3838,11 +5014,11 @@
         <v>1070</v>
       </c>
       <c r="D29" t="str">
-        <f>CONCATENATE("pass",TEXT(C29,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1070</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(MOD(C29,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F29" t="b">
@@ -3860,11 +5036,11 @@
         <v>1045</v>
       </c>
       <c r="D30" t="str">
-        <f>CONCATENATE("pass",TEXT(C30,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1045</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(MOD(C30,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F30" t="b">
@@ -3882,11 +5058,11 @@
         <v>1043</v>
       </c>
       <c r="D31" t="str">
-        <f>CONCATENATE("pass",TEXT(C31,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1043</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(MOD(C31,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F31" t="b">
@@ -3904,11 +5080,11 @@
         <v>1063</v>
       </c>
       <c r="D32" t="str">
-        <f>CONCATENATE("pass",TEXT(C32,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1063</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(MOD(C32,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F32" t="b">
@@ -3926,11 +5102,11 @@
         <v>1086</v>
       </c>
       <c r="D33" t="str">
-        <f>CONCATENATE("pass",TEXT(C33,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1086</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(MOD(C33,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F33" t="b">
@@ -3948,11 +5124,11 @@
         <v>1069</v>
       </c>
       <c r="D34" t="str">
-        <f>CONCATENATE("pass",TEXT(C34,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1069</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(MOD(C34,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F34" t="b">
@@ -3970,11 +5146,11 @@
         <v>1021</v>
       </c>
       <c r="D35" t="str">
-        <f>CONCATENATE("pass",TEXT(C35,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1021</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(MOD(C35,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F35" t="b">
@@ -3992,11 +5168,11 @@
         <v>1001</v>
       </c>
       <c r="D36" t="str">
-        <f>CONCATENATE("pass",TEXT(C36,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1001</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(MOD(C36,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F36" t="b">
@@ -4014,11 +5190,11 @@
         <v>1100</v>
       </c>
       <c r="D37" t="str">
-        <f>CONCATENATE("pass",TEXT(C37,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1100</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(MOD(C37,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F37" t="b">
@@ -4036,11 +5212,11 @@
         <v>1065</v>
       </c>
       <c r="D38" t="str">
-        <f>CONCATENATE("pass",TEXT(C38,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1065</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(MOD(C38,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F38" t="b">
@@ -4058,11 +5234,11 @@
         <v>1093</v>
       </c>
       <c r="D39" t="str">
-        <f>CONCATENATE("pass",TEXT(C39,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1093</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(MOD(C39,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F39" t="b">
@@ -4080,11 +5256,11 @@
         <v>1027</v>
       </c>
       <c r="D40" t="str">
-        <f>CONCATENATE("pass",TEXT(C40,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1027</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(MOD(C40,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F40" t="b">
@@ -4102,11 +5278,11 @@
         <v>1096</v>
       </c>
       <c r="D41" t="str">
-        <f>CONCATENATE("pass",TEXT(C41,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1096</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(MOD(C41,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F41" t="b">
@@ -4124,11 +5300,11 @@
         <v>1087</v>
       </c>
       <c r="D42" t="str">
-        <f>CONCATENATE("pass",TEXT(C42,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1087</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(MOD(C42,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F42" t="b">
@@ -4146,11 +5322,11 @@
         <v>1095</v>
       </c>
       <c r="D43" t="str">
-        <f>CONCATENATE("pass",TEXT(C43,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1095</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(MOD(C43,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F43" t="b">
@@ -4168,11 +5344,11 @@
         <v>1057</v>
       </c>
       <c r="D44" t="str">
-        <f>CONCATENATE("pass",TEXT(C44,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1057</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(MOD(C44,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F44" t="b">
@@ -4190,11 +5366,11 @@
         <v>1022</v>
       </c>
       <c r="D45" t="str">
-        <f>CONCATENATE("pass",TEXT(C45,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1022</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(MOD(C45,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F45" t="b">
@@ -4212,11 +5388,11 @@
         <v>1009</v>
       </c>
       <c r="D46" t="str">
-        <f>CONCATENATE("pass",TEXT(C46,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1009</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(MOD(C46,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F46" t="b">
@@ -4234,11 +5410,11 @@
         <v>1005</v>
       </c>
       <c r="D47" t="str">
-        <f>CONCATENATE("pass",TEXT(C47,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1005</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(MOD(C47,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F47" t="b">
@@ -4256,11 +5432,11 @@
         <v>1073</v>
       </c>
       <c r="D48" t="str">
-        <f>CONCATENATE("pass",TEXT(C48,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1073</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(MOD(C48,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F48" t="b">
@@ -4278,11 +5454,11 @@
         <v>1082</v>
       </c>
       <c r="D49" t="str">
-        <f>CONCATENATE("pass",TEXT(C49,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1082</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(MOD(C49,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F49" t="b">
@@ -4300,11 +5476,11 @@
         <v>1064</v>
       </c>
       <c r="D50" t="str">
-        <f>CONCATENATE("pass",TEXT(C50,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1064</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(MOD(C50,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>true</v>
       </c>
       <c r="F50" t="b">
@@ -4322,14 +5498,2338 @@
         <v>1023</v>
       </c>
       <c r="D51" t="str">
-        <f>CONCATENATE("pass",TEXT(C51,"@"))</f>
+        <f t="shared" si="0"/>
         <v>pass1023</v>
       </c>
       <c r="E51" t="str">
-        <f>IF(MOD(C51,7)=0,"true","false")</f>
+        <f t="shared" si="1"/>
         <v>false</v>
       </c>
       <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="Q23" sqref="B14:Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="18" width="38.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2">
+        <v>5029</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44562</v>
+      </c>
+      <c r="L2" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2" s="3">
+        <v>44532</v>
+      </c>
+      <c r="N2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="3">
+        <v>44532</v>
+      </c>
+      <c r="P2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I3">
+        <v>5023</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44632</v>
+      </c>
+      <c r="L3" t="s">
+        <v>382</v>
+      </c>
+      <c r="M3" s="3">
+        <v>44602</v>
+      </c>
+      <c r="N3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O3" s="3">
+        <v>44602</v>
+      </c>
+      <c r="P3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I4">
+        <v>5017</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>44702</v>
+      </c>
+      <c r="L4" t="s">
+        <v>384</v>
+      </c>
+      <c r="M4" s="3">
+        <v>44672</v>
+      </c>
+      <c r="N4" t="s">
+        <v>237</v>
+      </c>
+      <c r="O4" s="3">
+        <v>44672</v>
+      </c>
+      <c r="P4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5">
+        <v>5011</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>44772</v>
+      </c>
+      <c r="L5" t="s">
+        <v>385</v>
+      </c>
+      <c r="M5" s="3">
+        <v>44742</v>
+      </c>
+      <c r="N5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" s="3">
+        <v>44742</v>
+      </c>
+      <c r="P5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I6">
+        <v>5005</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44842</v>
+      </c>
+      <c r="L6" t="s">
+        <v>386</v>
+      </c>
+      <c r="M6" s="3">
+        <v>44812</v>
+      </c>
+      <c r="N6" t="s">
+        <v>204</v>
+      </c>
+      <c r="O6" s="3">
+        <v>44812</v>
+      </c>
+      <c r="P6" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I7">
+        <v>4999</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>44912</v>
+      </c>
+      <c r="L7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M7" s="3">
+        <v>44882</v>
+      </c>
+      <c r="N7" t="s">
+        <v>237</v>
+      </c>
+      <c r="O7" s="3">
+        <v>44882</v>
+      </c>
+      <c r="P7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" t="s">
+        <v>315</v>
+      </c>
+      <c r="I8">
+        <v>4993</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44252</v>
+      </c>
+      <c r="L8" t="s">
+        <v>388</v>
+      </c>
+      <c r="M8" s="3">
+        <v>44952</v>
+      </c>
+      <c r="N8" t="s">
+        <v>151</v>
+      </c>
+      <c r="O8" s="3">
+        <v>44952</v>
+      </c>
+      <c r="P8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9">
+        <v>4987</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>44322</v>
+      </c>
+      <c r="L9" t="s">
+        <v>389</v>
+      </c>
+      <c r="M9" s="3">
+        <v>45022</v>
+      </c>
+      <c r="N9" t="s">
+        <v>204</v>
+      </c>
+      <c r="O9" s="3">
+        <v>45022</v>
+      </c>
+      <c r="P9" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>375</v>
+      </c>
+      <c r="F10" t="s">
+        <v>380</v>
+      </c>
+      <c r="G10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" t="s">
+        <v>317</v>
+      </c>
+      <c r="I10">
+        <v>4981</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>44392</v>
+      </c>
+      <c r="L10" t="s">
+        <v>390</v>
+      </c>
+      <c r="M10" s="3">
+        <v>45092</v>
+      </c>
+      <c r="N10" t="s">
+        <v>237</v>
+      </c>
+      <c r="O10" s="3">
+        <v>45092</v>
+      </c>
+      <c r="P10" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" t="s">
+        <v>381</v>
+      </c>
+      <c r="G11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" t="s">
+        <v>318</v>
+      </c>
+      <c r="I11">
+        <v>4975</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>44462</v>
+      </c>
+      <c r="L11" t="s">
+        <v>391</v>
+      </c>
+      <c r="M11" s="3">
+        <v>45162</v>
+      </c>
+      <c r="N11" t="s">
+        <v>151</v>
+      </c>
+      <c r="O11" s="3">
+        <v>45162</v>
+      </c>
+      <c r="P11" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="B14" t="str">
+        <f>CONCATENATE(B$1,"=","""",B2,"""")</f>
+        <v>customer_name="宮崎典子"</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE(C$1,"=","""",C2,"""")</f>
+        <v>customer_kana="ミヤザキノリコ"</v>
+      </c>
+      <c r="D14" t="str">
+        <f>CONCATENATE(D$1,"=",D2)</f>
+        <v>companyId=1</v>
+      </c>
+      <c r="E14" t="str">
+        <f>CONCATENATE(E$1,"=",E2)</f>
+        <v>section=総務部</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" ref="E14:L14" si="0">CONCATENATE(F$1,"=","""",F2,"""")</f>
+        <v>post="部長"</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>zipcode="300-1261"</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>address="つくば市あしび野"</v>
+      </c>
+      <c r="I14" t="str">
+        <f>CONCATENATE(I$1,"=",I2)</f>
+        <v>tel=5029</v>
+      </c>
+      <c r="J14" t="str">
+        <f>CONCATENATE(J$1,"=",J2)</f>
+        <v>staffId=1</v>
+      </c>
+      <c r="K14" t="str">
+        <f>CONCATENATE(K$1,"=",K2)</f>
+        <v>first_action_date=44562</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>memo="メモ1"</v>
+      </c>
+      <c r="M14" t="str">
+        <f>CONCATENATE(M$1,"=",M2)</f>
+        <v>input_date=44532</v>
+      </c>
+      <c r="N14" t="str">
+        <f>CONCATENATE(N$1,"=","""",N2,"""")</f>
+        <v>input_staff_name="桐生祥秀"</v>
+      </c>
+      <c r="O14" t="str">
+        <f>CONCATENATE(O$1,"=",O2)</f>
+        <v>update_date=44532</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" ref="P14:Q14" si="1">CONCATENATE(P$1,"=","""",P2,"""")</f>
+        <v>update_staff_name="桐生祥秀"</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>CONCATENATE(Q$1,"=",Q2)</f>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" ref="A15:A24" si="2">A3</f>
+        <v>2</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" ref="B15:C15" si="3">CONCATENATE(B$1,"=","""",B3,"""")</f>
+        <v>customer_name="佐賀陽"</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="3"/>
+        <v>customer_kana="サガヨウ"</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:E15" si="4">CONCATENATE(D$1,"=",D3)</f>
+        <v>companyId=2</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="4"/>
+        <v>section=製造部</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ref="F15:M15" si="5">CONCATENATE(F$1,"=","""",F3,"""")</f>
+        <v>post="課長"</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="5"/>
+        <v>zipcode="311-2425"</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="5"/>
+        <v>address="潮来市あやめ"</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" ref="I15:K15" si="6">CONCATENATE(I$1,"=",I3)</f>
+        <v>tel=5023</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="6"/>
+        <v>staffId=2</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="6"/>
+        <v>first_action_date=44632</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:Q15" si="7">CONCATENATE(L$1,"=","""",L3,"""")</f>
+        <v>memo="メモ2"</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" ref="M15:M23" si="8">CONCATENATE(M$1,"=",M3)</f>
+        <v>input_date=44602</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="7"/>
+        <v>input_staff_name="足立美由紀"</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" ref="O15:O24" si="9">CONCATENATE(O$1,"=",O3)</f>
+        <v>update_date=44602</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" ref="P15:Q15" si="10">CONCATENATE(P$1,"=","""",P3,"""")</f>
+        <v>update_staff_name="足立美由紀"</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" ref="Q15:Q24" si="11">CONCATENATE(Q$1,"=",Q3)</f>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" ref="B16:C16" si="12">CONCATENATE(B$1,"=","""",B4,"""")</f>
+        <v>customer_name="尾松佳美"</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="12"/>
+        <v>customer_kana="オマツヨシミ"</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16:E16" si="13">CONCATENATE(D$1,"=",D4)</f>
+        <v>companyId=3</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="13"/>
+        <v>section=設計部</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" ref="F16:M16" si="14">CONCATENATE(F$1,"=","""",F4,"""")</f>
+        <v>post="担当"</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="14"/>
+        <v>zipcode="300-0341"</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="14"/>
+        <v>address="稲敷郡阿見町うずら野"</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" ref="I16:K16" si="15">CONCATENATE(I$1,"=",I4)</f>
+        <v>tel=5017</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="15"/>
+        <v>staffId=3</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="15"/>
+        <v>first_action_date=44702</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:Q16" si="16">CONCATENATE(L$1,"=","""",L4,"""")</f>
+        <v>memo="メモ3"</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="8"/>
+        <v>input_date=44672</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="16"/>
+        <v>input_staff_name="松本尚子"</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="9"/>
+        <v>update_date=44672</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" ref="P16:Q16" si="17">CONCATENATE(P$1,"=","""",P4,"""")</f>
+        <v>update_staff_name="松本尚子"</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="11"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" ref="B17:C17" si="18">CONCATENATE(B$1,"=","""",B5,"""")</f>
+        <v>customer_name="本塩遼"</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="18"/>
+        <v>customer_kana="ホンシオリョウ"</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17:E17" si="19">CONCATENATE(D$1,"=",D5)</f>
+        <v>companyId=4</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="19"/>
+        <v>section=QA部</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" ref="F17:M17" si="20">CONCATENATE(F$1,"=","""",F5,"""")</f>
+        <v>post="主任"</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="20"/>
+        <v>zipcode="300-0028"</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="20"/>
+        <v>address="土浦市おおつ野"</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" ref="I17:K17" si="21">CONCATENATE(I$1,"=",I5)</f>
+        <v>tel=5011</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="21"/>
+        <v>staffId=1</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="21"/>
+        <v>first_action_date=44772</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" ref="L17:Q17" si="22">CONCATENATE(L$1,"=","""",L5,"""")</f>
+        <v>memo="メモ4"</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="8"/>
+        <v>input_date=44742</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="22"/>
+        <v>input_staff_name="桐生祥秀"</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="9"/>
+        <v>update_date=44742</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" ref="P17:Q17" si="23">CONCATENATE(P$1,"=","""",P5,"""")</f>
+        <v>update_staff_name="桐生祥秀"</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="11"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" ref="B18:C18" si="24">CONCATENATE(B$1,"=","""",B6,"""")</f>
+        <v>customer_name="谷掛玲子"</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="24"/>
+        <v>customer_kana="タニガケレイコ"</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ref="D18:E18" si="25">CONCATENATE(D$1,"=",D6)</f>
+        <v>companyId=1</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="25"/>
+        <v>section=総務部</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ref="F18:M18" si="26">CONCATENATE(F$1,"=","""",F6,"""")</f>
+        <v>post="パート"</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="26"/>
+        <v>zipcode="319-1417"</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="26"/>
+        <v>address="日立市かみあい町"</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" ref="I18:K18" si="27">CONCATENATE(I$1,"=",I6)</f>
+        <v>tel=5005</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="27"/>
+        <v>staffId=2</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="27"/>
+        <v>first_action_date=44842</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:Q18" si="28">CONCATENATE(L$1,"=","""",L6,"""")</f>
+        <v>memo="メモ5"</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="8"/>
+        <v>input_date=44812</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="28"/>
+        <v>input_staff_name="足立美由紀"</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="9"/>
+        <v>update_date=44812</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" ref="P18:Q18" si="29">CONCATENATE(P$1,"=","""",P6,"""")</f>
+        <v>update_staff_name="足立美由紀"</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="11"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" ref="B19:C19" si="30">CONCATENATE(B$1,"=","""",B7,"""")</f>
+        <v>customer_name="近藤晃"</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="30"/>
+        <v>customer_kana="コンドウアキラ"</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:E19" si="31">CONCATENATE(D$1,"=",D7)</f>
+        <v>companyId=2</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="31"/>
+        <v>section=設計部</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ref="F19:M19" si="32">CONCATENATE(F$1,"=","""",F7,"""")</f>
+        <v>post="部長"</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="32"/>
+        <v>zipcode="300-2668"</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="32"/>
+        <v>address="つくば市かみかわ"</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" ref="I19:K19" si="33">CONCATENATE(I$1,"=",I7)</f>
+        <v>tel=4999</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="33"/>
+        <v>staffId=3</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="33"/>
+        <v>first_action_date=44912</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" ref="L19:Q19" si="34">CONCATENATE(L$1,"=","""",L7,"""")</f>
+        <v>memo="メモ6"</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="8"/>
+        <v>input_date=44882</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="34"/>
+        <v>input_staff_name="松本尚子"</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="9"/>
+        <v>update_date=44882</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" ref="P19:Q19" si="35">CONCATENATE(P$1,"=","""",P7,"""")</f>
+        <v>update_staff_name="松本尚子"</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="11"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" ref="B20:C20" si="36">CONCATENATE(B$1,"=","""",B8,"""")</f>
+        <v>customer_name="福田美紀"</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="36"/>
+        <v>customer_kana="フクダミキ"</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ref="D20:E20" si="37">CONCATENATE(D$1,"=",D8)</f>
+        <v>companyId=3</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="37"/>
+        <v>section=製造部</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" ref="F20:M20" si="38">CONCATENATE(F$1,"=","""",F8,"""")</f>
+        <v>post="課長"</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="38"/>
+        <v>zipcode="310-0842"</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="38"/>
+        <v>address="水戸市けやき台"</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" ref="I20:K20" si="39">CONCATENATE(I$1,"=",I8)</f>
+        <v>tel=4993</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="39"/>
+        <v>staffId=1</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="39"/>
+        <v>first_action_date=44252</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" ref="L20:Q20" si="40">CONCATENATE(L$1,"=","""",L8,"""")</f>
+        <v>memo="メモ7"</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="8"/>
+        <v>input_date=44952</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="40"/>
+        <v>input_staff_name="桐生祥秀"</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="9"/>
+        <v>update_date=44952</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" ref="P20:Q20" si="41">CONCATENATE(P$1,"=","""",P8,"""")</f>
+        <v>update_staff_name="桐生祥秀"</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="11"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" ref="B21:C21" si="42">CONCATENATE(B$1,"=","""",B9,"""")</f>
+        <v>customer_name="関口裕太"</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="42"/>
+        <v>customer_kana="セキグチユウタ"</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ref="D21:E21" si="43">CONCATENATE(D$1,"=",D9)</f>
+        <v>companyId=4</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="43"/>
+        <v>section=QA部</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" ref="F21:M21" si="44">CONCATENATE(F$1,"=","""",F9,"""")</f>
+        <v>post="担当"</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="44"/>
+        <v>zipcode="302-0128"</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="44"/>
+        <v>address="守谷市けやき台"</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" ref="I21:K21" si="45">CONCATENATE(I$1,"=",I9)</f>
+        <v>tel=4987</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="45"/>
+        <v>staffId=2</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="45"/>
+        <v>first_action_date=44322</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:Q21" si="46">CONCATENATE(L$1,"=","""",L9,"""")</f>
+        <v>memo="メモ8"</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="8"/>
+        <v>input_date=45022</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="46"/>
+        <v>input_staff_name="足立美由紀"</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="9"/>
+        <v>update_date=45022</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" ref="P21:Q21" si="47">CONCATENATE(P$1,"=","""",P9,"""")</f>
+        <v>update_staff_name="足立美由紀"</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="11"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" ref="B22:C22" si="48">CONCATENATE(B$1,"=","""",B10,"""")</f>
+        <v>customer_name="鳥内啓子"</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="48"/>
+        <v>customer_kana="トリウチケイコ"</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22:E22" si="49">CONCATENATE(D$1,"=",D10)</f>
+        <v>companyId=9</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="49"/>
+        <v>section=設計部</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ref="F22:M22" si="50">CONCATENATE(F$1,"=","""",F10,"""")</f>
+        <v>post="主任"</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="50"/>
+        <v>zipcode="306-0055"</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="50"/>
+        <v>address="古河市けやき平"</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" ref="I22:K22" si="51">CONCATENATE(I$1,"=",I10)</f>
+        <v>tel=4981</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="51"/>
+        <v>staffId=3</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="51"/>
+        <v>first_action_date=44392</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" ref="L22:Q22" si="52">CONCATENATE(L$1,"=","""",L10,"""")</f>
+        <v>memo="メモ9"</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="8"/>
+        <v>input_date=45092</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="52"/>
+        <v>input_staff_name="松本尚子"</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="9"/>
+        <v>update_date=45092</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" ref="P22:Q22" si="53">CONCATENATE(P$1,"=","""",P10,"""")</f>
+        <v>update_staff_name="松本尚子"</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="11"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" ref="B23:C23" si="54">CONCATENATE(B$1,"=","""",B11,"""")</f>
+        <v>customer_name="辰巳新"</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="54"/>
+        <v>customer_kana="タツミアラタ"</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23:E23" si="55">CONCATENATE(D$1,"=",D11)</f>
+        <v>companyId=10</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="55"/>
+        <v>section=製造部</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" ref="F23:M23" si="56">CONCATENATE(F$1,"=","""",F11,"""")</f>
+        <v>post="パート"</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="56"/>
+        <v>zipcode="306-0308"</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="56"/>
+        <v>address="猿島郡五霞町ごかみらい"</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" ref="I23:K23" si="57">CONCATENATE(I$1,"=",I11)</f>
+        <v>tel=4975</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="57"/>
+        <v>staffId=1</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="57"/>
+        <v>first_action_date=44462</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" ref="L23:Q23" si="58">CONCATENATE(L$1,"=","""",L11,"""")</f>
+        <v>memo="メモ10"</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="8"/>
+        <v>input_date=45162</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="58"/>
+        <v>input_staff_name="桐生祥秀"</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="9"/>
+        <v>update_date=45162</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" ref="P23:Q23" si="59">CONCATENATE(P$1,"=","""",P11,"""")</f>
+        <v>update_staff_name="桐生祥秀"</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="11"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44563</v>
+      </c>
+      <c r="C2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44588</v>
+      </c>
+      <c r="C3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44613</v>
+      </c>
+      <c r="C4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44638</v>
+      </c>
+      <c r="C5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44663</v>
+      </c>
+      <c r="C6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44688</v>
+      </c>
+      <c r="C7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44713</v>
+      </c>
+      <c r="C8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44738</v>
+      </c>
+      <c r="C9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44763</v>
+      </c>
+      <c r="C10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44788</v>
+      </c>
+      <c r="C11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2">
+        <v>1019</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D33" si="0">CONCATENATE("pass",TEXT(C2,"@"))</f>
+        <v>pass1019</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E33" si="1">IF(MOD(C2,7)=0,"true","false")</f>
+        <v>false</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3">
+        <v>1074</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>pass1074</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4">
+        <v>1053</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>pass1053</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <v>1103</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>pass1103</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6">
+        <v>1042</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>pass1042</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7">
+        <v>1052</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>pass1052</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8">
+        <v>1066</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>pass1066</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9">
+        <v>1017</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>pass1017</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10">
+        <v>1098</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>pass1098</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11">
+        <v>1076</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>pass1076</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
+      <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4340,1153 +7840,4 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H2" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>258</v>
-      </c>
-      <c r="H5" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>259</v>
-      </c>
-      <c r="H6" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H8" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>262</v>
-      </c>
-      <c r="H9" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>263</v>
-      </c>
-      <c r="H10" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>264</v>
-      </c>
-      <c r="H11" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>265</v>
-      </c>
-      <c r="H12" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>267</v>
-      </c>
-      <c r="H14" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15">
-        <v>48</v>
-      </c>
-      <c r="G15" t="s">
-        <v>268</v>
-      </c>
-      <c r="H15" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>269</v>
-      </c>
-      <c r="H16" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>270</v>
-      </c>
-      <c r="H17" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>271</v>
-      </c>
-      <c r="H18" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19">
-        <v>57</v>
-      </c>
-      <c r="G19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H19" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>273</v>
-      </c>
-      <c r="H20" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21">
-        <v>47</v>
-      </c>
-      <c r="G21" t="s">
-        <v>274</v>
-      </c>
-      <c r="H21" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>275</v>
-      </c>
-      <c r="H22" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23">
-        <v>47</v>
-      </c>
-      <c r="G23" t="s">
-        <v>276</v>
-      </c>
-      <c r="H23" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>277</v>
-      </c>
-      <c r="H24" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>278</v>
-      </c>
-      <c r="H25" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>241</v>
-      </c>
-      <c r="D26">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>279</v>
-      </c>
-      <c r="H26" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>280</v>
-      </c>
-      <c r="H27" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>233</v>
-      </c>
-      <c r="D28">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>281</v>
-      </c>
-      <c r="H28" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>282</v>
-      </c>
-      <c r="H29" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>236</v>
-      </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>283</v>
-      </c>
-      <c r="H30" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>284</v>
-      </c>
-      <c r="H31" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32">
-        <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>285</v>
-      </c>
-      <c r="H32" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>190</v>
-      </c>
-      <c r="D33">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>286</v>
-      </c>
-      <c r="H33" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s">
-        <v>287</v>
-      </c>
-      <c r="H34" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35">
-        <v>56</v>
-      </c>
-      <c r="G35" t="s">
-        <v>288</v>
-      </c>
-      <c r="H35" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>251</v>
-      </c>
-      <c r="D36">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>289</v>
-      </c>
-      <c r="H36" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>290</v>
-      </c>
-      <c r="H37" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>254</v>
-      </c>
-      <c r="D38">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>291</v>
-      </c>
-      <c r="H38" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>292</v>
-      </c>
-      <c r="H39" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>239</v>
-      </c>
-      <c r="D40">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>293</v>
-      </c>
-      <c r="H40" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>294</v>
-      </c>
-      <c r="H41" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="G42" t="s">
-        <v>295</v>
-      </c>
-      <c r="H42" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>296</v>
-      </c>
-      <c r="H43" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>221</v>
-      </c>
-      <c r="D44">
-        <v>36</v>
-      </c>
-      <c r="G44" t="s">
-        <v>297</v>
-      </c>
-      <c r="H44" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="G45" t="s">
-        <v>298</v>
-      </c>
-      <c r="H45" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>222</v>
-      </c>
-      <c r="D46">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>299</v>
-      </c>
-      <c r="H46" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>197</v>
-      </c>
-      <c r="D47">
-        <v>51</v>
-      </c>
-      <c r="G47" t="s">
-        <v>300</v>
-      </c>
-      <c r="H47" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>238</v>
-      </c>
-      <c r="D48">
-        <v>31</v>
-      </c>
-      <c r="G48" t="s">
-        <v>301</v>
-      </c>
-      <c r="H48" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>302</v>
-      </c>
-      <c r="H49" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>249</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="G50" t="s">
-        <v>303</v>
-      </c>
-      <c r="H50" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51">
-        <v>54</v>
-      </c>
-      <c r="G51" t="s">
-        <v>304</v>
-      </c>
-      <c r="H51" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52">
-        <v>7</v>
-      </c>
-      <c r="G52" t="s">
-        <v>305</v>
-      </c>
-      <c r="H52" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53">
-        <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>306</v>
-      </c>
-      <c r="H53" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>307</v>
-      </c>
-      <c r="H54" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>203</v>
-      </c>
-      <c r="D55">
-        <v>7</v>
-      </c>
-      <c r="G55" t="s">
-        <v>308</v>
-      </c>
-      <c r="H55" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Doc/CustomerAction.xlsx
+++ b/Doc/CustomerAction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CustomerManagementSystem\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CustomerManagementSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF515BBB-075E-470F-8874-B079A6E862F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA6A163-03DC-4BE0-B979-7CE37483287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15435" yWindow="1890" windowWidth="12750" windowHeight="13590" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Company" sheetId="4" r:id="rId3"/>
     <sheet name="Staff" sheetId="3" r:id="rId4"/>
     <sheet name="Customers" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="715">
   <si>
     <t>customer_name</t>
   </si>
@@ -2086,6 +2087,258 @@
   </si>
   <si>
     <t>2020/8/2</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/1/1")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/1/15")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/1/29")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/2/12")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/2/26")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/3/11")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/3/25")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/4/8")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/4/22")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/5/6")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/5/20")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/6/3")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/6/17")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/7/1")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/7/15")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/7/29")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/8/12")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/8/26")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/9/9")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/9/23")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/10/7")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/10/21")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/11/4")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/11/18")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/12/2")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/12/16")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2020/12/30")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/1/13")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/1/27")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/2/10")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/2/24")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/3/10")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/3/24")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/4/7")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/4/21")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/5/5")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/5/19")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/6/2")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/6/16")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/6/30")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/7/14")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/7/28")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/8/11")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/8/25")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/9/8")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/9/22")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/10/6")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/10/20")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/11/3")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/11/17")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/12/1")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/12/15")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2021/12/29")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/1/12")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/1/26")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/2/9")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/2/23")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/3/9")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/3/23")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/4/6")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/4/20")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/5/4")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/5/18")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/6/1")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/6/15")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/6/29")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/7/13")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/7/27")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/8/10")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/8/24")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/9/7")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/9/21")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/10/5")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/10/19")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/11/2")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/11/16")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/11/30")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/12/14")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2022/12/28")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2023/1/11")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2023/1/25")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2023/2/8")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2023/2/22")</t>
+  </si>
+  <si>
+    <t>DateTime.Parse("2023/3/8")</t>
   </si>
 </sst>
 </file>
@@ -2693,7 +2946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2702,6 +2955,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3236,7 +3492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4843,7 +5099,7 @@
         <v>1069</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D65" si="2">CONCATENATE("pass",TEXT(C34,"@"))</f>
+        <f t="shared" ref="D34:D51" si="2">CONCATENATE("pass",TEXT(C34,"@"))</f>
         <v>pass1069</v>
       </c>
       <c r="E34" t="str">
@@ -5241,7 +5497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B35" workbookViewId="0">
       <selection activeCell="R1" sqref="R1:U1048576"/>
     </sheetView>
   </sheetViews>
@@ -8170,4 +8426,1285 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E6D163-8765-418F-BEEA-879AEAEA1C2A}">
+  <dimension ref="B1:E84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>43831</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT("DateTime.Parse(""",TEXT(C1,"yyyy/m/d"),"""",")")</f>
+        <v>DateTime.Parse("2020/1/1")</v>
+      </c>
+      <c r="E1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43845</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="0">_xlfn.CONCAT("DateTime.Parse(""",TEXT(C2,"yyyy/m/d"),"""",")")</f>
+        <v>DateTime.Parse("2020/1/15")</v>
+      </c>
+      <c r="E2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43859</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/1/29")</v>
+      </c>
+      <c r="E3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43873</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/2/12")</v>
+      </c>
+      <c r="E4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43887</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/2/26")</v>
+      </c>
+      <c r="E5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43901</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/3/11")</v>
+      </c>
+      <c r="E6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43915</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/3/25")</v>
+      </c>
+      <c r="E7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43929</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/4/8")</v>
+      </c>
+      <c r="E8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43943</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/4/22")</v>
+      </c>
+      <c r="E9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43957</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/5/6")</v>
+      </c>
+      <c r="E10" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43971</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/5/20")</v>
+      </c>
+      <c r="E11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43985</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/6/3")</v>
+      </c>
+      <c r="E12" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43999</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/6/17")</v>
+      </c>
+      <c r="E13" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44013</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/7/1")</v>
+      </c>
+      <c r="E14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44027</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/7/15")</v>
+      </c>
+      <c r="E15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44041</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/7/29")</v>
+      </c>
+      <c r="E16" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44055</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/8/12")</v>
+      </c>
+      <c r="E17" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44069</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/8/26")</v>
+      </c>
+      <c r="E18" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44083</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/9/9")</v>
+      </c>
+      <c r="E19" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44097</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/9/23")</v>
+      </c>
+      <c r="E20" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44111</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/10/7")</v>
+      </c>
+      <c r="E21" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44125</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/10/21")</v>
+      </c>
+      <c r="E22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44139</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/11/4")</v>
+      </c>
+      <c r="E23" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44153</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/11/18")</v>
+      </c>
+      <c r="E24" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44167</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/12/2")</v>
+      </c>
+      <c r="E25" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44181</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/12/16")</v>
+      </c>
+      <c r="E26" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44195</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2020/12/30")</v>
+      </c>
+      <c r="E27" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44209</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/1/13")</v>
+      </c>
+      <c r="E28" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44223</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/1/27")</v>
+      </c>
+      <c r="E29" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44237</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/2/10")</v>
+      </c>
+      <c r="E30" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44251</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/2/24")</v>
+      </c>
+      <c r="E31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44265</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/3/10")</v>
+      </c>
+      <c r="E32" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44279</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/3/24")</v>
+      </c>
+      <c r="E33" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44293</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/4/7")</v>
+      </c>
+      <c r="E34" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>44307</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/4/21")</v>
+      </c>
+      <c r="E35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3">
+        <v>44321</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/5/5")</v>
+      </c>
+      <c r="E36" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44335</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/5/19")</v>
+      </c>
+      <c r="E37" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44349</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/6/2")</v>
+      </c>
+      <c r="E38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3">
+        <v>44363</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/6/16")</v>
+      </c>
+      <c r="E39" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40" s="3">
+        <v>44377</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/6/30")</v>
+      </c>
+      <c r="E40" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44391</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/7/14")</v>
+      </c>
+      <c r="E41" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44405</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/7/28")</v>
+      </c>
+      <c r="E42" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44419</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/8/11")</v>
+      </c>
+      <c r="E43" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44433</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/8/25")</v>
+      </c>
+      <c r="E44" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44447</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/9/8")</v>
+      </c>
+      <c r="E45" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44461</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/9/22")</v>
+      </c>
+      <c r="E46" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44475</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/10/6")</v>
+      </c>
+      <c r="E47" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44489</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/10/20")</v>
+      </c>
+      <c r="E48" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44503</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/11/3")</v>
+      </c>
+      <c r="E49" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44517</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/11/17")</v>
+      </c>
+      <c r="E50" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44531</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/12/1")</v>
+      </c>
+      <c r="E51" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44545</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/12/15")</v>
+      </c>
+      <c r="E52" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44559</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2021/12/29")</v>
+      </c>
+      <c r="E53" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B54">
+        <v>54</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44573</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2022/1/12")</v>
+      </c>
+      <c r="E54" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44587</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2022/1/26")</v>
+      </c>
+      <c r="E55" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2022/2/9")</v>
+      </c>
+      <c r="E56" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44615</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2022/2/23")</v>
+      </c>
+      <c r="E57" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44629</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2022/3/9")</v>
+      </c>
+      <c r="E58" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44643</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2022/3/23")</v>
+      </c>
+      <c r="E59" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44657</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2022/4/6")</v>
+      </c>
+      <c r="E60" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B61">
+        <v>61</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44671</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2022/4/20")</v>
+      </c>
+      <c r="E61" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B62">
+        <v>62</v>
+      </c>
+      <c r="C62" s="3">
+        <v>44685</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2022/5/4")</v>
+      </c>
+      <c r="E62" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B63">
+        <v>63</v>
+      </c>
+      <c r="C63" s="3">
+        <v>44699</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2022/5/18")</v>
+      </c>
+      <c r="E63" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64" s="3">
+        <v>44713</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2022/6/1")</v>
+      </c>
+      <c r="E64" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B65">
+        <v>65</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44727</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>DateTime.Parse("2022/6/15")</v>
+      </c>
+      <c r="E65" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B66">
+        <v>66</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44741</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D84" si="1">_xlfn.CONCAT("DateTime.Parse(""",TEXT(C66,"yyyy/m/d"),"""",")")</f>
+        <v>DateTime.Parse("2022/6/29")</v>
+      </c>
+      <c r="E66" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B67">
+        <v>67</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44755</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/7/13")</v>
+      </c>
+      <c r="E67" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44769</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/7/27")</v>
+      </c>
+      <c r="E68" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B69">
+        <v>69</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44783</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/8/10")</v>
+      </c>
+      <c r="E69" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B70">
+        <v>70</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44797</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/8/24")</v>
+      </c>
+      <c r="E70" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B71">
+        <v>71</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44811</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/9/7")</v>
+      </c>
+      <c r="E71" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B72">
+        <v>72</v>
+      </c>
+      <c r="C72" s="3">
+        <v>44825</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/9/21")</v>
+      </c>
+      <c r="E72" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B73">
+        <v>73</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44839</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/10/5")</v>
+      </c>
+      <c r="E73" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B74">
+        <v>74</v>
+      </c>
+      <c r="C74" s="3">
+        <v>44853</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/10/19")</v>
+      </c>
+      <c r="E74" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75" s="3">
+        <v>44867</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/11/2")</v>
+      </c>
+      <c r="E75" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B76">
+        <v>76</v>
+      </c>
+      <c r="C76" s="3">
+        <v>44881</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/11/16")</v>
+      </c>
+      <c r="E76" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B77">
+        <v>77</v>
+      </c>
+      <c r="C77" s="3">
+        <v>44895</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/11/30")</v>
+      </c>
+      <c r="E77" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B78">
+        <v>78</v>
+      </c>
+      <c r="C78" s="3">
+        <v>44909</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/12/14")</v>
+      </c>
+      <c r="E78" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B79">
+        <v>79</v>
+      </c>
+      <c r="C79" s="3">
+        <v>44923</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2022/12/28")</v>
+      </c>
+      <c r="E79" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80" s="3">
+        <v>44937</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2023/1/11")</v>
+      </c>
+      <c r="E80" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B81">
+        <v>81</v>
+      </c>
+      <c r="C81" s="3">
+        <v>44951</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2023/1/25")</v>
+      </c>
+      <c r="E81" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B82">
+        <v>82</v>
+      </c>
+      <c r="C82" s="3">
+        <v>44965</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2023/2/8")</v>
+      </c>
+      <c r="E82" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B83">
+        <v>83</v>
+      </c>
+      <c r="C83" s="3">
+        <v>44979</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2023/2/22")</v>
+      </c>
+      <c r="E83" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B84">
+        <v>84</v>
+      </c>
+      <c r="C84" s="3">
+        <v>44993</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>DateTime.Parse("2023/3/8")</v>
+      </c>
+      <c r="E84" t="s">
+        <v>714</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Doc/CustomerAction.xlsx
+++ b/Doc/CustomerAction.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CustomerManagementSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA6A163-03DC-4BE0-B979-7CE37483287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2328A625-3BF7-4F51-B98D-C6FCB0A11732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15435" yWindow="1890" windowWidth="12750" windowHeight="13590" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="1890" windowWidth="27225" windowHeight="13590" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="6" r:id="rId1"/>
     <sheet name="Action" sheetId="5" r:id="rId2"/>
     <sheet name="Company" sheetId="4" r:id="rId3"/>
     <sheet name="Staff" sheetId="3" r:id="rId4"/>
-    <sheet name="Customers" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Customer" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="628">
   <si>
     <t>customer_name</t>
   </si>
@@ -95,18 +94,6 @@
   </si>
   <si>
     <t xml:space="preserve">delete_flag </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          customerId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         DateTime action_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          action_content </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          action_staffId</t>
   </si>
   <si>
     <t>Customer</t>
@@ -2089,256 +2076,8 @@
     <t>2020/8/2</t>
   </si>
   <si>
-    <t>DateTime.Parse("2020/1/1")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/1/15")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/1/29")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/2/12")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/2/26")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/3/11")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/3/25")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/4/8")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/4/22")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/5/6")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/5/20")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/6/3")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/6/17")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/7/1")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/7/15")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/7/29")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/8/12")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/8/26")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/9/9")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/9/23")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/10/7")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/10/21")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/11/4")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/11/18")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/12/2")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/12/16")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2020/12/30")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/1/13")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/1/27")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/2/10")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/2/24")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/3/10")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/3/24")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/4/7")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/4/21")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/5/5")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/5/19")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/6/2")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/6/16")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/6/30")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/7/14")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/7/28")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/8/11")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/8/25")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/9/8")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/9/22")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/10/6")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/10/20")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/11/3")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/11/17")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/12/1")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/12/15")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2021/12/29")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/1/12")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/1/26")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/2/9")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/2/23")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/3/9")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/3/23")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/4/6")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/4/20")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/5/4")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/5/18")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/6/1")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/6/15")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/6/29")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/7/13")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/7/27")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/8/10")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/8/24")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/9/7")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/9/21")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/10/5")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/10/19")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/11/2")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/11/16")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/11/30")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/12/14")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2022/12/28")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2023/1/11")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2023/1/25")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2023/2/8")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2023/2/22")</t>
-  </si>
-  <si>
-    <t>DateTime.Parse("2023/3/8")</t>
+    <t>Id</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2946,7 +2685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2955,9 +2694,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3327,7 +3063,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3410,15 +3146,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -3428,30 +3164,30 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -3461,25 +3197,25 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3490,32 +3226,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>22</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3526,19 +3265,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="40.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>627</v>
+      </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -3549,802 +3294,1486 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F2" t="str">
+        <f>CONCATENATE("company_name = ","""",B2,""";")</f>
+        <v>company_name = "医療法人徳真会　真岡病院 ";</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE("company_kana = ","""",C2,""";")</f>
+        <v>company_kana = "モウカビョウイン";</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE("delete_flag = false;")</f>
+        <v>delete_flag = false;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F58" si="0">CONCATENATE("company_name = ","""",B3,""";")</f>
+        <v>company_name = "旭化成ファーマ株式会社 ";</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G58" si="1">CONCATENATE("company_kana = ","""",C3,""";")</f>
+        <v>company_kana = "アサヒカセイファーマ";</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H58" si="2">CONCATENATE("delete_flag = false")</f>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "アステラス製薬株式会社 ";</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "アステラスセイヤク";</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "アルフレッサ ";</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "アルフレッサ ";</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "エーザイ株式会社 ";</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "エーザイ";</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "大塚製薬株式会社 ";</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "オオツカセイヤク";</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "小野薬品工業株式会社 ";</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "オノヤクヒンコウギョウ";</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "キッセイ薬品工業株式会社 ";</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "キッセイヤクヒンコウギョウ";</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "協和キリン株式会社 ";</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "キョウワキリン";</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "興和株式会社 ";</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "コウワ";</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "沢井製薬株式会社 ";</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "サワイセイヤク";</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "株式会社三和化学研究所 ";</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "サンワカガクケンキュウショ";</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "ゼリア新薬工業株式会社 ";</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ゼリアシンヤクコウギョウ";</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "大正製薬株式会社 ";</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "タイショウセイヤク";</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "大鵬薬品工業株式会社 ";</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "タイホウヤクヒンコウギョウ";</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "田辺三菱製薬株式会社 ";</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "タナベミツビシセイヤク";</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D18" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "株式会社ツムラ ";</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ツムラ";</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D19" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "テルモ株式会社 ";</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "テルモ";</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D20" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "東和薬品株式会社 ";</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "トウワヤクヒン";</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D21" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "日本化薬株式会社 ";</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ニホンカヤク";</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "日本新薬株式会社 ";</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ニホンシンヤク";</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D23" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "日本臓器製薬株式会社 ";</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ニホンゾウキセイヤク";</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D24" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "日本ベーリンガーインゲルハイム株式会社 ";</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ニホンベーリンガーインゲルハイム";</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "バイエル薬品株式会社 ";</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "バイエルヤクヒン";</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D26" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "ブリストル・マイヤーズ スクイブ株式会社";</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ブリストル マイヤーズ スクイブ";</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D27" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "マルホ株式会社 ";</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "マルホ";</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "Meiji Seika ファルマ株式会社";</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "メイジセイカ ファルマ";</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "株式会社ヤクルト本社 ";</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ヤクルト";</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D30" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "ユニバーサル少額短期保険株式会社 ";</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ユニバーサルショウガクタンキホケン";</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D31" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "あすか製薬株式会社 ";</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "アスカセイヤク";</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D32" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "アストラゼネカ株式会社 ";</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "アストラゼネカ";</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "ファーマ株式会社 ";</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ファーマ";</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D34" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "栄研化学株式会社 ";</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "エイケンカガク";</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D35" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "MSD 株式会社 ";</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "エムエスディー";</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "株式会社大塚製薬工場 ";</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "オオツカセイヤクコウジョウ";</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D37" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "科研製薬株式会社 ";</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "カケンセイヤク";</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D38" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "杏林製薬株式会社 ";</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "キョウリンセイヤク";</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D39" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "クラシエ製薬株式会社 ";</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "クラシエセイヤク";</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D40" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "佐藤製薬株式会社 ";</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "サトウセイヤク";</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D41" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "参天製薬株式会社 ";</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "サンテンセイヤク";</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D42" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "塩野義製薬株式会社 ";</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "シオノギセイヤク";</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D43" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "第一三共株式会社 ";</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ダイイチサンキョウ";</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "大日本住友製薬株式会社 ";</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ダイニッポンスミトモセイヤク";</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D45" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "武田薬品工業株式会社 ";</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "タケダヤクヒンコウギョウ";</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D46" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "中外製薬株式会社 ";</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "チュウガイセイヤク";</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D47" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "帝人ファーマ株式会社 ";</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "テイジンファーマ";</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "トーアエイヨー株式会社 ";</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "トーアエイヨー";</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D49" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "鳥居薬品株式会社 ";</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "トリイヤウヒン";</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D50" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "日本ケミファ株式会社 ";</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ニホンケミファ";</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D51" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "日本製薬株式会社 ";</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ニホンセイヤク";</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D52" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "日本たばこ産業株式会社 ";</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ニホンタバコサンギョウ";</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D53" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "ニプロファーマ株式会社 ";</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ニプロファーマ";</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D54" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "扶桑薬品工業株式会社 ";</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "フヨウヤクヒンコウギョウ";</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D55" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "丸石製薬株式会社 ";</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "マルイシセイヤク";</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D56" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "株式会社ミノファーゲン製薬 ";</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ミノファーゲンセイヤク";</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D57" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "持田製薬株式会社 ";</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "モチダセイヤク";</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D58" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>company_name = "ロート製薬株式会社 ";</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>company_kana = "ロートセイヤク";</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>delete_flag = false</v>
       </c>
     </row>
   </sheetData>
@@ -4369,16 +4798,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -4389,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2">
         <v>1019</v>
@@ -4411,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>1074</v>
@@ -4433,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C4">
         <v>1053</v>
@@ -4455,7 +4884,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>1103</v>
@@ -4477,7 +4906,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C6">
         <v>1042</v>
@@ -4499,7 +4928,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C7">
         <v>1052</v>
@@ -4521,7 +4950,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C8">
         <v>1066</v>
@@ -4543,7 +4972,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C9">
         <v>1017</v>
@@ -4565,7 +4994,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C10">
         <v>1098</v>
@@ -4587,7 +5016,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C11">
         <v>1076</v>
@@ -4609,7 +5038,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C12">
         <v>1033</v>
@@ -4631,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13">
         <v>1031</v>
@@ -4653,7 +5082,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C14">
         <v>1012</v>
@@ -4675,7 +5104,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C15">
         <v>1015</v>
@@ -4697,7 +5126,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C16">
         <v>1072</v>
@@ -4719,7 +5148,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C17">
         <v>1024</v>
@@ -4741,7 +5170,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C18">
         <v>1040</v>
@@ -4763,7 +5192,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C19">
         <v>1014</v>
@@ -4785,7 +5214,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C20">
         <v>1041</v>
@@ -4807,7 +5236,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C21">
         <v>1078</v>
@@ -4829,7 +5258,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C22">
         <v>1029</v>
@@ -4851,7 +5280,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C23">
         <v>1034</v>
@@ -4873,7 +5302,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C24">
         <v>1081</v>
@@ -4895,7 +5324,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C25">
         <v>1068</v>
@@ -4917,7 +5346,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C26">
         <v>1006</v>
@@ -4939,7 +5368,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C27">
         <v>1028</v>
@@ -4961,7 +5390,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C28">
         <v>1084</v>
@@ -4983,7 +5412,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C29">
         <v>1070</v>
@@ -5005,7 +5434,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C30">
         <v>1045</v>
@@ -5027,7 +5456,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C31">
         <v>1043</v>
@@ -5049,7 +5478,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C32">
         <v>1063</v>
@@ -5071,7 +5500,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C33">
         <v>1086</v>
@@ -5093,7 +5522,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C34">
         <v>1069</v>
@@ -5115,7 +5544,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C35">
         <v>1021</v>
@@ -5137,7 +5566,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C36">
         <v>1001</v>
@@ -5159,7 +5588,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C37">
         <v>1100</v>
@@ -5181,7 +5610,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C38">
         <v>1065</v>
@@ -5203,7 +5632,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C39">
         <v>1093</v>
@@ -5225,7 +5654,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C40">
         <v>1027</v>
@@ -5247,7 +5676,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C41">
         <v>1096</v>
@@ -5269,7 +5698,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C42">
         <v>1087</v>
@@ -5291,7 +5720,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C43">
         <v>1095</v>
@@ -5313,7 +5742,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C44">
         <v>1057</v>
@@ -5335,7 +5764,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C45">
         <v>1022</v>
@@ -5357,7 +5786,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C46">
         <v>1009</v>
@@ -5379,7 +5808,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C47">
         <v>1005</v>
@@ -5401,7 +5830,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C48">
         <v>1073</v>
@@ -5423,7 +5852,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C49">
         <v>1082</v>
@@ -5445,7 +5874,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C50">
         <v>1064</v>
@@ -5467,7 +5896,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C51">
         <v>1023</v>
@@ -5497,8 +5926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:U1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5565,49 +5994,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J2">
         <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="N2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
@@ -5618,49 +6047,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D3">
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J3">
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="N3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -5671,49 +6100,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D4">
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J4">
         <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="N4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
@@ -5724,49 +6153,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J5">
         <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
@@ -5777,49 +6206,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D6">
         <v>39</v>
       </c>
       <c r="E6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F6" t="s">
         <v>368</v>
       </c>
-      <c r="F6" t="s">
-        <v>372</v>
-      </c>
       <c r="G6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J6">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M6" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="N6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O6" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
@@ -5830,49 +6259,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D7">
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J7">
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="N7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
@@ -5883,49 +6312,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J8">
         <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="N8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -5936,49 +6365,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D9">
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J9">
         <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M9" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="N9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O9" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -5989,49 +6418,49 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D10">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="N10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
@@ -6042,49 +6471,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D11">
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J11">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q11" t="b">
         <v>0</v>
@@ -6095,49 +6524,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="N12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O12" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q12" t="b">
         <v>0</v>
@@ -6148,49 +6577,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D13">
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I13" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J13">
         <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="b">
         <v>0</v>
@@ -6201,49 +6630,49 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D14">
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F14" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J14">
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M14" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="N14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q14" t="b">
         <v>0</v>
@@ -6254,49 +6683,49 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D15">
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I15" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J15">
         <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M15" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="N15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O15" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
@@ -6307,49 +6736,49 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="N16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q16" t="b">
         <v>0</v>
@@ -6360,49 +6789,49 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D17">
         <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J17">
         <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
@@ -6413,49 +6842,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F18" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G18" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J18">
         <v>49</v>
       </c>
       <c r="K18" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M18" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q18" t="b">
         <v>0</v>
@@ -6466,49 +6895,49 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D19">
         <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F19" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I19" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J19">
         <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O19" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
@@ -6519,49 +6948,49 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D20">
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I20" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J20">
         <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="N20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
@@ -6572,49 +7001,49 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D21">
         <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F21" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H21" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I21" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J21">
         <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="N21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O21" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q21" t="b">
         <v>0</v>
@@ -6625,49 +7054,49 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J22">
         <v>36</v>
       </c>
       <c r="K22" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q22" t="b">
         <v>0</v>
@@ -6678,49 +7107,49 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D23">
         <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F23" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H23" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I23" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J23">
         <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M23" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q23" t="b">
         <v>0</v>
@@ -6731,49 +7160,49 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D24">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F24" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H24" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I24" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J24">
         <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="N24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O24" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q24" t="b">
         <v>0</v>
@@ -6784,49 +7213,49 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F25" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G25" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M25" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O25" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="P25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q25" t="b">
         <v>0</v>
@@ -6837,49 +7266,49 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C26" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D26">
         <v>45</v>
       </c>
       <c r="E26" t="s">
+        <v>364</v>
+      </c>
+      <c r="F26" t="s">
         <v>368</v>
       </c>
-      <c r="F26" t="s">
-        <v>372</v>
-      </c>
       <c r="G26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H26" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I26" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J26">
         <v>12</v>
       </c>
       <c r="K26" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O26" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q26" t="b">
         <v>0</v>
@@ -6890,49 +7319,49 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D27">
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F27" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G27" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H27" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I27" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J27">
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="L27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M27" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="N27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O27" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q27" t="b">
         <v>0</v>
@@ -6943,49 +7372,49 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D28">
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F28" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H28" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I28" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J28">
         <v>43</v>
       </c>
       <c r="K28" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M28" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="N28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q28" t="b">
         <v>0</v>
@@ -6996,49 +7425,49 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D29">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H29" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I29" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J29">
         <v>32</v>
       </c>
       <c r="K29" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="L29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M29" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="N29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O29" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P29" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q29" t="b">
         <v>0</v>
@@ -7049,49 +7478,49 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F30" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G30" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I30" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J30">
         <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L30" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M30" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="N30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O30" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q30" t="b">
         <v>0</v>
@@ -7102,49 +7531,49 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F31" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G31" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H31" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I31" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J31">
         <v>37</v>
       </c>
       <c r="K31" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L31" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="N31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O31" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q31" t="b">
         <v>0</v>
@@ -7155,49 +7584,49 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D32">
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F32" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G32" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H32" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I32" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J32">
         <v>27</v>
       </c>
       <c r="K32" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="L32" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M32" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="N32" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O32" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q32" t="b">
         <v>0</v>
@@ -7208,49 +7637,49 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D33">
         <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F33" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H33" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I33" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J33">
         <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L33" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M33" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N33" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O33" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q33" t="b">
         <v>0</v>
@@ -7261,49 +7690,49 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D34">
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F34" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G34" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H34" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J34">
         <v>39</v>
       </c>
       <c r="K34" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L34" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="N34" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O34" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P34" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q34" t="b">
         <v>0</v>
@@ -7314,49 +7743,49 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D35">
         <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F35" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G35" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H35" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I35" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J35">
         <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M35" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="N35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O35" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q35" t="b">
         <v>0</v>
@@ -7367,49 +7796,49 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C36" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D36">
         <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F36" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G36" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H36" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I36" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J36">
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L36" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M36" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="N36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O36" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q36" t="b">
         <v>0</v>
@@ -7420,49 +7849,49 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D37">
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F37" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G37" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H37" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I37" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J37">
         <v>49</v>
       </c>
       <c r="K37" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M37" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="N37" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O37" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q37" t="b">
         <v>0</v>
@@ -7473,49 +7902,49 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C38" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D38">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F38" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G38" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H38" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I38" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J38">
         <v>7</v>
       </c>
       <c r="K38" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L38" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M38" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N38" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O38" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q38" t="b">
         <v>0</v>
@@ -7526,49 +7955,49 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D39">
         <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F39" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G39" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H39" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I39" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J39">
         <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="L39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M39" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="N39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O39" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q39" t="b">
         <v>0</v>
@@ -7579,49 +8008,49 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C40" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D40">
         <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F40" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G40" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H40" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I40" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J40">
         <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L40" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M40" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="N40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O40" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q40" t="b">
         <v>0</v>
@@ -7632,49 +8061,49 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C41" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F41" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G41" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H41" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I41" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J41">
         <v>9</v>
       </c>
       <c r="K41" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M41" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O41" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="P41" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q41" t="b">
         <v>0</v>
@@ -7685,49 +8114,49 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G42" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H42" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I42" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J42">
         <v>3</v>
       </c>
       <c r="K42" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L42" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M42" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="N42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O42" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="P42" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q42" t="b">
         <v>0</v>
@@ -7738,49 +8167,49 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D43">
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F43" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G43" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H43" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I43" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J43">
         <v>10</v>
       </c>
       <c r="K43" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="L43" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="N43" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O43" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q43" t="b">
         <v>0</v>
@@ -7791,49 +8220,49 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D44">
         <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F44" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G44" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H44" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I44" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J44">
         <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L44" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M44" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="N44" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O44" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="P44" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q44" t="b">
         <v>0</v>
@@ -7844,49 +8273,49 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F45" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G45" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H45" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I45" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J45">
         <v>34</v>
       </c>
       <c r="K45" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="L45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M45" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N45" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O45" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q45" t="b">
         <v>0</v>
@@ -7897,49 +8326,49 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C46" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D46">
         <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F46" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G46" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H46" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I46" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J46">
         <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L46" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M46" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="N46" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O46" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q46" t="b">
         <v>0</v>
@@ -7950,49 +8379,49 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D47">
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H47" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I47" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J47">
         <v>42</v>
       </c>
       <c r="K47" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L47" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M47" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N47" t="s">
+        <v>150</v>
+      </c>
+      <c r="O47" t="s">
+        <v>530</v>
+      </c>
+      <c r="P47" t="s">
         <v>154</v>
-      </c>
-      <c r="O47" t="s">
-        <v>534</v>
-      </c>
-      <c r="P47" t="s">
-        <v>158</v>
       </c>
       <c r="Q47" t="b">
         <v>0</v>
@@ -8003,49 +8432,49 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C48" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D48">
         <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F48" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G48" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H48" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I48" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J48">
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L48" t="s">
+        <v>201</v>
+      </c>
+      <c r="M48" t="s">
+        <v>531</v>
+      </c>
+      <c r="N48" t="s">
+        <v>169</v>
+      </c>
+      <c r="O48" t="s">
+        <v>533</v>
+      </c>
+      <c r="P48" t="s">
         <v>205</v>
-      </c>
-      <c r="M48" t="s">
-        <v>535</v>
-      </c>
-      <c r="N48" t="s">
-        <v>173</v>
-      </c>
-      <c r="O48" t="s">
-        <v>537</v>
-      </c>
-      <c r="P48" t="s">
-        <v>209</v>
       </c>
       <c r="Q48" t="b">
         <v>0</v>
@@ -8056,49 +8485,49 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D49">
         <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F49" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G49" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H49" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I49" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J49">
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L49" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M49" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="N49" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O49" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q49" t="b">
         <v>0</v>
@@ -8109,49 +8538,49 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C50" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F50" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G50" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H50" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I50" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J50">
         <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L50" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M50" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="N50" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O50" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q50" t="b">
         <v>0</v>
@@ -8162,49 +8591,49 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C51" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D51">
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F51" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G51" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H51" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I51" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J51">
         <v>4</v>
       </c>
       <c r="K51" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="L51" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M51" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="N51" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O51" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P51" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q51" t="b">
         <v>0</v>
@@ -8215,49 +8644,49 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C52" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D52">
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F52" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G52" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H52" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I52" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J52">
         <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="L52" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M52" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N52" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O52" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q52" t="b">
         <v>0</v>
@@ -8268,49 +8697,49 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D53">
         <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F53" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G53" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H53" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I53" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J53">
         <v>7</v>
       </c>
       <c r="K53" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="L53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M53" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="N53" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O53" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q53" t="b">
         <v>0</v>
@@ -8321,49 +8750,49 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C54" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D54">
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F54" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G54" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H54" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I54" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J54">
         <v>41</v>
       </c>
       <c r="K54" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="L54" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M54" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="N54" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O54" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q54" t="b">
         <v>0</v>
@@ -8374,1333 +8803,52 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D55">
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F55" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G55" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H55" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I55" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J55">
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="L55" t="s">
+        <v>148</v>
+      </c>
+      <c r="M55" t="s">
+        <v>481</v>
+      </c>
+      <c r="N55" t="s">
+        <v>200</v>
+      </c>
+      <c r="O55" t="s">
+        <v>518</v>
+      </c>
+      <c r="P55" t="s">
         <v>152</v>
       </c>
-      <c r="M55" t="s">
-        <v>485</v>
-      </c>
-      <c r="N55" t="s">
-        <v>204</v>
-      </c>
-      <c r="O55" t="s">
-        <v>522</v>
-      </c>
-      <c r="P55" t="s">
-        <v>156</v>
-      </c>
       <c r="Q55" t="b">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E6D163-8765-418F-BEEA-879AEAEA1C2A}">
-  <dimension ref="B1:E84"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>43831</v>
-      </c>
-      <c r="D1" t="str">
-        <f>_xlfn.CONCAT("DateTime.Parse(""",TEXT(C1,"yyyy/m/d"),"""",")")</f>
-        <v>DateTime.Parse("2020/1/1")</v>
-      </c>
-      <c r="E1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>43845</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D65" si="0">_xlfn.CONCAT("DateTime.Parse(""",TEXT(C2,"yyyy/m/d"),"""",")")</f>
-        <v>DateTime.Parse("2020/1/15")</v>
-      </c>
-      <c r="E2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43859</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/1/29")</v>
-      </c>
-      <c r="E3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43873</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/2/12")</v>
-      </c>
-      <c r="E4" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>43887</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/2/26")</v>
-      </c>
-      <c r="E5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>43901</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/3/11")</v>
-      </c>
-      <c r="E6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43915</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/3/25")</v>
-      </c>
-      <c r="E7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43929</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/4/8")</v>
-      </c>
-      <c r="E8" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>43943</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/4/22")</v>
-      </c>
-      <c r="E9" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <v>43957</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/5/6")</v>
-      </c>
-      <c r="E10" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3">
-        <v>43971</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/5/20")</v>
-      </c>
-      <c r="E11" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <v>43985</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/6/3")</v>
-      </c>
-      <c r="E12" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3">
-        <v>43999</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/6/17")</v>
-      </c>
-      <c r="E13" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44013</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/7/1")</v>
-      </c>
-      <c r="E14" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44027</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/7/15")</v>
-      </c>
-      <c r="E15" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44041</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/7/29")</v>
-      </c>
-      <c r="E16" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44055</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/8/12")</v>
-      </c>
-      <c r="E17" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3">
-        <v>44069</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/8/26")</v>
-      </c>
-      <c r="E18" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3">
-        <v>44083</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/9/9")</v>
-      </c>
-      <c r="E19" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3">
-        <v>44097</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/9/23")</v>
-      </c>
-      <c r="E20" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3">
-        <v>44111</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/10/7")</v>
-      </c>
-      <c r="E21" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3">
-        <v>44125</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/10/21")</v>
-      </c>
-      <c r="E22" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23">
-        <v>23</v>
-      </c>
-      <c r="C23" s="3">
-        <v>44139</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/11/4")</v>
-      </c>
-      <c r="E23" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3">
-        <v>44153</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/11/18")</v>
-      </c>
-      <c r="E24" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3">
-        <v>44167</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/12/2")</v>
-      </c>
-      <c r="E25" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26">
-        <v>26</v>
-      </c>
-      <c r="C26" s="3">
-        <v>44181</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/12/16")</v>
-      </c>
-      <c r="E26" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27">
-        <v>27</v>
-      </c>
-      <c r="C27" s="3">
-        <v>44195</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2020/12/30")</v>
-      </c>
-      <c r="E27" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3">
-        <v>44209</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/1/13")</v>
-      </c>
-      <c r="E28" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3">
-        <v>44223</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/1/27")</v>
-      </c>
-      <c r="E29" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30">
-        <v>30</v>
-      </c>
-      <c r="C30" s="3">
-        <v>44237</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/2/10")</v>
-      </c>
-      <c r="E30" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31">
-        <v>31</v>
-      </c>
-      <c r="C31" s="3">
-        <v>44251</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/2/24")</v>
-      </c>
-      <c r="E31" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32">
-        <v>32</v>
-      </c>
-      <c r="C32" s="3">
-        <v>44265</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/3/10")</v>
-      </c>
-      <c r="E32" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33">
-        <v>33</v>
-      </c>
-      <c r="C33" s="3">
-        <v>44279</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/3/24")</v>
-      </c>
-      <c r="E33" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34">
-        <v>34</v>
-      </c>
-      <c r="C34" s="3">
-        <v>44293</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/4/7")</v>
-      </c>
-      <c r="E34" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35">
-        <v>35</v>
-      </c>
-      <c r="C35" s="3">
-        <v>44307</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/4/21")</v>
-      </c>
-      <c r="E35" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36">
-        <v>36</v>
-      </c>
-      <c r="C36" s="3">
-        <v>44321</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/5/5")</v>
-      </c>
-      <c r="E36" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37">
-        <v>37</v>
-      </c>
-      <c r="C37" s="3">
-        <v>44335</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/5/19")</v>
-      </c>
-      <c r="E37" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38">
-        <v>38</v>
-      </c>
-      <c r="C38" s="3">
-        <v>44349</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/6/2")</v>
-      </c>
-      <c r="E38" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39">
-        <v>39</v>
-      </c>
-      <c r="C39" s="3">
-        <v>44363</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/6/16")</v>
-      </c>
-      <c r="E39" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/6/30")</v>
-      </c>
-      <c r="E40" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41">
-        <v>41</v>
-      </c>
-      <c r="C41" s="3">
-        <v>44391</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/7/14")</v>
-      </c>
-      <c r="E41" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42">
-        <v>42</v>
-      </c>
-      <c r="C42" s="3">
-        <v>44405</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/7/28")</v>
-      </c>
-      <c r="E42" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43">
-        <v>43</v>
-      </c>
-      <c r="C43" s="3">
-        <v>44419</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/8/11")</v>
-      </c>
-      <c r="E43" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44">
-        <v>44</v>
-      </c>
-      <c r="C44" s="3">
-        <v>44433</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/8/25")</v>
-      </c>
-      <c r="E44" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45">
-        <v>45</v>
-      </c>
-      <c r="C45" s="3">
-        <v>44447</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/9/8")</v>
-      </c>
-      <c r="E45" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46">
-        <v>46</v>
-      </c>
-      <c r="C46" s="3">
-        <v>44461</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/9/22")</v>
-      </c>
-      <c r="E46" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47">
-        <v>47</v>
-      </c>
-      <c r="C47" s="3">
-        <v>44475</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/10/6")</v>
-      </c>
-      <c r="E47" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48">
-        <v>48</v>
-      </c>
-      <c r="C48" s="3">
-        <v>44489</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/10/20")</v>
-      </c>
-      <c r="E48" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49">
-        <v>49</v>
-      </c>
-      <c r="C49" s="3">
-        <v>44503</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/11/3")</v>
-      </c>
-      <c r="E49" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50">
-        <v>50</v>
-      </c>
-      <c r="C50" s="3">
-        <v>44517</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/11/17")</v>
-      </c>
-      <c r="E50" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51">
-        <v>51</v>
-      </c>
-      <c r="C51" s="3">
-        <v>44531</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/12/1")</v>
-      </c>
-      <c r="E51" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52">
-        <v>52</v>
-      </c>
-      <c r="C52" s="3">
-        <v>44545</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/12/15")</v>
-      </c>
-      <c r="E52" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53">
-        <v>53</v>
-      </c>
-      <c r="C53" s="3">
-        <v>44559</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2021/12/29")</v>
-      </c>
-      <c r="E53" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B54">
-        <v>54</v>
-      </c>
-      <c r="C54" s="3">
-        <v>44573</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2022/1/12")</v>
-      </c>
-      <c r="E54" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B55">
-        <v>55</v>
-      </c>
-      <c r="C55" s="3">
-        <v>44587</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2022/1/26")</v>
-      </c>
-      <c r="E55" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56">
-        <v>56</v>
-      </c>
-      <c r="C56" s="3">
-        <v>44601</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2022/2/9")</v>
-      </c>
-      <c r="E56" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B57">
-        <v>57</v>
-      </c>
-      <c r="C57" s="3">
-        <v>44615</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2022/2/23")</v>
-      </c>
-      <c r="E57" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B58">
-        <v>58</v>
-      </c>
-      <c r="C58" s="3">
-        <v>44629</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2022/3/9")</v>
-      </c>
-      <c r="E58" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B59">
-        <v>59</v>
-      </c>
-      <c r="C59" s="3">
-        <v>44643</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2022/3/23")</v>
-      </c>
-      <c r="E59" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B60">
-        <v>60</v>
-      </c>
-      <c r="C60" s="3">
-        <v>44657</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2022/4/6")</v>
-      </c>
-      <c r="E60" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B61">
-        <v>61</v>
-      </c>
-      <c r="C61" s="3">
-        <v>44671</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2022/4/20")</v>
-      </c>
-      <c r="E61" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B62">
-        <v>62</v>
-      </c>
-      <c r="C62" s="3">
-        <v>44685</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2022/5/4")</v>
-      </c>
-      <c r="E62" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B63">
-        <v>63</v>
-      </c>
-      <c r="C63" s="3">
-        <v>44699</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2022/5/18")</v>
-      </c>
-      <c r="E63" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B64">
-        <v>64</v>
-      </c>
-      <c r="C64" s="3">
-        <v>44713</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2022/6/1")</v>
-      </c>
-      <c r="E64" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B65">
-        <v>65</v>
-      </c>
-      <c r="C65" s="3">
-        <v>44727</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>DateTime.Parse("2022/6/15")</v>
-      </c>
-      <c r="E65" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B66">
-        <v>66</v>
-      </c>
-      <c r="C66" s="3">
-        <v>44741</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" ref="D66:D84" si="1">_xlfn.CONCAT("DateTime.Parse(""",TEXT(C66,"yyyy/m/d"),"""",")")</f>
-        <v>DateTime.Parse("2022/6/29")</v>
-      </c>
-      <c r="E66" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B67">
-        <v>67</v>
-      </c>
-      <c r="C67" s="3">
-        <v>44755</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/7/13")</v>
-      </c>
-      <c r="E67" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B68">
-        <v>68</v>
-      </c>
-      <c r="C68" s="3">
-        <v>44769</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/7/27")</v>
-      </c>
-      <c r="E68" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B69">
-        <v>69</v>
-      </c>
-      <c r="C69" s="3">
-        <v>44783</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/8/10")</v>
-      </c>
-      <c r="E69" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B70">
-        <v>70</v>
-      </c>
-      <c r="C70" s="3">
-        <v>44797</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/8/24")</v>
-      </c>
-      <c r="E70" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B71">
-        <v>71</v>
-      </c>
-      <c r="C71" s="3">
-        <v>44811</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/9/7")</v>
-      </c>
-      <c r="E71" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B72">
-        <v>72</v>
-      </c>
-      <c r="C72" s="3">
-        <v>44825</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/9/21")</v>
-      </c>
-      <c r="E72" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B73">
-        <v>73</v>
-      </c>
-      <c r="C73" s="3">
-        <v>44839</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/10/5")</v>
-      </c>
-      <c r="E73" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B74">
-        <v>74</v>
-      </c>
-      <c r="C74" s="3">
-        <v>44853</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/10/19")</v>
-      </c>
-      <c r="E74" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B75">
-        <v>75</v>
-      </c>
-      <c r="C75" s="3">
-        <v>44867</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/11/2")</v>
-      </c>
-      <c r="E75" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B76">
-        <v>76</v>
-      </c>
-      <c r="C76" s="3">
-        <v>44881</v>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/11/16")</v>
-      </c>
-      <c r="E76" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B77">
-        <v>77</v>
-      </c>
-      <c r="C77" s="3">
-        <v>44895</v>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/11/30")</v>
-      </c>
-      <c r="E77" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B78">
-        <v>78</v>
-      </c>
-      <c r="C78" s="3">
-        <v>44909</v>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/12/14")</v>
-      </c>
-      <c r="E78" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B79">
-        <v>79</v>
-      </c>
-      <c r="C79" s="3">
-        <v>44923</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2022/12/28")</v>
-      </c>
-      <c r="E79" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B80">
-        <v>80</v>
-      </c>
-      <c r="C80" s="3">
-        <v>44937</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2023/1/11")</v>
-      </c>
-      <c r="E80" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B81">
-        <v>81</v>
-      </c>
-      <c r="C81" s="3">
-        <v>44951</v>
-      </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2023/1/25")</v>
-      </c>
-      <c r="E81" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B82">
-        <v>82</v>
-      </c>
-      <c r="C82" s="3">
-        <v>44965</v>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2023/2/8")</v>
-      </c>
-      <c r="E82" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B83">
-        <v>83</v>
-      </c>
-      <c r="C83" s="3">
-        <v>44979</v>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2023/2/22")</v>
-      </c>
-      <c r="E83" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B84">
-        <v>84</v>
-      </c>
-      <c r="C84" s="3">
-        <v>44993</v>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>DateTime.Parse("2023/3/8")</v>
-      </c>
-      <c r="E84" t="s">
-        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/CustomerAction.xlsx
+++ b/Doc/CustomerAction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CustomerManagementSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2328A625-3BF7-4F51-B98D-C6FCB0A11732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC590BF-99B7-4C44-AC2A-D267793A0865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1890" windowWidth="27225" windowHeight="13590" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="1890" windowWidth="27225" windowHeight="13590" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="632">
   <si>
     <t>customer_name</t>
   </si>
@@ -2077,6 +2077,31 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>action_date</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>訪問</t>
+    <rPh sb="0" eb="2">
+      <t>ホウモン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>電話受け</t>
+    <rPh sb="0" eb="3">
+      <t>デンワウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>来店</t>
+    <rPh sb="0" eb="2">
+      <t>ライテン</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2685,7 +2710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2694,6 +2719,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3226,10 +3254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3248,13 +3276,241 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>628</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f ca="1">INT(RAND()*10)+1</f>
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44563</v>
+      </c>
+      <c r="D2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2">
+        <f ca="1">INT(RAND()*9)+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B13" ca="1" si="0">INT(RAND()*10)+1</f>
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44582</v>
+      </c>
+      <c r="D3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" ca="1" si="1">INT(RAND()*9)+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44620</v>
+      </c>
+      <c r="D5" t="s">
+        <v>629</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44639</v>
+      </c>
+      <c r="D6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44658</v>
+      </c>
+      <c r="D7" t="s">
+        <v>631</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44677</v>
+      </c>
+      <c r="D8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44696</v>
+      </c>
+      <c r="D9" t="s">
+        <v>630</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44715</v>
+      </c>
+      <c r="D10" t="s">
+        <v>631</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44734</v>
+      </c>
+      <c r="D11" t="s">
+        <v>629</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44753</v>
+      </c>
+      <c r="D12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44772</v>
+      </c>
+      <c r="D13" t="s">
+        <v>631</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3265,10 +3521,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H58"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3280,7 +3536,7 @@
     <col min="8" max="8" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>627</v>
       </c>
@@ -3294,7 +3550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3307,20 +3563,8 @@
       <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="str">
-        <f>CONCATENATE("company_name = ","""",B2,""";")</f>
-        <v>company_name = "医療法人徳真会　真岡病院 ";</v>
-      </c>
-      <c r="G2" t="str">
-        <f>CONCATENATE("company_kana = ","""",C2,""";")</f>
-        <v>company_kana = "モウカビョウイン";</v>
-      </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE("delete_flag = false;")</f>
-        <v>delete_flag = false;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3333,20 +3577,8 @@
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F58" si="0">CONCATENATE("company_name = ","""",B3,""";")</f>
-        <v>company_name = "旭化成ファーマ株式会社 ";</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G58" si="1">CONCATENATE("company_kana = ","""",C3,""";")</f>
-        <v>company_kana = "アサヒカセイファーマ";</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H58" si="2">CONCATENATE("delete_flag = false")</f>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3359,20 +3591,8 @@
       <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "アステラス製薬株式会社 ";</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "アステラスセイヤク";</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3385,20 +3605,8 @@
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "アルフレッサ ";</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "アルフレッサ ";</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3411,20 +3619,8 @@
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "エーザイ株式会社 ";</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "エーザイ";</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3437,20 +3633,8 @@
       <c r="D7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "大塚製薬株式会社 ";</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "オオツカセイヤク";</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3463,20 +3647,8 @@
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "小野薬品工業株式会社 ";</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "オノヤクヒンコウギョウ";</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3489,20 +3661,8 @@
       <c r="D9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "キッセイ薬品工業株式会社 ";</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "キッセイヤクヒンコウギョウ";</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3515,20 +3675,8 @@
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "協和キリン株式会社 ";</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "キョウワキリン";</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3541,20 +3689,8 @@
       <c r="D11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "興和株式会社 ";</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "コウワ";</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3567,20 +3703,8 @@
       <c r="D12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "沢井製薬株式会社 ";</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "サワイセイヤク";</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3593,20 +3717,8 @@
       <c r="D13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "株式会社三和化学研究所 ";</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "サンワカガクケンキュウショ";</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3619,20 +3731,8 @@
       <c r="D14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "ゼリア新薬工業株式会社 ";</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ゼリアシンヤクコウギョウ";</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3645,20 +3745,8 @@
       <c r="D15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "大正製薬株式会社 ";</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "タイショウセイヤク";</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3671,20 +3759,8 @@
       <c r="D16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "大鵬薬品工業株式会社 ";</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "タイホウヤクヒンコウギョウ";</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3697,20 +3773,8 @@
       <c r="D17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "田辺三菱製薬株式会社 ";</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "タナベミツビシセイヤク";</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3723,20 +3787,8 @@
       <c r="D18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "株式会社ツムラ ";</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ツムラ";</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3749,20 +3801,8 @@
       <c r="D19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "テルモ株式会社 ";</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "テルモ";</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3775,20 +3815,8 @@
       <c r="D20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "東和薬品株式会社 ";</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "トウワヤクヒン";</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3801,20 +3829,8 @@
       <c r="D21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "日本化薬株式会社 ";</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ニホンカヤク";</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3827,20 +3843,8 @@
       <c r="D22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "日本新薬株式会社 ";</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ニホンシンヤク";</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3853,20 +3857,8 @@
       <c r="D23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "日本臓器製薬株式会社 ";</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ニホンゾウキセイヤク";</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3879,20 +3871,8 @@
       <c r="D24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "日本ベーリンガーインゲルハイム株式会社 ";</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ニホンベーリンガーインゲルハイム";</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3905,20 +3885,8 @@
       <c r="D25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "バイエル薬品株式会社 ";</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "バイエルヤクヒン";</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3931,20 +3899,8 @@
       <c r="D26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "ブリストル・マイヤーズ スクイブ株式会社";</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ブリストル マイヤーズ スクイブ";</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3957,20 +3913,8 @@
       <c r="D27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "マルホ株式会社 ";</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "マルホ";</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3983,20 +3927,8 @@
       <c r="D28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "Meiji Seika ファルマ株式会社";</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "メイジセイカ ファルマ";</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4009,20 +3941,8 @@
       <c r="D29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "株式会社ヤクルト本社 ";</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ヤクルト";</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4035,20 +3955,8 @@
       <c r="D30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "ユニバーサル少額短期保険株式会社 ";</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ユニバーサルショウガクタンキホケン";</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4061,20 +3969,8 @@
       <c r="D31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "あすか製薬株式会社 ";</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "アスカセイヤク";</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4087,20 +3983,8 @@
       <c r="D32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "アストラゼネカ株式会社 ";</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "アストラゼネカ";</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4113,20 +3997,8 @@
       <c r="D33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "ファーマ株式会社 ";</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ファーマ";</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4139,20 +4011,8 @@
       <c r="D34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "栄研化学株式会社 ";</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "エイケンカガク";</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4165,20 +4025,8 @@
       <c r="D35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "MSD 株式会社 ";</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "エムエスディー";</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4191,20 +4039,8 @@
       <c r="D36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "株式会社大塚製薬工場 ";</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "オオツカセイヤクコウジョウ";</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4217,20 +4053,8 @@
       <c r="D37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "科研製薬株式会社 ";</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "カケンセイヤク";</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4243,20 +4067,8 @@
       <c r="D38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "杏林製薬株式会社 ";</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "キョウリンセイヤク";</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4269,20 +4081,8 @@
       <c r="D39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "クラシエ製薬株式会社 ";</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "クラシエセイヤク";</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4295,20 +4095,8 @@
       <c r="D40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "佐藤製薬株式会社 ";</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "サトウセイヤク";</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4321,20 +4109,8 @@
       <c r="D41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "参天製薬株式会社 ";</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "サンテンセイヤク";</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4347,20 +4123,8 @@
       <c r="D42" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "塩野義製薬株式会社 ";</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "シオノギセイヤク";</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4373,20 +4137,8 @@
       <c r="D43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "第一三共株式会社 ";</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ダイイチサンキョウ";</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4399,20 +4151,8 @@
       <c r="D44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "大日本住友製薬株式会社 ";</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ダイニッポンスミトモセイヤク";</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4425,20 +4165,8 @@
       <c r="D45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "武田薬品工業株式会社 ";</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "タケダヤクヒンコウギョウ";</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4451,20 +4179,8 @@
       <c r="D46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "中外製薬株式会社 ";</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "チュウガイセイヤク";</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4477,20 +4193,8 @@
       <c r="D47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "帝人ファーマ株式会社 ";</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "テイジンファーマ";</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4503,20 +4207,8 @@
       <c r="D48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "トーアエイヨー株式会社 ";</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "トーアエイヨー";</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4529,20 +4221,8 @@
       <c r="D49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "鳥居薬品株式会社 ";</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "トリイヤウヒン";</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4555,20 +4235,8 @@
       <c r="D50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "日本ケミファ株式会社 ";</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ニホンケミファ";</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4581,20 +4249,8 @@
       <c r="D51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "日本製薬株式会社 ";</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ニホンセイヤク";</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4607,20 +4263,8 @@
       <c r="D52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "日本たばこ産業株式会社 ";</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ニホンタバコサンギョウ";</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4633,20 +4277,8 @@
       <c r="D53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "ニプロファーマ株式会社 ";</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ニプロファーマ";</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4659,20 +4291,8 @@
       <c r="D54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "扶桑薬品工業株式会社 ";</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "フヨウヤクヒンコウギョウ";</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4685,20 +4305,8 @@
       <c r="D55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "丸石製薬株式会社 ";</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "マルイシセイヤク";</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4711,20 +4319,8 @@
       <c r="D56" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "株式会社ミノファーゲン製薬 ";</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ミノファーゲンセイヤク";</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4737,20 +4333,8 @@
       <c r="D57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "持田製薬株式会社 ";</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "モチダセイヤク";</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4762,18 +4346,6 @@
       </c>
       <c r="D58" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>company_name = "ロート製薬株式会社 ";</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="1"/>
-        <v>company_kana = "ロートセイヤク";</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="2"/>
-        <v>delete_flag = false</v>
       </c>
     </row>
   </sheetData>
@@ -4784,19 +4356,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H2" sqref="H2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -4813,7 +4390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4834,8 +4411,28 @@
       <c r="F2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H2" t="str">
+        <f>_xlfn.CONCAT("staff_name=""",B2,""",")</f>
+        <v>staff_name="桐生祥秀",</v>
+      </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT("userId=""",C2,""",")</f>
+        <v>userId="1019",</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT("password=""",D2,""",")</f>
+        <v>password="pass1019",</v>
+      </c>
+      <c r="K2" t="str">
+        <f>_xlfn.CONCAT("admin_flag=",E2,",")</f>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L2" t="str">
+        <f>_xlfn.CONCAT("delete_flag=",F2)</f>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4856,8 +4453,28 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H51" si="2">_xlfn.CONCAT("staff_name=""",B3,""",")</f>
+        <v>staff_name="足立美由紀",</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I51" si="3">_xlfn.CONCAT("userId=""",C3,""",")</f>
+        <v>userId="1074",</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J51" si="4">_xlfn.CONCAT("password=""",D3,""",")</f>
+        <v>password="pass1074",</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K51" si="5">_xlfn.CONCAT("admin_flag=",E3,",")</f>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L51" si="6">_xlfn.CONCAT("delete_flag=",F3)</f>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4878,8 +4495,28 @@
       <c r="F4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="松本尚子",</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1053",</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1053",</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4900,8 +4537,28 @@
       <c r="F5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="柳田大輝",</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1103",</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1103",</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4922,8 +4579,28 @@
       <c r="F6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="山田真理子",</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1042",</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1042",</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4944,8 +4621,28 @@
       <c r="F7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="小嶋しげみ",</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1052",</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1052",</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4966,8 +4663,28 @@
       <c r="F8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="赤渕小百合",</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1066",</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1066",</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4988,8 +4705,28 @@
       <c r="F9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="宮本大輔",</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1017",</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1017",</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5010,8 +4747,28 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="米田亜紀子",</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1098",</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1098",</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5032,8 +4789,28 @@
       <c r="F11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="大瀬戸一馬",</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1076",</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1076",</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5054,8 +4831,28 @@
       <c r="F12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="高田倫名",</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1033",</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1033",</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5076,8 +4873,28 @@
       <c r="F13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="高橋和裕",</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1031",</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1031",</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5098,8 +4915,28 @@
       <c r="F14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="吉村博子",</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1012",</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1012",</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5120,8 +4957,28 @@
       <c r="F15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="宮田英明",</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1015",</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1015",</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=true,</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5142,8 +4999,28 @@
       <c r="F16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="足立佳子",</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1072",</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1072",</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5164,8 +5041,28 @@
       <c r="F17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="犬塚渉",</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1024",</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1024",</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5186,8 +5083,28 @@
       <c r="F18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="山田睦美",</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1040",</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1040",</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5208,8 +5125,28 @@
       <c r="F19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="宮崎久",</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1014",</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1014",</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5230,8 +5167,28 @@
       <c r="F20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="山田恵美子",</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1041",</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1041",</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5252,8 +5209,28 @@
       <c r="F21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="大嶋健太",</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1078",</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1078",</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=true,</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5274,8 +5251,28 @@
       <c r="F22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="高橋亜由美",</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1029",</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1029",</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=true,</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5296,8 +5293,28 @@
       <c r="F23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="黒木海翔",</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1034",</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1034",</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5318,8 +5335,28 @@
       <c r="F24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="中西美由紀",</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1081",</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1081",</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5340,8 +5377,28 @@
       <c r="F25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="川畑伸吾",</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1068",</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1068",</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5362,8 +5419,28 @@
       <c r="F26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="稲沢典子",</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1006",</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1006",</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5384,8 +5461,28 @@
       <c r="F27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="荒川岳士",</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1028",</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1028",</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5406,8 +5503,28 @@
       <c r="F28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="中尾みちる",</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1084",</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1084",</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5428,8 +5545,28 @@
       <c r="F29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="相川誠也",</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1070",</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1070",</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5450,8 +5587,28 @@
       <c r="F30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="自髭みつ子",</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1045",</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1045",</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5472,8 +5629,28 @@
       <c r="F31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="山縣亮太",</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1043",</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1043",</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=true,</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5494,8 +5671,28 @@
       <c r="F32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="斉藤美紀",</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1063",</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1063",</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5516,8 +5713,28 @@
       <c r="F33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="塚原直貴",</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1086",</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1086",</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5528,18 +5745,38 @@
         <v>1069</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D51" si="2">CONCATENATE("pass",TEXT(C34,"@"))</f>
+        <f t="shared" ref="D34:D51" si="7">CONCATENATE("pass",TEXT(C34,"@"))</f>
         <v>pass1069</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34:E51" si="3">IF(MOD(C34,7)=0,"true","false")</f>
+        <f t="shared" ref="E34:E51" si="8">IF(MOD(C34,7)=0,"true","false")</f>
         <v>false</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>staff_name="浅井祥子",</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>userId="1069",</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1069",</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5550,18 +5787,38 @@
         <v>1021</v>
       </c>
       <c r="D35" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1021</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="str">
         <f t="shared" si="2"/>
-        <v>pass1021</v>
-      </c>
-      <c r="E35" t="str">
+        <v>staff_name="金丸祐三",</v>
+      </c>
+      <c r="I35" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1021",</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1021",</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5572,18 +5829,38 @@
         <v>1001</v>
       </c>
       <c r="D36" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1001</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="8"/>
+        <v>true</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="str">
         <f t="shared" si="2"/>
-        <v>pass1001</v>
-      </c>
-      <c r="E36" t="str">
+        <v>staff_name="芦田真理子",</v>
+      </c>
+      <c r="I36" t="str">
         <f t="shared" si="3"/>
-        <v>true</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1001",</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1001",</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=true,</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5594,18 +5871,38 @@
         <v>1100</v>
       </c>
       <c r="D37" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1100</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="str">
         <f t="shared" si="2"/>
-        <v>pass1100</v>
-      </c>
-      <c r="E37" t="str">
+        <v>staff_name="北村和也",</v>
+      </c>
+      <c r="I37" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1100",</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1100",</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5616,18 +5913,38 @@
         <v>1065</v>
       </c>
       <c r="D38" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1065</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="str">
         <f t="shared" si="2"/>
-        <v>pass1065</v>
-      </c>
-      <c r="E38" t="str">
+        <v>staff_name="赤松美絵",</v>
+      </c>
+      <c r="I38" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1065",</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1065",</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5638,18 +5955,38 @@
         <v>1093</v>
       </c>
       <c r="D39" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1093</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="2"/>
-        <v>pass1093</v>
-      </c>
-      <c r="E39" t="str">
+        <v>staff_name="不破弘樹",</v>
+      </c>
+      <c r="I39" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1093",</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1093",</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5660,18 +5997,38 @@
         <v>1027</v>
       </c>
       <c r="D40" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1027</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="2"/>
-        <v>pass1027</v>
-      </c>
-      <c r="E40" t="str">
+        <v>staff_name="溝谷由美子",</v>
+      </c>
+      <c r="I40" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1027",</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1027",</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5682,18 +6039,38 @@
         <v>1096</v>
       </c>
       <c r="D41" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1096</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="2"/>
-        <v>pass1096</v>
-      </c>
-      <c r="E41" t="str">
+        <v>staff_name="平岡誠大",</v>
+      </c>
+      <c r="I41" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1096",</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1096",</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5704,18 +6081,38 @@
         <v>1087</v>
       </c>
       <c r="D42" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1087</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="str">
         <f t="shared" si="2"/>
-        <v>pass1087</v>
-      </c>
-      <c r="E42" t="str">
+        <v>staff_name="塚口つたえ",</v>
+      </c>
+      <c r="I42" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1087",</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1087",</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5726,18 +6123,38 @@
         <v>1095</v>
       </c>
       <c r="D43" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1095</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="str">
         <f t="shared" si="2"/>
-        <v>pass1095</v>
-      </c>
-      <c r="E43" t="str">
+        <v>staff_name="福島聖",</v>
+      </c>
+      <c r="I43" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1095",</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1095",</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5748,18 +6165,38 @@
         <v>1057</v>
       </c>
       <c r="D44" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1057</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="8"/>
+        <v>true</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="str">
         <f t="shared" si="2"/>
-        <v>pass1057</v>
-      </c>
-      <c r="E44" t="str">
+        <v>staff_name="森本啓子",</v>
+      </c>
+      <c r="I44" t="str">
         <f t="shared" si="3"/>
-        <v>true</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1057",</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1057",</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=true,</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5770,18 +6207,38 @@
         <v>1022</v>
       </c>
       <c r="D45" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1022</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="8"/>
+        <v>true</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="str">
         <f t="shared" si="2"/>
-        <v>pass1022</v>
-      </c>
-      <c r="E45" t="str">
+        <v>staff_name="九鬼巧",</v>
+      </c>
+      <c r="I45" t="str">
         <f t="shared" si="3"/>
-        <v>true</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1022",</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1022",</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=true,</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5792,18 +6249,38 @@
         <v>1009</v>
       </c>
       <c r="D46" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1009</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="str">
         <f t="shared" si="2"/>
-        <v>pass1009</v>
-      </c>
-      <c r="E46" t="str">
+        <v>staff_name="梶田美住",</v>
+      </c>
+      <c r="I46" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1009",</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1009",</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5814,18 +6291,38 @@
         <v>1005</v>
       </c>
       <c r="D47" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1005</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="str">
         <f t="shared" si="2"/>
-        <v>pass1005</v>
-      </c>
-      <c r="E47" t="str">
+        <v>staff_name="井盛雅",</v>
+      </c>
+      <c r="I47" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1005",</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1005",</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5836,18 +6333,38 @@
         <v>1073</v>
       </c>
       <c r="D48" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1073</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="str">
         <f t="shared" si="2"/>
-        <v>pass1073</v>
-      </c>
-      <c r="E48" t="str">
+        <v>staff_name="足立香織",</v>
+      </c>
+      <c r="I48" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1073",</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1073",</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5858,18 +6375,38 @@
         <v>1082</v>
       </c>
       <c r="D49" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1082</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="str">
         <f t="shared" si="2"/>
-        <v>pass1082</v>
-      </c>
-      <c r="E49" t="str">
+        <v>staff_name="中川博文",</v>
+      </c>
+      <c r="I49" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1082",</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1082",</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5880,18 +6417,38 @@
         <v>1064</v>
       </c>
       <c r="D50" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1064</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="8"/>
+        <v>true</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="str">
         <f t="shared" si="2"/>
-        <v>pass1064</v>
-      </c>
-      <c r="E50" t="str">
+        <v>staff_name="赤坂恵美子",</v>
+      </c>
+      <c r="I50" t="str">
         <f t="shared" si="3"/>
-        <v>true</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+        <v>userId="1064",</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1064",</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=true,</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5902,15 +6459,35 @@
         <v>1023</v>
       </c>
       <c r="D51" t="str">
+        <f t="shared" si="7"/>
+        <v>pass1023</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="8"/>
+        <v>false</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="str">
         <f t="shared" si="2"/>
-        <v>pass1023</v>
-      </c>
-      <c r="E51" t="str">
+        <v>staff_name="桑野拓海",</v>
+      </c>
+      <c r="I51" t="str">
         <f t="shared" si="3"/>
-        <v>false</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
+        <v>userId="1023",</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="4"/>
+        <v>password="pass1023",</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="5"/>
+        <v>admin_flag=false,</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="6"/>
+        <v>delete_flag=FALSE</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/CustomerAction.xlsx
+++ b/Doc/CustomerAction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CustomerManagementSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC590BF-99B7-4C44-AC2A-D267793A0865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2513B6C7-BFED-4209-971E-1747AB55EF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="1890" windowWidth="27225" windowHeight="13590" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3254,21 +3254,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G2" sqref="G2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>627</v>
       </c>
@@ -3285,235 +3289,430 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">INT(RAND()*10)+1</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>44563</v>
+        <v>44772</v>
       </c>
       <c r="D2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E2">
         <f ca="1">INT(RAND()*9)+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G2" t="str">
+        <f ca="1">CONCATENATE("customerId＝",B2,",")</f>
+        <v>customerId＝1,</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE("action_date=""",TEXT(C2,"yyyy/m/d"),""",")</f>
+        <v>action_date="2022/7/30",</v>
+      </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT("action_content=""",D2,""",")</f>
+        <v>action_content="来店",</v>
+      </c>
+      <c r="J2" t="str">
+        <f ca="1">_xlfn.CONCAT("action_staffId=",E2)</f>
+        <v>action_staffId=4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B13" ca="1" si="0">INT(RAND()*10)+1</f>
-        <v>8</v>
+        <f ca="1">INT(RAND()*10)+1</f>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>44582</v>
+        <v>44639</v>
       </c>
       <c r="D3" t="s">
         <v>630</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" ca="1" si="1">INT(RAND()*9)+1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <f ca="1">INT(RAND()*9)+1</f>
+        <v>8</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G13" ca="1" si="0">CONCATENATE("customerId＝",B3,",")</f>
+        <v>customerId＝7,</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H13" si="1">CONCATENATE("action_date=""",TEXT(C3,"yyyy/m/d"),""",")</f>
+        <v>action_date="2022/3/19",</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I13" si="2">_xlfn.CONCAT("action_content=""",D3,""",")</f>
+        <v>action_content="電話受け",</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J13" ca="1" si="3">_xlfn.CONCAT("action_staffId=",E3)</f>
+        <v>action_staffId=8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f ca="1">INT(RAND()*10)+1</f>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>44601</v>
+        <v>44715</v>
       </c>
       <c r="D4" t="s">
         <v>631</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <f ca="1">INT(RAND()*9)+1</f>
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>customerId＝9,</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>action_date="2022/6/3",</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>action_content="来店",</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>action_staffId=1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <f ca="1">INT(RAND()*10)+1</f>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44601</v>
+      </c>
+      <c r="D5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E5">
+        <f ca="1">INT(RAND()*9)+1</f>
+        <v>6</v>
+      </c>
+      <c r="G5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>44620</v>
-      </c>
-      <c r="D5" t="s">
-        <v>629</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>customerId＝9,</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>action_date="2022/2/9",</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>action_content="来店",</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>action_staffId=6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <f ca="1">INT(RAND()*10)+1</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44563</v>
+      </c>
+      <c r="D6" t="s">
+        <v>629</v>
+      </c>
+      <c r="E6">
+        <f ca="1">INT(RAND()*9)+1</f>
+        <v>4</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>44639</v>
-      </c>
-      <c r="D6" t="s">
-        <v>630</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>customerId＝2,</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>action_date="2022/1/2",</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>action_content="訪問",</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>action_staffId=4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <f ca="1">INT(RAND()*10)+1</f>
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44582</v>
+      </c>
+      <c r="D7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E7">
+        <f ca="1">INT(RAND()*9)+1</f>
+        <v>4</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>44658</v>
-      </c>
-      <c r="D7" t="s">
-        <v>631</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>customerId＝7,</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>action_date="2022/1/21",</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>action_content="電話受け",</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>action_staffId=4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f ca="1">INT(RAND()*10)+1</f>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>44677</v>
+        <v>44734</v>
       </c>
       <c r="D8" t="s">
         <v>629</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <f ca="1">INT(RAND()*9)+1</f>
+        <v>6</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>customerId＝4,</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>action_date="2022/6/22",</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>action_content="訪問",</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>action_staffId=6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f ca="1">INT(RAND()*10)+1</f>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>44696</v>
+        <v>44753</v>
       </c>
       <c r="D9" t="s">
         <v>630</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <f ca="1">INT(RAND()*9)+1</f>
+        <v>6</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>customerId＝2,</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>action_date="2022/7/11",</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>action_content="電話受け",</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>action_staffId=6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <f ca="1">INT(RAND()*10)+1</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44620</v>
+      </c>
+      <c r="D10" t="s">
+        <v>629</v>
+      </c>
+      <c r="E10">
+        <f ca="1">INT(RAND()*9)+1</f>
+        <v>5</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44715</v>
-      </c>
-      <c r="D10" t="s">
-        <v>631</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>customerId＝6,</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>action_date="2022/2/28",</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>action_content="訪問",</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>action_staffId=5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <f ca="1">INT(RAND()*10)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44658</v>
+      </c>
+      <c r="D11" t="s">
+        <v>631</v>
+      </c>
+      <c r="E11">
+        <f ca="1">INT(RAND()*9)+1</f>
+        <v>9</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44734</v>
-      </c>
-      <c r="D11" t="s">
-        <v>629</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>customerId＝1,</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>action_date="2022/4/7",</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>action_content="来店",</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>action_staffId=9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f ca="1">INT(RAND()*10)+1</f>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>44753</v>
+        <v>44696</v>
       </c>
       <c r="D12" t="s">
         <v>630</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <f ca="1">INT(RAND()*9)+1</f>
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>customerId＝3,</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>action_date="2022/5/15",</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>action_content="電話受け",</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>action_staffId=1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <f ca="1">INT(RAND()*10)+1</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44677</v>
+      </c>
+      <c r="D13" t="s">
+        <v>629</v>
+      </c>
+      <c r="E13">
+        <f ca="1">INT(RAND()*9)+1</f>
+        <v>7</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44772</v>
-      </c>
-      <c r="D13" t="s">
-        <v>631</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>customerId＝4,</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>action_date="2022/4/26",</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>action_content="訪問",</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>action_staffId=7</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
+    <sortCondition ref="B2:B13"/>
+  </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/CustomerAction.xlsx
+++ b/Doc/CustomerAction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CustomerManagementSystem\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2513B6C7-BFED-4209-971E-1747AB55EF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B063F7-E02B-458D-89D8-573B760B5198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1890" windowWidth="27225" windowHeight="13590" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="990" windowWidth="15330" windowHeight="13590" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="6" r:id="rId1"/>
@@ -3254,10 +3254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3266,13 +3266,9 @@
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>627</v>
       </c>
@@ -3289,13 +3285,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f ca="1">INT(RAND()*10)+1</f>
-        <v>1</v>
+        <f t="shared" ref="B2:B13" ca="1" si="0">INT(RAND()*10)+1</f>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>44772</v>
@@ -3304,33 +3300,17 @@
         <v>631</v>
       </c>
       <c r="E2">
-        <f ca="1">INT(RAND()*9)+1</f>
-        <v>4</v>
-      </c>
-      <c r="G2" t="str">
-        <f ca="1">CONCATENATE("customerId＝",B2,",")</f>
-        <v>customerId＝1,</v>
-      </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE("action_date=""",TEXT(C2,"yyyy/m/d"),""",")</f>
-        <v>action_date="2022/7/30",</v>
-      </c>
-      <c r="I2" t="str">
-        <f>_xlfn.CONCAT("action_content=""",D2,""",")</f>
-        <v>action_content="来店",</v>
-      </c>
-      <c r="J2" t="str">
-        <f ca="1">_xlfn.CONCAT("action_staffId=",E2)</f>
-        <v>action_staffId=4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" ref="E2:E13" ca="1" si="1">INT(RAND()*9)+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f ca="1">INT(RAND()*10)+1</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>44639</v>
@@ -3339,33 +3319,17 @@
         <v>630</v>
       </c>
       <c r="E3">
-        <f ca="1">INT(RAND()*9)+1</f>
-        <v>8</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G13" ca="1" si="0">CONCATENATE("customerId＝",B3,",")</f>
-        <v>customerId＝7,</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H13" si="1">CONCATENATE("action_date=""",TEXT(C3,"yyyy/m/d"),""",")</f>
-        <v>action_date="2022/3/19",</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I13" si="2">_xlfn.CONCAT("action_content=""",D3,""",")</f>
-        <v>action_content="電話受け",</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J13" ca="1" si="3">_xlfn.CONCAT("action_staffId=",E3)</f>
-        <v>action_staffId=8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f ca="1">INT(RAND()*10)+1</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
         <v>44715</v>
@@ -3374,33 +3338,17 @@
         <v>631</v>
       </c>
       <c r="E4">
-        <f ca="1">INT(RAND()*9)+1</f>
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>customerId＝9,</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="1"/>
-        <v>action_date="2022/6/3",</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="2"/>
-        <v>action_content="来店",</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>action_staffId=1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f ca="1">INT(RAND()*10)+1</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>44601</v>
@@ -3409,33 +3357,17 @@
         <v>631</v>
       </c>
       <c r="E5">
-        <f ca="1">INT(RAND()*9)+1</f>
-        <v>6</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>customerId＝9,</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="1"/>
-        <v>action_date="2022/2/9",</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v>action_content="来店",</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>action_staffId=6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f ca="1">INT(RAND()*10)+1</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>44563</v>
@@ -3444,33 +3376,17 @@
         <v>629</v>
       </c>
       <c r="E6">
-        <f ca="1">INT(RAND()*9)+1</f>
-        <v>4</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>customerId＝2,</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="1"/>
-        <v>action_date="2022/1/2",</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v>action_content="訪問",</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>action_staffId=4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f ca="1">INT(RAND()*10)+1</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>44582</v>
@@ -3479,33 +3395,17 @@
         <v>630</v>
       </c>
       <c r="E7">
-        <f ca="1">INT(RAND()*9)+1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>customerId＝7,</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="1"/>
-        <v>action_date="2022/1/21",</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>action_content="電話受け",</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>action_staffId=4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f ca="1">INT(RAND()*10)+1</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>44734</v>
@@ -3514,33 +3414,17 @@
         <v>629</v>
       </c>
       <c r="E8">
-        <f ca="1">INT(RAND()*9)+1</f>
-        <v>6</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>customerId＝4,</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="1"/>
-        <v>action_date="2022/6/22",</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v>action_content="訪問",</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>action_staffId=6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f ca="1">INT(RAND()*10)+1</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
         <v>44753</v>
@@ -3549,33 +3433,17 @@
         <v>630</v>
       </c>
       <c r="E9">
-        <f ca="1">INT(RAND()*9)+1</f>
-        <v>6</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>customerId＝2,</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v>action_date="2022/7/11",</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>action_content="電話受け",</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>action_staffId=6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f ca="1">INT(RAND()*10)+1</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>44620</v>
@@ -3584,33 +3452,17 @@
         <v>629</v>
       </c>
       <c r="E10">
-        <f ca="1">INT(RAND()*9)+1</f>
-        <v>5</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>customerId＝6,</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="1"/>
-        <v>action_date="2022/2/28",</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>action_content="訪問",</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>action_staffId=5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f ca="1">INT(RAND()*10)+1</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
         <v>44658</v>
@@ -3619,33 +3471,17 @@
         <v>631</v>
       </c>
       <c r="E11">
-        <f ca="1">INT(RAND()*9)+1</f>
-        <v>9</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>customerId＝1,</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="1"/>
-        <v>action_date="2022/4/7",</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>action_content="来店",</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>action_staffId=9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f ca="1">INT(RAND()*10)+1</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
         <v>44696</v>
@@ -3654,33 +3490,17 @@
         <v>630</v>
       </c>
       <c r="E12">
-        <f ca="1">INT(RAND()*9)+1</f>
-        <v>1</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>customerId＝3,</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v>action_date="2022/5/15",</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>action_content="電話受け",</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>action_staffId=1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f ca="1">INT(RAND()*10)+1</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
         <v>44677</v>
@@ -3689,24 +3509,8 @@
         <v>629</v>
       </c>
       <c r="E13">
-        <f ca="1">INT(RAND()*9)+1</f>
-        <v>7</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>customerId＝4,</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="1"/>
-        <v>action_date="2022/4/26",</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>action_content="訪問",</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>action_staffId=7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3722,17 +3526,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:J1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="40.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -4555,24 +4356,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:L11"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -4589,7 +4385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4610,28 +4406,8 @@
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="str">
-        <f>_xlfn.CONCAT("staff_name=""",B2,""",")</f>
-        <v>staff_name="桐生祥秀",</v>
-      </c>
-      <c r="I2" t="str">
-        <f>_xlfn.CONCAT("userId=""",C2,""",")</f>
-        <v>userId="1019",</v>
-      </c>
-      <c r="J2" t="str">
-        <f>_xlfn.CONCAT("password=""",D2,""",")</f>
-        <v>password="pass1019",</v>
-      </c>
-      <c r="K2" t="str">
-        <f>_xlfn.CONCAT("admin_flag=",E2,",")</f>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L2" t="str">
-        <f>_xlfn.CONCAT("delete_flag=",F2)</f>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4652,28 +4428,8 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H51" si="2">_xlfn.CONCAT("staff_name=""",B3,""",")</f>
-        <v>staff_name="足立美由紀",</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I51" si="3">_xlfn.CONCAT("userId=""",C3,""",")</f>
-        <v>userId="1074",</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J51" si="4">_xlfn.CONCAT("password=""",D3,""",")</f>
-        <v>password="pass1074",</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K51" si="5">_xlfn.CONCAT("admin_flag=",E3,",")</f>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L51" si="6">_xlfn.CONCAT("delete_flag=",F3)</f>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4694,28 +4450,8 @@
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="松本尚子",</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1053",</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1053",</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4736,28 +4472,8 @@
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="柳田大輝",</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1103",</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1103",</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4778,28 +4494,8 @@
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="山田真理子",</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1042",</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1042",</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4820,28 +4516,8 @@
       <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="小嶋しげみ",</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1052",</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1052",</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4862,28 +4538,8 @@
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="赤渕小百合",</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1066",</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1066",</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4904,28 +4560,8 @@
       <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="宮本大輔",</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1017",</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1017",</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4946,28 +4582,8 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="米田亜紀子",</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1098",</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1098",</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4988,28 +4604,8 @@
       <c r="F11" t="b">
         <v>0</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="大瀬戸一馬",</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1076",</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1076",</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5030,28 +4626,8 @@
       <c r="F12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="高田倫名",</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1033",</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1033",</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5072,28 +4648,8 @@
       <c r="F13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="高橋和裕",</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1031",</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1031",</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5114,28 +4670,8 @@
       <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="吉村博子",</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1012",</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1012",</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5156,28 +4692,8 @@
       <c r="F15" t="b">
         <v>0</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="宮田英明",</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1015",</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1015",</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=true,</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5198,28 +4714,8 @@
       <c r="F16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="足立佳子",</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1072",</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1072",</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5240,28 +4736,8 @@
       <c r="F17" t="b">
         <v>0</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="犬塚渉",</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1024",</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1024",</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5282,28 +4758,8 @@
       <c r="F18" t="b">
         <v>0</v>
       </c>
-      <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="山田睦美",</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1040",</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1040",</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5324,28 +4780,8 @@
       <c r="F19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="宮崎久",</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1014",</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1014",</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5366,28 +4802,8 @@
       <c r="F20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="山田恵美子",</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1041",</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1041",</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5408,28 +4824,8 @@
       <c r="F21" t="b">
         <v>0</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="大嶋健太",</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1078",</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1078",</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=true,</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5450,28 +4846,8 @@
       <c r="F22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="高橋亜由美",</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1029",</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1029",</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=true,</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5492,28 +4868,8 @@
       <c r="F23" t="b">
         <v>0</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="黒木海翔",</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1034",</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1034",</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5534,28 +4890,8 @@
       <c r="F24" t="b">
         <v>0</v>
       </c>
-      <c r="H24" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="中西美由紀",</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1081",</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1081",</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5576,28 +4912,8 @@
       <c r="F25" t="b">
         <v>0</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="川畑伸吾",</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1068",</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1068",</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5618,28 +4934,8 @@
       <c r="F26" t="b">
         <v>0</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="稲沢典子",</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1006",</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1006",</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5660,28 +4956,8 @@
       <c r="F27" t="b">
         <v>0</v>
       </c>
-      <c r="H27" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="荒川岳士",</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1028",</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1028",</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5702,28 +4978,8 @@
       <c r="F28" t="b">
         <v>0</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="中尾みちる",</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1084",</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1084",</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5744,28 +5000,8 @@
       <c r="F29" t="b">
         <v>0</v>
       </c>
-      <c r="H29" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="相川誠也",</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1070",</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1070",</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5786,28 +5022,8 @@
       <c r="F30" t="b">
         <v>0</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="自髭みつ子",</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1045",</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1045",</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5828,28 +5044,8 @@
       <c r="F31" t="b">
         <v>0</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="山縣亮太",</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1043",</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1043",</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=true,</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5870,28 +5066,8 @@
       <c r="F32" t="b">
         <v>0</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="斉藤美紀",</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1063",</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1063",</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5912,28 +5088,8 @@
       <c r="F33" t="b">
         <v>0</v>
       </c>
-      <c r="H33" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="塚原直貴",</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1086",</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1086",</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5944,38 +5100,18 @@
         <v>1069</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D51" si="7">CONCATENATE("pass",TEXT(C34,"@"))</f>
+        <f t="shared" ref="D34:D51" si="2">CONCATENATE("pass",TEXT(C34,"@"))</f>
         <v>pass1069</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34:E51" si="8">IF(MOD(C34,7)=0,"true","false")</f>
+        <f t="shared" ref="E34:E51" si="3">IF(MOD(C34,7)=0,"true","false")</f>
         <v>false</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
-      <c r="H34" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="浅井祥子",</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1069",</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1069",</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5986,38 +5122,18 @@
         <v>1021</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1021</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="金丸祐三",</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1021",</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1021",</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6028,38 +5144,18 @@
         <v>1001</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1001</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>true</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
-      <c r="H36" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="芦田真理子",</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1001",</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1001",</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=true,</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6070,38 +5166,18 @@
         <v>1100</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1100</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="北村和也",</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1100",</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1100",</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6112,38 +5188,18 @@
         <v>1065</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1065</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="赤松美絵",</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1065",</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1065",</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6154,38 +5210,18 @@
         <v>1093</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1093</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="不破弘樹",</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1093",</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1093",</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L39" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6196,38 +5232,18 @@
         <v>1027</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1027</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="溝谷由美子",</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1027",</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1027",</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6238,38 +5254,18 @@
         <v>1096</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1096</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="平岡誠大",</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1096",</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1096",</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6280,38 +5276,18 @@
         <v>1087</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1087</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="塚口つたえ",</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1087",</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1087",</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6322,38 +5298,18 @@
         <v>1095</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1095</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
-      <c r="H43" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="福島聖",</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1095",</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1095",</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L43" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6364,38 +5320,18 @@
         <v>1057</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1057</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>true</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
-      <c r="H44" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="森本啓子",</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1057",</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1057",</v>
-      </c>
-      <c r="K44" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=true,</v>
-      </c>
-      <c r="L44" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6406,38 +5342,18 @@
         <v>1022</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1022</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>true</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="九鬼巧",</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1022",</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1022",</v>
-      </c>
-      <c r="K45" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=true,</v>
-      </c>
-      <c r="L45" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6448,38 +5364,18 @@
         <v>1009</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1009</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
-      <c r="H46" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="梶田美住",</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1009",</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1009",</v>
-      </c>
-      <c r="K46" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L46" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6490,38 +5386,18 @@
         <v>1005</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1005</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
-      <c r="H47" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="井盛雅",</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1005",</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1005",</v>
-      </c>
-      <c r="K47" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L47" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6532,38 +5408,18 @@
         <v>1073</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1073</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
-      <c r="H48" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="足立香織",</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1073",</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1073",</v>
-      </c>
-      <c r="K48" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L48" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6574,38 +5430,18 @@
         <v>1082</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1082</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="中川博文",</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1082",</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1082",</v>
-      </c>
-      <c r="K49" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L49" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6616,38 +5452,18 @@
         <v>1064</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1064</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>true</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
-      <c r="H50" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="赤坂恵美子",</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1064",</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1064",</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=true,</v>
-      </c>
-      <c r="L50" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6658,39 +5474,19 @@
         <v>1023</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>pass1023</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>false</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
-      <c r="H51" t="str">
-        <f t="shared" si="2"/>
-        <v>staff_name="桑野拓海",</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="3"/>
-        <v>userId="1023",</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="4"/>
-        <v>password="pass1023",</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" si="5"/>
-        <v>admin_flag=false,</v>
-      </c>
-      <c r="L51" t="str">
-        <f t="shared" si="6"/>
-        <v>delete_flag=FALSE</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T121">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N121">
     <sortCondition ref="A2:A121"/>
   </sortState>
   <phoneticPr fontId="18"/>
@@ -6700,2930 +5496,2768 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>477</v>
+      </c>
+      <c r="K2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" t="s">
+        <v>572</v>
+      </c>
+      <c r="M2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" t="s">
+        <v>503</v>
+      </c>
+      <c r="O2" t="s">
+        <v>204</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I3">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>480</v>
+      </c>
+      <c r="K3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" t="s">
+        <v>549</v>
+      </c>
+      <c r="M3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" t="s">
+        <v>509</v>
+      </c>
+      <c r="O3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" t="s">
+        <v>371</v>
+      </c>
+      <c r="I4">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>483</v>
+      </c>
+      <c r="K4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" t="s">
+        <v>490</v>
+      </c>
+      <c r="M4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N4" t="s">
+        <v>495</v>
+      </c>
+      <c r="O4" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" t="s">
+        <v>372</v>
+      </c>
+      <c r="I5">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>486</v>
+      </c>
+      <c r="K5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" t="s">
+        <v>563</v>
+      </c>
+      <c r="M5" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" t="s">
+        <v>581</v>
+      </c>
+      <c r="O5" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I6">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L6" t="s">
+        <v>566</v>
+      </c>
+      <c r="M6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N6" t="s">
+        <v>524</v>
+      </c>
+      <c r="O6" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" t="s">
+        <v>374</v>
+      </c>
+      <c r="I7">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M7" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" t="s">
+        <v>618</v>
+      </c>
+      <c r="O7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I8">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>495</v>
+      </c>
+      <c r="K8" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" t="s">
+        <v>538</v>
+      </c>
+      <c r="M8" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" t="s">
+        <v>624</v>
+      </c>
+      <c r="O8" t="s">
+        <v>212</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" t="s">
+        <v>376</v>
+      </c>
+      <c r="I9">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>498</v>
+      </c>
+      <c r="K9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" t="s">
+        <v>484</v>
+      </c>
+      <c r="M9" t="s">
+        <v>233</v>
+      </c>
+      <c r="N9" t="s">
+        <v>553</v>
+      </c>
+      <c r="O9" t="s">
+        <v>158</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" t="s">
+        <v>377</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>501</v>
+      </c>
+      <c r="K10" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" t="s">
+        <v>544</v>
+      </c>
+      <c r="M10" t="s">
+        <v>207</v>
+      </c>
+      <c r="N10" t="s">
+        <v>536</v>
+      </c>
+      <c r="O10" t="s">
+        <v>155</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" t="s">
+        <v>378</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>504</v>
+      </c>
+      <c r="K11" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" t="s">
+        <v>478</v>
+      </c>
+      <c r="M11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s">
+        <v>555</v>
+      </c>
+      <c r="O11" t="s">
+        <v>208</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" t="s">
+        <v>379</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>507</v>
+      </c>
+      <c r="K12" t="s">
+        <v>221</v>
+      </c>
+      <c r="L12" t="s">
+        <v>620</v>
+      </c>
+      <c r="M12" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" t="s">
+        <v>592</v>
+      </c>
+      <c r="O12" t="s">
+        <v>165</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" t="s">
+        <v>380</v>
+      </c>
+      <c r="I13">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>510</v>
+      </c>
+      <c r="K13" t="s">
+        <v>154</v>
+      </c>
+      <c r="L13" t="s">
+        <v>487</v>
+      </c>
+      <c r="M13" t="s">
+        <v>148</v>
+      </c>
+      <c r="N13" t="s">
+        <v>542</v>
+      </c>
+      <c r="O13" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" t="s">
+        <v>362</v>
+      </c>
+      <c r="F14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" t="s">
+        <v>381</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>513</v>
+      </c>
+      <c r="K14" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" t="s">
+        <v>502</v>
+      </c>
+      <c r="M14" t="s">
+        <v>204</v>
+      </c>
+      <c r="N14" t="s">
+        <v>491</v>
+      </c>
+      <c r="O14" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C15">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E15" t="s">
+        <v>363</v>
+      </c>
+      <c r="F15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" t="s">
+        <v>318</v>
+      </c>
+      <c r="H15" t="s">
+        <v>382</v>
+      </c>
+      <c r="I15">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>516</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>534</v>
+      </c>
+      <c r="M15" t="s">
+        <v>208</v>
+      </c>
+      <c r="N15" t="s">
+        <v>497</v>
+      </c>
+      <c r="O15" t="s">
+        <v>203</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>366</v>
+      </c>
+      <c r="E16" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H16" t="s">
+        <v>383</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>519</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>583</v>
+      </c>
+      <c r="M16" t="s">
+        <v>240</v>
+      </c>
+      <c r="N16" t="s">
+        <v>506</v>
+      </c>
+      <c r="O16" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" t="s">
+        <v>438</v>
+      </c>
+      <c r="C17">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" t="s">
+        <v>320</v>
+      </c>
+      <c r="H17" t="s">
+        <v>384</v>
+      </c>
+      <c r="I17">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>522</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>617</v>
+      </c>
+      <c r="M17" t="s">
+        <v>169</v>
+      </c>
+      <c r="N17" t="s">
+        <v>479</v>
+      </c>
+      <c r="O17" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>364</v>
+      </c>
+      <c r="E18" t="s">
+        <v>361</v>
+      </c>
+      <c r="F18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" t="s">
+        <v>321</v>
+      </c>
+      <c r="H18" t="s">
+        <v>385</v>
+      </c>
+      <c r="I18">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s">
+        <v>525</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>515</v>
+      </c>
+      <c r="M18" t="s">
+        <v>157</v>
+      </c>
+      <c r="N18" t="s">
+        <v>542</v>
+      </c>
+      <c r="O18" t="s">
+        <v>156</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>365</v>
+      </c>
+      <c r="E19" t="s">
+        <v>362</v>
+      </c>
+      <c r="F19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19" t="s">
+        <v>322</v>
+      </c>
+      <c r="H19" t="s">
+        <v>386</v>
+      </c>
+      <c r="I19">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>528</v>
+      </c>
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s">
+        <v>514</v>
+      </c>
+      <c r="M19" t="s">
+        <v>225</v>
+      </c>
+      <c r="N19" t="s">
+        <v>609</v>
+      </c>
+      <c r="O19" t="s">
+        <v>212</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>366</v>
+      </c>
+      <c r="E20" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20" t="s">
+        <v>323</v>
+      </c>
+      <c r="H20" t="s">
+        <v>387</v>
+      </c>
+      <c r="I20">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>531</v>
+      </c>
+      <c r="K20" t="s">
+        <v>231</v>
+      </c>
+      <c r="L20" t="s">
+        <v>487</v>
+      </c>
+      <c r="M20" t="s">
+        <v>223</v>
+      </c>
+      <c r="N20" t="s">
+        <v>587</v>
+      </c>
+      <c r="O20" t="s">
+        <v>164</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" t="s">
+        <v>368</v>
+      </c>
+      <c r="F21" t="s">
+        <v>270</v>
+      </c>
+      <c r="G21" t="s">
+        <v>324</v>
+      </c>
+      <c r="H21" t="s">
+        <v>388</v>
+      </c>
+      <c r="I21">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
+        <v>534</v>
+      </c>
+      <c r="K21" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" t="s">
+        <v>508</v>
+      </c>
+      <c r="M21" t="s">
+        <v>228</v>
+      </c>
+      <c r="N21" t="s">
+        <v>515</v>
+      </c>
+      <c r="O21" t="s">
+        <v>225</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>364</v>
+      </c>
+      <c r="E22" t="s">
+        <v>359</v>
+      </c>
+      <c r="F22" t="s">
+        <v>271</v>
+      </c>
+      <c r="G22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" t="s">
+        <v>389</v>
+      </c>
+      <c r="I22">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>537</v>
+      </c>
+      <c r="K22" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" t="s">
+        <v>586</v>
+      </c>
+      <c r="M22" t="s">
+        <v>164</v>
+      </c>
+      <c r="N22" t="s">
+        <v>539</v>
+      </c>
+      <c r="O22" t="s">
+        <v>206</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" t="s">
+        <v>444</v>
+      </c>
+      <c r="C23">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>365</v>
+      </c>
+      <c r="E23" t="s">
+        <v>361</v>
+      </c>
+      <c r="F23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H23" t="s">
+        <v>390</v>
+      </c>
+      <c r="I23">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>540</v>
+      </c>
+      <c r="K23" t="s">
+        <v>158</v>
+      </c>
+      <c r="L23" t="s">
+        <v>532</v>
+      </c>
+      <c r="M23" t="s">
+        <v>205</v>
+      </c>
+      <c r="N23" t="s">
+        <v>550</v>
+      </c>
+      <c r="O23" t="s">
+        <v>221</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" t="s">
+        <v>445</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E24" t="s">
+        <v>362</v>
+      </c>
+      <c r="F24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" t="s">
+        <v>327</v>
+      </c>
+      <c r="H24" t="s">
+        <v>391</v>
+      </c>
+      <c r="I24">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>543</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>559</v>
+      </c>
+      <c r="M24" t="s">
+        <v>167</v>
+      </c>
+      <c r="N24" t="s">
+        <v>575</v>
+      </c>
+      <c r="O24" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" t="s">
+        <v>363</v>
+      </c>
+      <c r="F25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" t="s">
+        <v>392</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>546</v>
+      </c>
+      <c r="K25" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" t="s">
+        <v>580</v>
+      </c>
+      <c r="M25" t="s">
+        <v>163</v>
+      </c>
+      <c r="N25" t="s">
+        <v>600</v>
+      </c>
+      <c r="O25" t="s">
+        <v>236</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C26">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>364</v>
+      </c>
+      <c r="E26" t="s">
+        <v>368</v>
+      </c>
+      <c r="F26" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" t="s">
+        <v>329</v>
+      </c>
+      <c r="H26" t="s">
+        <v>393</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>548</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>606</v>
+      </c>
+      <c r="M26" t="s">
+        <v>168</v>
+      </c>
+      <c r="N26" t="s">
+        <v>482</v>
+      </c>
+      <c r="O26" t="s">
+        <v>200</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" t="s">
+        <v>448</v>
+      </c>
+      <c r="C27">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>365</v>
+      </c>
+      <c r="E27" t="s">
+        <v>359</v>
+      </c>
+      <c r="F27" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" t="s">
+        <v>330</v>
+      </c>
+      <c r="H27" t="s">
+        <v>394</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>551</v>
+      </c>
+      <c r="K27" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" t="s">
+        <v>591</v>
+      </c>
+      <c r="M27" t="s">
+        <v>165</v>
+      </c>
+      <c r="N27" t="s">
+        <v>488</v>
+      </c>
+      <c r="O27" t="s">
+        <v>148</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>366</v>
+      </c>
+      <c r="E28" t="s">
+        <v>361</v>
+      </c>
+      <c r="F28" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" t="s">
+        <v>331</v>
+      </c>
+      <c r="H28" t="s">
+        <v>395</v>
+      </c>
+      <c r="I28">
+        <v>43</v>
+      </c>
+      <c r="J28" t="s">
+        <v>554</v>
+      </c>
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s">
+        <v>560</v>
+      </c>
+      <c r="M28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N28" t="s">
+        <v>547</v>
+      </c>
+      <c r="O28" t="s">
+        <v>157</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
+        <v>450</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" t="s">
+        <v>362</v>
+      </c>
+      <c r="F29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" t="s">
+        <v>332</v>
+      </c>
+      <c r="H29" t="s">
+        <v>396</v>
+      </c>
+      <c r="I29">
+        <v>32</v>
+      </c>
+      <c r="J29" t="s">
+        <v>556</v>
+      </c>
+      <c r="K29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s">
+        <v>499</v>
+      </c>
+      <c r="M29" t="s">
+        <v>149</v>
+      </c>
+      <c r="N29" t="s">
+        <v>485</v>
+      </c>
+      <c r="O29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>364</v>
+      </c>
+      <c r="E30" t="s">
+        <v>363</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>333</v>
+      </c>
+      <c r="H30" t="s">
+        <v>397</v>
+      </c>
+      <c r="I30">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>559</v>
+      </c>
+      <c r="K30" t="s">
+        <v>201</v>
+      </c>
+      <c r="L30" t="s">
+        <v>523</v>
+      </c>
+      <c r="M30" t="s">
+        <v>153</v>
+      </c>
+      <c r="N30" t="s">
+        <v>607</v>
+      </c>
+      <c r="O30" t="s">
+        <v>165</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" t="s">
+        <v>452</v>
+      </c>
+      <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" t="s">
+        <v>334</v>
+      </c>
+      <c r="H31" t="s">
+        <v>398</v>
+      </c>
+      <c r="I31">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s">
+        <v>562</v>
+      </c>
+      <c r="K31" t="s">
+        <v>233</v>
+      </c>
+      <c r="L31" t="s">
+        <v>611</v>
+      </c>
+      <c r="M31" t="s">
+        <v>213</v>
+      </c>
+      <c r="N31" t="s">
+        <v>602</v>
+      </c>
+      <c r="O31" t="s">
+        <v>167</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" t="s">
+        <v>453</v>
+      </c>
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>366</v>
+      </c>
+      <c r="E32" t="s">
+        <v>359</v>
+      </c>
+      <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" t="s">
+        <v>335</v>
+      </c>
+      <c r="H32" t="s">
+        <v>399</v>
+      </c>
+      <c r="I32">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>565</v>
+      </c>
+      <c r="K32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L32" t="s">
+        <v>577</v>
+      </c>
+      <c r="M32" t="s">
+        <v>210</v>
+      </c>
+      <c r="N32" t="s">
+        <v>615</v>
+      </c>
+      <c r="O32" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>454</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E33" t="s">
+        <v>361</v>
+      </c>
+      <c r="F33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" t="s">
+        <v>336</v>
+      </c>
+      <c r="H33" t="s">
+        <v>400</v>
+      </c>
+      <c r="I33">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s">
+        <v>568</v>
+      </c>
+      <c r="K33" t="s">
+        <v>202</v>
+      </c>
+      <c r="L33" t="s">
+        <v>517</v>
+      </c>
+      <c r="M33" t="s">
+        <v>152</v>
+      </c>
+      <c r="N33" t="s">
+        <v>621</v>
+      </c>
+      <c r="O33" t="s">
+        <v>165</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" t="s">
+        <v>455</v>
+      </c>
+      <c r="C34">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>364</v>
+      </c>
+      <c r="E34" t="s">
+        <v>362</v>
+      </c>
+      <c r="F34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G34" t="s">
+        <v>337</v>
+      </c>
+      <c r="H34" t="s">
+        <v>401</v>
+      </c>
+      <c r="I34">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
+        <v>571</v>
+      </c>
+      <c r="K34" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" t="s">
+        <v>626</v>
+      </c>
+      <c r="M34" t="s">
+        <v>169</v>
+      </c>
+      <c r="N34" t="s">
+        <v>521</v>
+      </c>
+      <c r="O34" t="s">
+        <v>242</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" t="s">
+        <v>456</v>
+      </c>
+      <c r="C35">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>365</v>
+      </c>
+      <c r="E35" t="s">
+        <v>363</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>338</v>
+      </c>
+      <c r="H35" t="s">
+        <v>402</v>
+      </c>
+      <c r="I35">
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>561</v>
+      </c>
+      <c r="K35" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35" t="s">
+        <v>599</v>
+      </c>
+      <c r="M35" t="s">
+        <v>236</v>
+      </c>
+      <c r="N35" t="s">
+        <v>594</v>
+      </c>
+      <c r="O35" t="s">
+        <v>212</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" t="s">
+        <v>457</v>
+      </c>
+      <c r="C36">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>366</v>
+      </c>
+      <c r="E36" t="s">
+        <v>368</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>339</v>
+      </c>
+      <c r="H36" t="s">
+        <v>403</v>
+      </c>
+      <c r="I36">
+        <v>40</v>
+      </c>
+      <c r="J36" t="s">
+        <v>576</v>
+      </c>
+      <c r="K36" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" t="s">
+        <v>608</v>
+      </c>
+      <c r="M36" t="s">
+        <v>243</v>
+      </c>
+      <c r="N36" t="s">
+        <v>494</v>
+      </c>
+      <c r="O36" t="s">
+        <v>202</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" t="s">
+        <v>458</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" t="s">
+        <v>359</v>
+      </c>
+      <c r="F37" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" t="s">
+        <v>340</v>
+      </c>
+      <c r="H37" t="s">
+        <v>404</v>
+      </c>
+      <c r="I37">
+        <v>49</v>
+      </c>
+      <c r="J37" t="s">
+        <v>579</v>
+      </c>
+      <c r="K37" t="s">
+        <v>150</v>
+      </c>
+      <c r="L37" t="s">
+        <v>574</v>
+      </c>
+      <c r="M37" t="s">
+        <v>162</v>
+      </c>
+      <c r="N37" t="s">
+        <v>570</v>
+      </c>
+      <c r="O37" t="s">
+        <v>161</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" t="s">
+        <v>459</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>364</v>
+      </c>
+      <c r="E38" t="s">
+        <v>361</v>
+      </c>
+      <c r="F38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38" t="s">
+        <v>341</v>
+      </c>
+      <c r="H38" t="s">
+        <v>405</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>582</v>
+      </c>
+      <c r="K38" t="s">
+        <v>203</v>
+      </c>
+      <c r="L38" t="s">
+        <v>569</v>
+      </c>
+      <c r="M38" t="s">
+        <v>161</v>
+      </c>
+      <c r="N38" t="s">
+        <v>564</v>
+      </c>
+      <c r="O38" t="s">
+        <v>160</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" t="s">
+        <v>460</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>365</v>
+      </c>
+      <c r="E39" t="s">
+        <v>362</v>
+      </c>
+      <c r="F39" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" t="s">
+        <v>342</v>
+      </c>
+      <c r="H39" t="s">
+        <v>406</v>
+      </c>
+      <c r="I39">
+        <v>35</v>
+      </c>
+      <c r="J39" t="s">
+        <v>585</v>
+      </c>
+      <c r="K39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L39" t="s">
+        <v>557</v>
+      </c>
+      <c r="M39" t="s">
+        <v>159</v>
+      </c>
+      <c r="N39" t="s">
+        <v>558</v>
+      </c>
+      <c r="O39" t="s">
+        <v>159</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" t="s">
+        <v>461</v>
+      </c>
+      <c r="C40">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>366</v>
+      </c>
+      <c r="E40" t="s">
+        <v>363</v>
+      </c>
+      <c r="F40" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40" t="s">
+        <v>343</v>
+      </c>
+      <c r="H40" t="s">
+        <v>407</v>
+      </c>
+      <c r="I40">
+        <v>39</v>
+      </c>
+      <c r="J40" t="s">
+        <v>588</v>
+      </c>
+      <c r="K40" t="s">
+        <v>202</v>
+      </c>
+      <c r="L40" t="s">
+        <v>593</v>
+      </c>
+      <c r="M40" t="s">
+        <v>212</v>
+      </c>
+      <c r="N40" t="s">
+        <v>573</v>
+      </c>
+      <c r="O40" t="s">
+        <v>241</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C41">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D41" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" t="s">
+        <v>368</v>
+      </c>
+      <c r="F41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" t="s">
+        <v>344</v>
+      </c>
+      <c r="H41" t="s">
+        <v>408</v>
+      </c>
+      <c r="I41">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
+        <v>590</v>
+      </c>
+      <c r="K41" t="s">
+        <v>147</v>
+      </c>
+      <c r="L41" t="s">
+        <v>496</v>
+      </c>
+      <c r="M41" t="s">
+        <v>203</v>
+      </c>
+      <c r="N41" t="s">
+        <v>604</v>
+      </c>
+      <c r="O41" t="s">
+        <v>223</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" t="s">
+        <v>463</v>
+      </c>
+      <c r="C42">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D42" t="s">
+        <v>364</v>
+      </c>
+      <c r="E42" t="s">
+        <v>359</v>
+      </c>
+      <c r="F42" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" t="s">
+        <v>345</v>
+      </c>
+      <c r="H42" t="s">
+        <v>409</v>
+      </c>
+      <c r="I42">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J42" t="s">
+        <v>582</v>
+      </c>
+      <c r="K42" t="s">
+        <v>242</v>
+      </c>
+      <c r="L42" t="s">
+        <v>541</v>
+      </c>
+      <c r="M42" t="s">
+        <v>156</v>
+      </c>
+      <c r="N42" t="s">
+        <v>584</v>
+      </c>
+      <c r="O42" t="s">
+        <v>240</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" t="s">
+        <v>464</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>365</v>
+      </c>
+      <c r="E43" t="s">
+        <v>361</v>
+      </c>
+      <c r="F43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" t="s">
+        <v>346</v>
+      </c>
+      <c r="H43" t="s">
+        <v>410</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>595</v>
+      </c>
+      <c r="K43" t="s">
+        <v>200</v>
+      </c>
+      <c r="L43" t="s">
+        <v>526</v>
+      </c>
+      <c r="M43" t="s">
+        <v>231</v>
+      </c>
+      <c r="N43" t="s">
+        <v>565</v>
+      </c>
+      <c r="O43" t="s">
+        <v>166</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" t="s">
+        <v>465</v>
+      </c>
+      <c r="C44">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s">
+        <v>366</v>
+      </c>
+      <c r="E44" t="s">
+        <v>362</v>
+      </c>
+      <c r="F44" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44" t="s">
+        <v>347</v>
+      </c>
+      <c r="H44" t="s">
+        <v>411</v>
+      </c>
+      <c r="I44">
+        <v>23</v>
+      </c>
+      <c r="J44" t="s">
+        <v>598</v>
+      </c>
+      <c r="K44" t="s">
+        <v>150</v>
+      </c>
+      <c r="L44" t="s">
+        <v>552</v>
+      </c>
+      <c r="M44" t="s">
+        <v>158</v>
+      </c>
+      <c r="N44" t="s">
+        <v>578</v>
+      </c>
+      <c r="O44" t="s">
+        <v>210</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" t="s">
+        <v>466</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>364</v>
+      </c>
+      <c r="E45" t="s">
+        <v>363</v>
+      </c>
+      <c r="F45" t="s">
+        <v>294</v>
+      </c>
+      <c r="G45" t="s">
+        <v>348</v>
+      </c>
+      <c r="H45" t="s">
+        <v>412</v>
+      </c>
+      <c r="I45">
+        <v>34</v>
+      </c>
+      <c r="J45" t="s">
+        <v>601</v>
+      </c>
+      <c r="K45" t="s">
+        <v>155</v>
+      </c>
+      <c r="L45" t="s">
+        <v>511</v>
+      </c>
+      <c r="M45" t="s">
+        <v>151</v>
+      </c>
+      <c r="N45" t="s">
+        <v>500</v>
+      </c>
+      <c r="O45" t="s">
+        <v>149</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" t="s">
+        <v>467</v>
+      </c>
+      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>365</v>
+      </c>
+      <c r="E46" t="s">
+        <v>368</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" t="s">
+        <v>349</v>
+      </c>
+      <c r="H46" t="s">
+        <v>413</v>
+      </c>
+      <c r="I46">
+        <v>23</v>
+      </c>
+      <c r="J46" t="s">
+        <v>603</v>
+      </c>
+      <c r="K46" t="s">
+        <v>207</v>
+      </c>
+      <c r="L46" t="s">
+        <v>623</v>
+      </c>
+      <c r="M46" t="s">
+        <v>243</v>
+      </c>
+      <c r="N46" t="s">
+        <v>567</v>
+      </c>
+      <c r="O46" t="s">
+        <v>239</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s">
+        <v>468</v>
+      </c>
+      <c r="C47">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>366</v>
+      </c>
+      <c r="E47" t="s">
+        <v>359</v>
+      </c>
+      <c r="F47" t="s">
+        <v>296</v>
+      </c>
+      <c r="G47" t="s">
+        <v>350</v>
+      </c>
+      <c r="H47" t="s">
+        <v>414</v>
+      </c>
+      <c r="I47">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s">
+        <v>605</v>
+      </c>
+      <c r="K47" t="s">
+        <v>208</v>
+      </c>
+      <c r="L47" t="s">
+        <v>505</v>
+      </c>
+      <c r="M47" t="s">
+        <v>150</v>
+      </c>
+      <c r="N47" t="s">
+        <v>530</v>
+      </c>
+      <c r="O47" t="s">
+        <v>154</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" t="s">
+        <v>469</v>
+      </c>
+      <c r="C48">
+        <v>31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>367</v>
+      </c>
+      <c r="E48" t="s">
+        <v>361</v>
+      </c>
+      <c r="F48" t="s">
+        <v>297</v>
+      </c>
+      <c r="G48" t="s">
+        <v>351</v>
+      </c>
+      <c r="H48" t="s">
+        <v>415</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="J48" t="s">
+        <v>564</v>
+      </c>
+      <c r="K48" t="s">
+        <v>201</v>
+      </c>
+      <c r="L48" t="s">
+        <v>531</v>
+      </c>
+      <c r="M48" t="s">
+        <v>169</v>
+      </c>
+      <c r="N48" t="s">
+        <v>533</v>
+      </c>
+      <c r="O48" t="s">
+        <v>205</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" t="s">
+        <v>470</v>
+      </c>
+      <c r="C49">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>364</v>
+      </c>
+      <c r="E49" t="s">
+        <v>362</v>
+      </c>
+      <c r="F49" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49" t="s">
+        <v>352</v>
+      </c>
+      <c r="H49" t="s">
+        <v>416</v>
+      </c>
+      <c r="I49">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>610</v>
+      </c>
+      <c r="K49" t="s">
+        <v>152</v>
+      </c>
+      <c r="L49" t="s">
+        <v>520</v>
+      </c>
+      <c r="M49" t="s">
+        <v>242</v>
+      </c>
+      <c r="N49" t="s">
+        <v>545</v>
+      </c>
+      <c r="O49" t="s">
+        <v>207</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" t="s">
+        <v>471</v>
+      </c>
+      <c r="C50">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="D50" t="s">
+        <v>365</v>
+      </c>
+      <c r="E50" t="s">
+        <v>363</v>
+      </c>
+      <c r="F50" t="s">
+        <v>299</v>
+      </c>
+      <c r="G50" t="s">
+        <v>353</v>
+      </c>
+      <c r="H50" t="s">
+        <v>417</v>
+      </c>
+      <c r="I50">
+        <v>15</v>
+      </c>
+      <c r="J50" t="s">
+        <v>488</v>
+      </c>
+      <c r="K50" t="s">
+        <v>228</v>
+      </c>
+      <c r="L50" t="s">
+        <v>493</v>
+      </c>
+      <c r="M50" t="s">
+        <v>202</v>
+      </c>
+      <c r="N50" t="s">
+        <v>561</v>
+      </c>
+      <c r="O50" t="s">
+        <v>209</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" t="s">
+        <v>472</v>
+      </c>
+      <c r="C51">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>366</v>
+      </c>
+      <c r="E51" t="s">
+        <v>361</v>
+      </c>
+      <c r="F51" t="s">
+        <v>300</v>
+      </c>
+      <c r="G51" t="s">
+        <v>354</v>
+      </c>
+      <c r="H51" t="s">
+        <v>418</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>613</v>
+      </c>
+      <c r="K51" t="s">
+        <v>242</v>
+      </c>
+      <c r="L51" t="s">
+        <v>596</v>
+      </c>
+      <c r="M51" t="s">
+        <v>166</v>
+      </c>
+      <c r="N51" t="s">
+        <v>527</v>
+      </c>
+      <c r="O51" t="s">
+        <v>231</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" t="s">
+        <v>473</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" t="s">
+        <v>362</v>
+      </c>
+      <c r="F52" t="s">
+        <v>301</v>
+      </c>
+      <c r="G52" t="s">
+        <v>355</v>
+      </c>
+      <c r="H52" t="s">
+        <v>419</v>
+      </c>
+      <c r="I52">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J52" t="s">
+        <v>616</v>
+      </c>
+      <c r="K52" t="s">
+        <v>225</v>
+      </c>
+      <c r="L52" t="s">
+        <v>589</v>
+      </c>
+      <c r="M52" t="s">
+        <v>211</v>
+      </c>
+      <c r="N52" t="s">
+        <v>512</v>
+      </c>
+      <c r="O52" t="s">
+        <v>151</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" t="s">
+        <v>474</v>
+      </c>
+      <c r="C53">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>364</v>
+      </c>
+      <c r="E53" t="s">
+        <v>363</v>
+      </c>
+      <c r="F53" t="s">
+        <v>302</v>
+      </c>
+      <c r="G53" t="s">
+        <v>356</v>
+      </c>
+      <c r="H53" t="s">
+        <v>420</v>
+      </c>
+      <c r="I53">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>477</v>
-      </c>
-      <c r="L2" t="s">
-        <v>208</v>
-      </c>
-      <c r="M2" t="s">
-        <v>572</v>
-      </c>
-      <c r="N2" t="s">
-        <v>241</v>
-      </c>
-      <c r="O2" t="s">
-        <v>503</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="J53" t="s">
+        <v>619</v>
+      </c>
+      <c r="K53" t="s">
         <v>204</v>
       </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D3">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="L53" t="s">
+        <v>614</v>
+      </c>
+      <c r="M53" t="s">
+        <v>243</v>
+      </c>
+      <c r="N53" t="s">
+        <v>597</v>
+      </c>
+      <c r="O53" t="s">
+        <v>166</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" t="s">
+        <v>475</v>
+      </c>
+      <c r="C54">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
         <v>365</v>
       </c>
-      <c r="F3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G3" t="s">
-        <v>252</v>
-      </c>
-      <c r="H3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I3" t="s">
-        <v>370</v>
-      </c>
-      <c r="J3">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>480</v>
-      </c>
-      <c r="L3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" t="s">
-        <v>549</v>
-      </c>
-      <c r="N3" t="s">
-        <v>221</v>
-      </c>
-      <c r="O3" t="s">
-        <v>509</v>
-      </c>
-      <c r="P3" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D4">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E54" t="s">
+        <v>368</v>
+      </c>
+      <c r="F54" t="s">
+        <v>303</v>
+      </c>
+      <c r="G54" t="s">
+        <v>357</v>
+      </c>
+      <c r="H54" t="s">
+        <v>421</v>
+      </c>
+      <c r="I54">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s">
+        <v>622</v>
+      </c>
+      <c r="K54" t="s">
+        <v>204</v>
+      </c>
+      <c r="L54" t="s">
+        <v>529</v>
+      </c>
+      <c r="M54" t="s">
+        <v>154</v>
+      </c>
+      <c r="N54" t="s">
+        <v>612</v>
+      </c>
+      <c r="O54" t="s">
+        <v>236</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" t="s">
+        <v>476</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
         <v>366</v>
       </c>
-      <c r="F4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" t="s">
-        <v>307</v>
-      </c>
-      <c r="I4" t="s">
-        <v>371</v>
-      </c>
-      <c r="J4">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>483</v>
-      </c>
-      <c r="L4" t="s">
-        <v>221</v>
-      </c>
-      <c r="M4" t="s">
-        <v>490</v>
-      </c>
-      <c r="N4" t="s">
-        <v>201</v>
-      </c>
-      <c r="O4" t="s">
-        <v>495</v>
-      </c>
-      <c r="P4" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" t="s">
-        <v>426</v>
-      </c>
-      <c r="D5">
+      <c r="E55" t="s">
+        <v>359</v>
+      </c>
+      <c r="F55" t="s">
+        <v>304</v>
+      </c>
+      <c r="G55" t="s">
+        <v>358</v>
+      </c>
+      <c r="H55" t="s">
+        <v>422</v>
+      </c>
+      <c r="I55">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>367</v>
-      </c>
-      <c r="F5" t="s">
-        <v>363</v>
-      </c>
-      <c r="G5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I5" t="s">
-        <v>372</v>
-      </c>
-      <c r="J5">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>486</v>
-      </c>
-      <c r="L5" t="s">
-        <v>157</v>
-      </c>
-      <c r="M5" t="s">
-        <v>563</v>
-      </c>
-      <c r="N5" t="s">
-        <v>160</v>
-      </c>
-      <c r="O5" t="s">
-        <v>581</v>
-      </c>
-      <c r="P5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D6">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>364</v>
-      </c>
-      <c r="F6" t="s">
-        <v>368</v>
-      </c>
-      <c r="G6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I6" t="s">
-        <v>373</v>
-      </c>
-      <c r="J6">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>489</v>
-      </c>
-      <c r="L6" t="s">
-        <v>207</v>
-      </c>
-      <c r="M6" t="s">
-        <v>566</v>
-      </c>
-      <c r="N6" t="s">
-        <v>239</v>
-      </c>
-      <c r="O6" t="s">
-        <v>524</v>
-      </c>
-      <c r="P6" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" t="s">
-        <v>428</v>
-      </c>
-      <c r="D7">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" t="s">
-        <v>310</v>
-      </c>
-      <c r="I7" t="s">
-        <v>374</v>
-      </c>
-      <c r="J7">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M7" t="s">
-        <v>535</v>
-      </c>
-      <c r="N7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O7" t="s">
-        <v>618</v>
-      </c>
-      <c r="P7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>366</v>
-      </c>
-      <c r="F8" t="s">
-        <v>361</v>
-      </c>
-      <c r="G8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H8" t="s">
-        <v>311</v>
-      </c>
-      <c r="I8" t="s">
-        <v>375</v>
-      </c>
-      <c r="J8">
-        <v>42</v>
-      </c>
-      <c r="K8" t="s">
-        <v>495</v>
-      </c>
-      <c r="L8" t="s">
-        <v>206</v>
-      </c>
-      <c r="M8" t="s">
-        <v>538</v>
-      </c>
-      <c r="N8" t="s">
-        <v>206</v>
-      </c>
-      <c r="O8" t="s">
-        <v>624</v>
-      </c>
-      <c r="P8" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" t="s">
-        <v>430</v>
-      </c>
-      <c r="D9">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>367</v>
-      </c>
-      <c r="F9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G9" t="s">
-        <v>258</v>
-      </c>
-      <c r="H9" t="s">
-        <v>312</v>
-      </c>
-      <c r="I9" t="s">
-        <v>376</v>
-      </c>
-      <c r="J9">
-        <v>42</v>
-      </c>
-      <c r="K9" t="s">
-        <v>498</v>
-      </c>
-      <c r="L9" t="s">
-        <v>155</v>
-      </c>
-      <c r="M9" t="s">
-        <v>484</v>
-      </c>
-      <c r="N9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O9" t="s">
-        <v>553</v>
-      </c>
-      <c r="P9" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" t="s">
-        <v>431</v>
-      </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>364</v>
-      </c>
-      <c r="F10" t="s">
-        <v>363</v>
-      </c>
-      <c r="G10" t="s">
-        <v>259</v>
-      </c>
-      <c r="H10" t="s">
-        <v>313</v>
-      </c>
-      <c r="I10" t="s">
-        <v>377</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
-        <v>501</v>
-      </c>
-      <c r="L10" t="s">
-        <v>205</v>
-      </c>
-      <c r="M10" t="s">
-        <v>544</v>
-      </c>
-      <c r="N10" t="s">
-        <v>207</v>
-      </c>
-      <c r="O10" t="s">
-        <v>536</v>
-      </c>
-      <c r="P10" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" t="s">
-        <v>432</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>365</v>
-      </c>
-      <c r="F11" t="s">
-        <v>368</v>
-      </c>
-      <c r="G11" t="s">
-        <v>260</v>
-      </c>
-      <c r="H11" t="s">
-        <v>314</v>
-      </c>
-      <c r="I11" t="s">
-        <v>378</v>
-      </c>
-      <c r="J11">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>504</v>
-      </c>
-      <c r="L11" t="s">
-        <v>149</v>
-      </c>
-      <c r="M11" t="s">
-        <v>478</v>
-      </c>
-      <c r="N11" t="s">
-        <v>147</v>
-      </c>
-      <c r="O11" t="s">
-        <v>555</v>
-      </c>
-      <c r="P11" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" t="s">
-        <v>433</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>366</v>
-      </c>
-      <c r="F12" t="s">
-        <v>359</v>
-      </c>
-      <c r="G12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H12" t="s">
-        <v>315</v>
-      </c>
-      <c r="I12" t="s">
-        <v>379</v>
-      </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
-      <c r="K12" t="s">
-        <v>507</v>
-      </c>
-      <c r="L12" t="s">
-        <v>221</v>
-      </c>
-      <c r="M12" t="s">
-        <v>620</v>
-      </c>
-      <c r="N12" t="s">
-        <v>213</v>
-      </c>
-      <c r="O12" t="s">
-        <v>592</v>
-      </c>
-      <c r="P12" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D13">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>367</v>
-      </c>
-      <c r="F13" t="s">
-        <v>361</v>
-      </c>
-      <c r="G13" t="s">
-        <v>262</v>
-      </c>
-      <c r="H13" t="s">
-        <v>316</v>
-      </c>
-      <c r="I13" t="s">
-        <v>380</v>
-      </c>
-      <c r="J13">
-        <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>510</v>
-      </c>
-      <c r="L13" t="s">
-        <v>154</v>
-      </c>
-      <c r="M13" t="s">
-        <v>487</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="J55" t="s">
+        <v>625</v>
+      </c>
+      <c r="K55" t="s">
         <v>148</v>
       </c>
-      <c r="O13" t="s">
-        <v>542</v>
-      </c>
-      <c r="P13" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" t="s">
-        <v>434</v>
-      </c>
-      <c r="D14">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>364</v>
-      </c>
-      <c r="F14" t="s">
-        <v>362</v>
-      </c>
-      <c r="G14" t="s">
-        <v>263</v>
-      </c>
-      <c r="H14" t="s">
-        <v>317</v>
-      </c>
-      <c r="I14" t="s">
-        <v>381</v>
-      </c>
-      <c r="J14">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>513</v>
-      </c>
-      <c r="L14" t="s">
-        <v>225</v>
-      </c>
-      <c r="M14" t="s">
-        <v>502</v>
-      </c>
-      <c r="N14" t="s">
-        <v>204</v>
-      </c>
-      <c r="O14" t="s">
-        <v>491</v>
-      </c>
-      <c r="P14" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" t="s">
-        <v>436</v>
-      </c>
-      <c r="D15">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F15" t="s">
-        <v>363</v>
-      </c>
-      <c r="G15" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" t="s">
-        <v>318</v>
-      </c>
-      <c r="I15" t="s">
-        <v>382</v>
-      </c>
-      <c r="J15">
-        <v>34</v>
-      </c>
-      <c r="K15" t="s">
-        <v>516</v>
-      </c>
-      <c r="L15" t="s">
-        <v>154</v>
-      </c>
-      <c r="M15" t="s">
-        <v>534</v>
-      </c>
-      <c r="N15" t="s">
-        <v>208</v>
-      </c>
-      <c r="O15" t="s">
-        <v>497</v>
-      </c>
-      <c r="P15" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" t="s">
-        <v>437</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>366</v>
-      </c>
-      <c r="F16" t="s">
-        <v>368</v>
-      </c>
-      <c r="G16" t="s">
-        <v>265</v>
-      </c>
-      <c r="H16" t="s">
-        <v>319</v>
-      </c>
-      <c r="I16" t="s">
-        <v>383</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16" t="s">
-        <v>519</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="L55" t="s">
+        <v>481</v>
+      </c>
+      <c r="M55" t="s">
+        <v>200</v>
+      </c>
+      <c r="N55" t="s">
+        <v>518</v>
+      </c>
+      <c r="O55" t="s">
         <v>152</v>
       </c>
-      <c r="M16" t="s">
-        <v>583</v>
-      </c>
-      <c r="N16" t="s">
-        <v>240</v>
-      </c>
-      <c r="O16" t="s">
-        <v>506</v>
-      </c>
-      <c r="P16" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" t="s">
-        <v>438</v>
-      </c>
-      <c r="D17">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>367</v>
-      </c>
-      <c r="F17" t="s">
-        <v>359</v>
-      </c>
-      <c r="G17" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" t="s">
-        <v>320</v>
-      </c>
-      <c r="I17" t="s">
-        <v>384</v>
-      </c>
-      <c r="J17">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>522</v>
-      </c>
-      <c r="L17" t="s">
-        <v>149</v>
-      </c>
-      <c r="M17" t="s">
-        <v>617</v>
-      </c>
-      <c r="N17" t="s">
-        <v>169</v>
-      </c>
-      <c r="O17" t="s">
-        <v>479</v>
-      </c>
-      <c r="P17" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" t="s">
-        <v>439</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>364</v>
-      </c>
-      <c r="F18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G18" t="s">
-        <v>267</v>
-      </c>
-      <c r="H18" t="s">
-        <v>321</v>
-      </c>
-      <c r="I18" t="s">
-        <v>385</v>
-      </c>
-      <c r="J18">
-        <v>49</v>
-      </c>
-      <c r="K18" t="s">
-        <v>525</v>
-      </c>
-      <c r="L18" t="s">
-        <v>147</v>
-      </c>
-      <c r="M18" t="s">
-        <v>515</v>
-      </c>
-      <c r="N18" t="s">
-        <v>157</v>
-      </c>
-      <c r="O18" t="s">
-        <v>542</v>
-      </c>
-      <c r="P18" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" t="s">
-        <v>440</v>
-      </c>
-      <c r="D19">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>365</v>
-      </c>
-      <c r="F19" t="s">
-        <v>362</v>
-      </c>
-      <c r="G19" t="s">
-        <v>268</v>
-      </c>
-      <c r="H19" t="s">
-        <v>322</v>
-      </c>
-      <c r="I19" t="s">
-        <v>386</v>
-      </c>
-      <c r="J19">
-        <v>26</v>
-      </c>
-      <c r="K19" t="s">
-        <v>528</v>
-      </c>
-      <c r="L19" t="s">
-        <v>203</v>
-      </c>
-      <c r="M19" t="s">
-        <v>514</v>
-      </c>
-      <c r="N19" t="s">
-        <v>225</v>
-      </c>
-      <c r="O19" t="s">
-        <v>609</v>
-      </c>
-      <c r="P19" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" t="s">
-        <v>441</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>366</v>
-      </c>
-      <c r="F20" t="s">
-        <v>363</v>
-      </c>
-      <c r="G20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H20" t="s">
-        <v>323</v>
-      </c>
-      <c r="I20" t="s">
-        <v>387</v>
-      </c>
-      <c r="J20">
-        <v>45</v>
-      </c>
-      <c r="K20" t="s">
-        <v>531</v>
-      </c>
-      <c r="L20" t="s">
-        <v>231</v>
-      </c>
-      <c r="M20" t="s">
-        <v>487</v>
-      </c>
-      <c r="N20" t="s">
-        <v>223</v>
-      </c>
-      <c r="O20" t="s">
-        <v>587</v>
-      </c>
-      <c r="P20" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" t="s">
-        <v>442</v>
-      </c>
-      <c r="D21">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>367</v>
-      </c>
-      <c r="F21" t="s">
-        <v>368</v>
-      </c>
-      <c r="G21" t="s">
-        <v>270</v>
-      </c>
-      <c r="H21" t="s">
-        <v>324</v>
-      </c>
-      <c r="I21" t="s">
-        <v>388</v>
-      </c>
-      <c r="J21">
-        <v>48</v>
-      </c>
-      <c r="K21" t="s">
-        <v>534</v>
-      </c>
-      <c r="L21" t="s">
-        <v>153</v>
-      </c>
-      <c r="M21" t="s">
-        <v>508</v>
-      </c>
-      <c r="N21" t="s">
-        <v>228</v>
-      </c>
-      <c r="O21" t="s">
-        <v>515</v>
-      </c>
-      <c r="P21" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" t="s">
-        <v>443</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>364</v>
-      </c>
-      <c r="F22" t="s">
-        <v>359</v>
-      </c>
-      <c r="G22" t="s">
-        <v>271</v>
-      </c>
-      <c r="H22" t="s">
-        <v>325</v>
-      </c>
-      <c r="I22" t="s">
-        <v>389</v>
-      </c>
-      <c r="J22">
-        <v>36</v>
-      </c>
-      <c r="K22" t="s">
-        <v>537</v>
-      </c>
-      <c r="L22" t="s">
-        <v>151</v>
-      </c>
-      <c r="M22" t="s">
-        <v>586</v>
-      </c>
-      <c r="N22" t="s">
-        <v>164</v>
-      </c>
-      <c r="O22" t="s">
-        <v>539</v>
-      </c>
-      <c r="P22" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" t="s">
-        <v>444</v>
-      </c>
-      <c r="D23">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>365</v>
-      </c>
-      <c r="F23" t="s">
-        <v>361</v>
-      </c>
-      <c r="G23" t="s">
-        <v>272</v>
-      </c>
-      <c r="H23" t="s">
-        <v>326</v>
-      </c>
-      <c r="I23" t="s">
-        <v>390</v>
-      </c>
-      <c r="J23">
-        <v>46</v>
-      </c>
-      <c r="K23" t="s">
-        <v>540</v>
-      </c>
-      <c r="L23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M23" t="s">
-        <v>532</v>
-      </c>
-      <c r="N23" t="s">
-        <v>205</v>
-      </c>
-      <c r="O23" t="s">
-        <v>550</v>
-      </c>
-      <c r="P23" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D24">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>366</v>
-      </c>
-      <c r="F24" t="s">
-        <v>362</v>
-      </c>
-      <c r="G24" t="s">
-        <v>273</v>
-      </c>
-      <c r="H24" t="s">
-        <v>327</v>
-      </c>
-      <c r="I24" t="s">
-        <v>391</v>
-      </c>
-      <c r="J24">
-        <v>28</v>
-      </c>
-      <c r="K24" t="s">
-        <v>543</v>
-      </c>
-      <c r="L24" t="s">
-        <v>206</v>
-      </c>
-      <c r="M24" t="s">
-        <v>559</v>
-      </c>
-      <c r="N24" t="s">
-        <v>167</v>
-      </c>
-      <c r="O24" t="s">
-        <v>575</v>
-      </c>
-      <c r="P24" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" t="s">
-        <v>446</v>
-      </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>367</v>
-      </c>
-      <c r="F25" t="s">
-        <v>363</v>
-      </c>
-      <c r="G25" t="s">
-        <v>274</v>
-      </c>
-      <c r="H25" t="s">
-        <v>328</v>
-      </c>
-      <c r="I25" t="s">
-        <v>392</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25" t="s">
-        <v>546</v>
-      </c>
-      <c r="L25" t="s">
-        <v>151</v>
-      </c>
-      <c r="M25" t="s">
-        <v>580</v>
-      </c>
-      <c r="N25" t="s">
-        <v>163</v>
-      </c>
-      <c r="O25" t="s">
-        <v>600</v>
-      </c>
-      <c r="P25" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" t="s">
-        <v>447</v>
-      </c>
-      <c r="D26">
-        <v>45</v>
-      </c>
-      <c r="E26" t="s">
-        <v>364</v>
-      </c>
-      <c r="F26" t="s">
-        <v>368</v>
-      </c>
-      <c r="G26" t="s">
-        <v>275</v>
-      </c>
-      <c r="H26" t="s">
-        <v>329</v>
-      </c>
-      <c r="I26" t="s">
-        <v>393</v>
-      </c>
-      <c r="J26">
-        <v>12</v>
-      </c>
-      <c r="K26" t="s">
-        <v>548</v>
-      </c>
-      <c r="L26" t="s">
-        <v>228</v>
-      </c>
-      <c r="M26" t="s">
-        <v>606</v>
-      </c>
-      <c r="N26" t="s">
-        <v>168</v>
-      </c>
-      <c r="O26" t="s">
-        <v>482</v>
-      </c>
-      <c r="P26" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" t="s">
-        <v>448</v>
-      </c>
-      <c r="D27">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
-        <v>365</v>
-      </c>
-      <c r="F27" t="s">
-        <v>359</v>
-      </c>
-      <c r="G27" t="s">
-        <v>276</v>
-      </c>
-      <c r="H27" t="s">
-        <v>330</v>
-      </c>
-      <c r="I27" t="s">
-        <v>394</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-      <c r="K27" t="s">
-        <v>551</v>
-      </c>
-      <c r="L27" t="s">
-        <v>156</v>
-      </c>
-      <c r="M27" t="s">
-        <v>591</v>
-      </c>
-      <c r="N27" t="s">
-        <v>165</v>
-      </c>
-      <c r="O27" t="s">
-        <v>488</v>
-      </c>
-      <c r="P27" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" t="s">
-        <v>449</v>
-      </c>
-      <c r="D28">
-        <v>24</v>
-      </c>
-      <c r="E28" t="s">
-        <v>366</v>
-      </c>
-      <c r="F28" t="s">
-        <v>361</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="H28" t="s">
-        <v>331</v>
-      </c>
-      <c r="I28" t="s">
-        <v>395</v>
-      </c>
-      <c r="J28">
-        <v>43</v>
-      </c>
-      <c r="K28" t="s">
-        <v>554</v>
-      </c>
-      <c r="L28" t="s">
-        <v>231</v>
-      </c>
-      <c r="M28" t="s">
-        <v>560</v>
-      </c>
-      <c r="N28" t="s">
-        <v>209</v>
-      </c>
-      <c r="O28" t="s">
-        <v>547</v>
-      </c>
-      <c r="P28" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" t="s">
-        <v>450</v>
-      </c>
-      <c r="D29">
-        <v>22</v>
-      </c>
-      <c r="E29" t="s">
-        <v>367</v>
-      </c>
-      <c r="F29" t="s">
-        <v>362</v>
-      </c>
-      <c r="G29" t="s">
-        <v>278</v>
-      </c>
-      <c r="H29" t="s">
-        <v>332</v>
-      </c>
-      <c r="I29" t="s">
-        <v>396</v>
-      </c>
-      <c r="J29">
-        <v>32</v>
-      </c>
-      <c r="K29" t="s">
-        <v>556</v>
-      </c>
-      <c r="L29" t="s">
-        <v>205</v>
-      </c>
-      <c r="M29" t="s">
-        <v>499</v>
-      </c>
-      <c r="N29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O29" t="s">
-        <v>485</v>
-      </c>
-      <c r="P29" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" t="s">
-        <v>451</v>
-      </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>364</v>
-      </c>
-      <c r="F30" t="s">
-        <v>363</v>
-      </c>
-      <c r="G30" t="s">
-        <v>279</v>
-      </c>
-      <c r="H30" t="s">
-        <v>333</v>
-      </c>
-      <c r="I30" t="s">
-        <v>397</v>
-      </c>
-      <c r="J30">
-        <v>45</v>
-      </c>
-      <c r="K30" t="s">
-        <v>559</v>
-      </c>
-      <c r="L30" t="s">
-        <v>201</v>
-      </c>
-      <c r="M30" t="s">
-        <v>523</v>
-      </c>
-      <c r="N30" t="s">
-        <v>153</v>
-      </c>
-      <c r="O30" t="s">
-        <v>607</v>
-      </c>
-      <c r="P30" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" t="s">
-        <v>452</v>
-      </c>
-      <c r="D31">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>365</v>
-      </c>
-      <c r="F31" t="s">
-        <v>368</v>
-      </c>
-      <c r="G31" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" t="s">
-        <v>334</v>
-      </c>
-      <c r="I31" t="s">
-        <v>398</v>
-      </c>
-      <c r="J31">
-        <v>37</v>
-      </c>
-      <c r="K31" t="s">
-        <v>562</v>
-      </c>
-      <c r="L31" t="s">
-        <v>233</v>
-      </c>
-      <c r="M31" t="s">
-        <v>611</v>
-      </c>
-      <c r="N31" t="s">
-        <v>213</v>
-      </c>
-      <c r="O31" t="s">
-        <v>602</v>
-      </c>
-      <c r="P31" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" t="s">
-        <v>453</v>
-      </c>
-      <c r="D32">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>366</v>
-      </c>
-      <c r="F32" t="s">
-        <v>359</v>
-      </c>
-      <c r="G32" t="s">
-        <v>281</v>
-      </c>
-      <c r="H32" t="s">
-        <v>335</v>
-      </c>
-      <c r="I32" t="s">
-        <v>399</v>
-      </c>
-      <c r="J32">
-        <v>27</v>
-      </c>
-      <c r="K32" t="s">
-        <v>565</v>
-      </c>
-      <c r="L32" t="s">
-        <v>200</v>
-      </c>
-      <c r="M32" t="s">
-        <v>577</v>
-      </c>
-      <c r="N32" t="s">
-        <v>210</v>
-      </c>
-      <c r="O32" t="s">
-        <v>615</v>
-      </c>
-      <c r="P32" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" t="s">
-        <v>454</v>
-      </c>
-      <c r="D33">
-        <v>31</v>
-      </c>
-      <c r="E33" t="s">
-        <v>367</v>
-      </c>
-      <c r="F33" t="s">
-        <v>361</v>
-      </c>
-      <c r="G33" t="s">
-        <v>282</v>
-      </c>
-      <c r="H33" t="s">
-        <v>336</v>
-      </c>
-      <c r="I33" t="s">
-        <v>400</v>
-      </c>
-      <c r="J33">
-        <v>47</v>
-      </c>
-      <c r="K33" t="s">
-        <v>568</v>
-      </c>
-      <c r="L33" t="s">
-        <v>202</v>
-      </c>
-      <c r="M33" t="s">
-        <v>517</v>
-      </c>
-      <c r="N33" t="s">
-        <v>152</v>
-      </c>
-      <c r="O33" t="s">
-        <v>621</v>
-      </c>
-      <c r="P33" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C34" t="s">
-        <v>455</v>
-      </c>
-      <c r="D34">
-        <v>42</v>
-      </c>
-      <c r="E34" t="s">
-        <v>364</v>
-      </c>
-      <c r="F34" t="s">
-        <v>362</v>
-      </c>
-      <c r="G34" t="s">
-        <v>283</v>
-      </c>
-      <c r="H34" t="s">
-        <v>337</v>
-      </c>
-      <c r="I34" t="s">
-        <v>401</v>
-      </c>
-      <c r="J34">
-        <v>39</v>
-      </c>
-      <c r="K34" t="s">
-        <v>571</v>
-      </c>
-      <c r="L34" t="s">
-        <v>233</v>
-      </c>
-      <c r="M34" t="s">
-        <v>626</v>
-      </c>
-      <c r="N34" t="s">
-        <v>169</v>
-      </c>
-      <c r="O34" t="s">
-        <v>521</v>
-      </c>
-      <c r="P34" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" t="s">
-        <v>456</v>
-      </c>
-      <c r="D35">
-        <v>56</v>
-      </c>
-      <c r="E35" t="s">
-        <v>365</v>
-      </c>
-      <c r="F35" t="s">
-        <v>363</v>
-      </c>
-      <c r="G35" t="s">
-        <v>284</v>
-      </c>
-      <c r="H35" t="s">
-        <v>338</v>
-      </c>
-      <c r="I35" t="s">
-        <v>402</v>
-      </c>
-      <c r="J35">
-        <v>22</v>
-      </c>
-      <c r="K35" t="s">
-        <v>561</v>
-      </c>
-      <c r="L35" t="s">
-        <v>153</v>
-      </c>
-      <c r="M35" t="s">
-        <v>599</v>
-      </c>
-      <c r="N35" t="s">
-        <v>236</v>
-      </c>
-      <c r="O35" t="s">
-        <v>594</v>
-      </c>
-      <c r="P35" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>247</v>
-      </c>
-      <c r="C36" t="s">
-        <v>457</v>
-      </c>
-      <c r="D36">
-        <v>17</v>
-      </c>
-      <c r="E36" t="s">
-        <v>366</v>
-      </c>
-      <c r="F36" t="s">
-        <v>368</v>
-      </c>
-      <c r="G36" t="s">
-        <v>285</v>
-      </c>
-      <c r="H36" t="s">
-        <v>339</v>
-      </c>
-      <c r="I36" t="s">
-        <v>403</v>
-      </c>
-      <c r="J36">
-        <v>40</v>
-      </c>
-      <c r="K36" t="s">
-        <v>576</v>
-      </c>
-      <c r="L36" t="s">
-        <v>148</v>
-      </c>
-      <c r="M36" t="s">
-        <v>608</v>
-      </c>
-      <c r="N36" t="s">
-        <v>243</v>
-      </c>
-      <c r="O36" t="s">
-        <v>494</v>
-      </c>
-      <c r="P36" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" t="s">
-        <v>458</v>
-      </c>
-      <c r="D37">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>367</v>
-      </c>
-      <c r="F37" t="s">
-        <v>359</v>
-      </c>
-      <c r="G37" t="s">
-        <v>286</v>
-      </c>
-      <c r="H37" t="s">
-        <v>340</v>
-      </c>
-      <c r="I37" t="s">
-        <v>404</v>
-      </c>
-      <c r="J37">
-        <v>49</v>
-      </c>
-      <c r="K37" t="s">
-        <v>579</v>
-      </c>
-      <c r="L37" t="s">
-        <v>150</v>
-      </c>
-      <c r="M37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N37" t="s">
-        <v>162</v>
-      </c>
-      <c r="O37" t="s">
-        <v>570</v>
-      </c>
-      <c r="P37" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>250</v>
-      </c>
-      <c r="C38" t="s">
-        <v>459</v>
-      </c>
-      <c r="D38">
-        <v>16</v>
-      </c>
-      <c r="E38" t="s">
-        <v>364</v>
-      </c>
-      <c r="F38" t="s">
-        <v>361</v>
-      </c>
-      <c r="G38" t="s">
-        <v>287</v>
-      </c>
-      <c r="H38" t="s">
-        <v>341</v>
-      </c>
-      <c r="I38" t="s">
-        <v>405</v>
-      </c>
-      <c r="J38">
-        <v>7</v>
-      </c>
-      <c r="K38" t="s">
-        <v>582</v>
-      </c>
-      <c r="L38" t="s">
-        <v>203</v>
-      </c>
-      <c r="M38" t="s">
-        <v>569</v>
-      </c>
-      <c r="N38" t="s">
-        <v>161</v>
-      </c>
-      <c r="O38" t="s">
-        <v>564</v>
-      </c>
-      <c r="P38" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" t="s">
-        <v>460</v>
-      </c>
-      <c r="D39">
-        <v>20</v>
-      </c>
-      <c r="E39" t="s">
-        <v>365</v>
-      </c>
-      <c r="F39" t="s">
-        <v>362</v>
-      </c>
-      <c r="G39" t="s">
-        <v>288</v>
-      </c>
-      <c r="H39" t="s">
-        <v>342</v>
-      </c>
-      <c r="I39" t="s">
-        <v>406</v>
-      </c>
-      <c r="J39">
-        <v>35</v>
-      </c>
-      <c r="K39" t="s">
-        <v>585</v>
-      </c>
-      <c r="L39" t="s">
-        <v>157</v>
-      </c>
-      <c r="M39" t="s">
-        <v>557</v>
-      </c>
-      <c r="N39" t="s">
-        <v>159</v>
-      </c>
-      <c r="O39" t="s">
-        <v>558</v>
-      </c>
-      <c r="P39" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>235</v>
-      </c>
-      <c r="C40" t="s">
-        <v>461</v>
-      </c>
-      <c r="D40">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>366</v>
-      </c>
-      <c r="F40" t="s">
-        <v>363</v>
-      </c>
-      <c r="G40" t="s">
-        <v>289</v>
-      </c>
-      <c r="H40" t="s">
-        <v>343</v>
-      </c>
-      <c r="I40" t="s">
-        <v>407</v>
-      </c>
-      <c r="J40">
-        <v>39</v>
-      </c>
-      <c r="K40" t="s">
-        <v>588</v>
-      </c>
-      <c r="L40" t="s">
-        <v>202</v>
-      </c>
-      <c r="M40" t="s">
-        <v>593</v>
-      </c>
-      <c r="N40" t="s">
-        <v>212</v>
-      </c>
-      <c r="O40" t="s">
-        <v>573</v>
-      </c>
-      <c r="P40" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" t="s">
-        <v>462</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>367</v>
-      </c>
-      <c r="F41" t="s">
-        <v>368</v>
-      </c>
-      <c r="G41" t="s">
-        <v>290</v>
-      </c>
-      <c r="H41" t="s">
-        <v>344</v>
-      </c>
-      <c r="I41" t="s">
-        <v>408</v>
-      </c>
-      <c r="J41">
-        <v>9</v>
-      </c>
-      <c r="K41" t="s">
-        <v>590</v>
-      </c>
-      <c r="L41" t="s">
-        <v>147</v>
-      </c>
-      <c r="M41" t="s">
-        <v>496</v>
-      </c>
-      <c r="N41" t="s">
-        <v>203</v>
-      </c>
-      <c r="O41" t="s">
-        <v>604</v>
-      </c>
-      <c r="P41" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" t="s">
-        <v>463</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>364</v>
-      </c>
-      <c r="F42" t="s">
-        <v>359</v>
-      </c>
-      <c r="G42" t="s">
-        <v>291</v>
-      </c>
-      <c r="H42" t="s">
-        <v>345</v>
-      </c>
-      <c r="I42" t="s">
-        <v>409</v>
-      </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42" t="s">
-        <v>582</v>
-      </c>
-      <c r="L42" t="s">
-        <v>242</v>
-      </c>
-      <c r="M42" t="s">
-        <v>541</v>
-      </c>
-      <c r="N42" t="s">
-        <v>156</v>
-      </c>
-      <c r="O42" t="s">
-        <v>584</v>
-      </c>
-      <c r="P42" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" t="s">
-        <v>464</v>
-      </c>
-      <c r="D43">
-        <v>17</v>
-      </c>
-      <c r="E43" t="s">
-        <v>365</v>
-      </c>
-      <c r="F43" t="s">
-        <v>361</v>
-      </c>
-      <c r="G43" t="s">
-        <v>292</v>
-      </c>
-      <c r="H43" t="s">
-        <v>346</v>
-      </c>
-      <c r="I43" t="s">
-        <v>410</v>
-      </c>
-      <c r="J43">
-        <v>10</v>
-      </c>
-      <c r="K43" t="s">
-        <v>595</v>
-      </c>
-      <c r="L43" t="s">
-        <v>200</v>
-      </c>
-      <c r="M43" t="s">
-        <v>526</v>
-      </c>
-      <c r="N43" t="s">
-        <v>231</v>
-      </c>
-      <c r="O43" t="s">
-        <v>565</v>
-      </c>
-      <c r="P43" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>217</v>
-      </c>
-      <c r="C44" t="s">
-        <v>465</v>
-      </c>
-      <c r="D44">
-        <v>36</v>
-      </c>
-      <c r="E44" t="s">
-        <v>366</v>
-      </c>
-      <c r="F44" t="s">
-        <v>362</v>
-      </c>
-      <c r="G44" t="s">
-        <v>293</v>
-      </c>
-      <c r="H44" t="s">
-        <v>347</v>
-      </c>
-      <c r="I44" t="s">
-        <v>411</v>
-      </c>
-      <c r="J44">
-        <v>23</v>
-      </c>
-      <c r="K44" t="s">
-        <v>598</v>
-      </c>
-      <c r="L44" t="s">
-        <v>150</v>
-      </c>
-      <c r="M44" t="s">
-        <v>552</v>
-      </c>
-      <c r="N44" t="s">
-        <v>158</v>
-      </c>
-      <c r="O44" t="s">
-        <v>578</v>
-      </c>
-      <c r="P44" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" t="s">
-        <v>466</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>364</v>
-      </c>
-      <c r="F45" t="s">
-        <v>363</v>
-      </c>
-      <c r="G45" t="s">
-        <v>294</v>
-      </c>
-      <c r="H45" t="s">
-        <v>348</v>
-      </c>
-      <c r="I45" t="s">
-        <v>412</v>
-      </c>
-      <c r="J45">
-        <v>34</v>
-      </c>
-      <c r="K45" t="s">
-        <v>601</v>
-      </c>
-      <c r="L45" t="s">
-        <v>155</v>
-      </c>
-      <c r="M45" t="s">
-        <v>511</v>
-      </c>
-      <c r="N45" t="s">
-        <v>151</v>
-      </c>
-      <c r="O45" t="s">
-        <v>500</v>
-      </c>
-      <c r="P45" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" t="s">
-        <v>467</v>
-      </c>
-      <c r="D46">
-        <v>21</v>
-      </c>
-      <c r="E46" t="s">
-        <v>365</v>
-      </c>
-      <c r="F46" t="s">
-        <v>368</v>
-      </c>
-      <c r="G46" t="s">
-        <v>295</v>
-      </c>
-      <c r="H46" t="s">
-        <v>349</v>
-      </c>
-      <c r="I46" t="s">
-        <v>413</v>
-      </c>
-      <c r="J46">
-        <v>23</v>
-      </c>
-      <c r="K46" t="s">
-        <v>603</v>
-      </c>
-      <c r="L46" t="s">
-        <v>207</v>
-      </c>
-      <c r="M46" t="s">
-        <v>623</v>
-      </c>
-      <c r="N46" t="s">
-        <v>243</v>
-      </c>
-      <c r="O46" t="s">
-        <v>567</v>
-      </c>
-      <c r="P46" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>193</v>
-      </c>
-      <c r="C47" t="s">
-        <v>468</v>
-      </c>
-      <c r="D47">
-        <v>51</v>
-      </c>
-      <c r="E47" t="s">
-        <v>366</v>
-      </c>
-      <c r="F47" t="s">
-        <v>359</v>
-      </c>
-      <c r="G47" t="s">
-        <v>296</v>
-      </c>
-      <c r="H47" t="s">
-        <v>350</v>
-      </c>
-      <c r="I47" t="s">
-        <v>414</v>
-      </c>
-      <c r="J47">
-        <v>42</v>
-      </c>
-      <c r="K47" t="s">
-        <v>605</v>
-      </c>
-      <c r="L47" t="s">
-        <v>208</v>
-      </c>
-      <c r="M47" t="s">
-        <v>505</v>
-      </c>
-      <c r="N47" t="s">
-        <v>150</v>
-      </c>
-      <c r="O47" t="s">
-        <v>530</v>
-      </c>
-      <c r="P47" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" t="s">
-        <v>469</v>
-      </c>
-      <c r="D48">
-        <v>31</v>
-      </c>
-      <c r="E48" t="s">
-        <v>367</v>
-      </c>
-      <c r="F48" t="s">
-        <v>361</v>
-      </c>
-      <c r="G48" t="s">
-        <v>297</v>
-      </c>
-      <c r="H48" t="s">
-        <v>351</v>
-      </c>
-      <c r="I48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J48">
-        <v>6</v>
-      </c>
-      <c r="K48" t="s">
-        <v>564</v>
-      </c>
-      <c r="L48" t="s">
-        <v>201</v>
-      </c>
-      <c r="M48" t="s">
-        <v>531</v>
-      </c>
-      <c r="N48" t="s">
-        <v>169</v>
-      </c>
-      <c r="O48" t="s">
-        <v>533</v>
-      </c>
-      <c r="P48" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>194</v>
-      </c>
-      <c r="C49" t="s">
-        <v>470</v>
-      </c>
-      <c r="D49">
-        <v>26</v>
-      </c>
-      <c r="E49" t="s">
-        <v>364</v>
-      </c>
-      <c r="F49" t="s">
-        <v>362</v>
-      </c>
-      <c r="G49" t="s">
-        <v>298</v>
-      </c>
-      <c r="H49" t="s">
-        <v>352</v>
-      </c>
-      <c r="I49" t="s">
-        <v>416</v>
-      </c>
-      <c r="J49">
-        <v>14</v>
-      </c>
-      <c r="K49" t="s">
-        <v>610</v>
-      </c>
-      <c r="L49" t="s">
-        <v>152</v>
-      </c>
-      <c r="M49" t="s">
-        <v>520</v>
-      </c>
-      <c r="N49" t="s">
-        <v>242</v>
-      </c>
-      <c r="O49" t="s">
-        <v>545</v>
-      </c>
-      <c r="P49" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>245</v>
-      </c>
-      <c r="C50" t="s">
-        <v>471</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
-        <v>365</v>
-      </c>
-      <c r="F50" t="s">
-        <v>363</v>
-      </c>
-      <c r="G50" t="s">
-        <v>299</v>
-      </c>
-      <c r="H50" t="s">
-        <v>353</v>
-      </c>
-      <c r="I50" t="s">
-        <v>417</v>
-      </c>
-      <c r="J50">
-        <v>15</v>
-      </c>
-      <c r="K50" t="s">
-        <v>488</v>
-      </c>
-      <c r="L50" t="s">
-        <v>228</v>
-      </c>
-      <c r="M50" t="s">
-        <v>493</v>
-      </c>
-      <c r="N50" t="s">
-        <v>202</v>
-      </c>
-      <c r="O50" t="s">
-        <v>561</v>
-      </c>
-      <c r="P50" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" t="s">
-        <v>472</v>
-      </c>
-      <c r="D51">
-        <v>54</v>
-      </c>
-      <c r="E51" t="s">
-        <v>366</v>
-      </c>
-      <c r="F51" t="s">
-        <v>361</v>
-      </c>
-      <c r="G51" t="s">
-        <v>300</v>
-      </c>
-      <c r="H51" t="s">
-        <v>354</v>
-      </c>
-      <c r="I51" t="s">
-        <v>418</v>
-      </c>
-      <c r="J51">
-        <v>4</v>
-      </c>
-      <c r="K51" t="s">
-        <v>613</v>
-      </c>
-      <c r="L51" t="s">
-        <v>242</v>
-      </c>
-      <c r="M51" t="s">
-        <v>596</v>
-      </c>
-      <c r="N51" t="s">
-        <v>166</v>
-      </c>
-      <c r="O51" t="s">
-        <v>527</v>
-      </c>
-      <c r="P51" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" t="s">
-        <v>473</v>
-      </c>
-      <c r="D52">
-        <v>7</v>
-      </c>
-      <c r="E52" t="s">
-        <v>367</v>
-      </c>
-      <c r="F52" t="s">
-        <v>362</v>
-      </c>
-      <c r="G52" t="s">
-        <v>301</v>
-      </c>
-      <c r="H52" t="s">
-        <v>355</v>
-      </c>
-      <c r="I52" t="s">
-        <v>419</v>
-      </c>
-      <c r="J52">
-        <v>6</v>
-      </c>
-      <c r="K52" t="s">
-        <v>616</v>
-      </c>
-      <c r="L52" t="s">
-        <v>225</v>
-      </c>
-      <c r="M52" t="s">
-        <v>589</v>
-      </c>
-      <c r="N52" t="s">
-        <v>211</v>
-      </c>
-      <c r="O52" t="s">
-        <v>512</v>
-      </c>
-      <c r="P52" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" t="s">
-        <v>474</v>
-      </c>
-      <c r="D53">
-        <v>29</v>
-      </c>
-      <c r="E53" t="s">
-        <v>364</v>
-      </c>
-      <c r="F53" t="s">
-        <v>363</v>
-      </c>
-      <c r="G53" t="s">
-        <v>302</v>
-      </c>
-      <c r="H53" t="s">
-        <v>356</v>
-      </c>
-      <c r="I53" t="s">
-        <v>420</v>
-      </c>
-      <c r="J53">
-        <v>7</v>
-      </c>
-      <c r="K53" t="s">
-        <v>619</v>
-      </c>
-      <c r="L53" t="s">
-        <v>204</v>
-      </c>
-      <c r="M53" t="s">
-        <v>614</v>
-      </c>
-      <c r="N53" t="s">
-        <v>243</v>
-      </c>
-      <c r="O53" t="s">
-        <v>597</v>
-      </c>
-      <c r="P53" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" t="s">
-        <v>475</v>
-      </c>
-      <c r="D54">
-        <v>17</v>
-      </c>
-      <c r="E54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F54" t="s">
-        <v>368</v>
-      </c>
-      <c r="G54" t="s">
-        <v>303</v>
-      </c>
-      <c r="H54" t="s">
-        <v>357</v>
-      </c>
-      <c r="I54" t="s">
-        <v>421</v>
-      </c>
-      <c r="J54">
-        <v>41</v>
-      </c>
-      <c r="K54" t="s">
-        <v>622</v>
-      </c>
-      <c r="L54" t="s">
-        <v>204</v>
-      </c>
-      <c r="M54" t="s">
-        <v>529</v>
-      </c>
-      <c r="N54" t="s">
-        <v>154</v>
-      </c>
-      <c r="O54" t="s">
-        <v>612</v>
-      </c>
-      <c r="P54" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" t="s">
-        <v>476</v>
-      </c>
-      <c r="D55">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>366</v>
-      </c>
-      <c r="F55" t="s">
-        <v>359</v>
-      </c>
-      <c r="G55" t="s">
-        <v>304</v>
-      </c>
-      <c r="H55" t="s">
-        <v>358</v>
-      </c>
-      <c r="I55" t="s">
-        <v>422</v>
-      </c>
-      <c r="J55">
-        <v>6</v>
-      </c>
-      <c r="K55" t="s">
-        <v>625</v>
-      </c>
-      <c r="L55" t="s">
-        <v>148</v>
-      </c>
-      <c r="M55" t="s">
-        <v>481</v>
-      </c>
-      <c r="N55" t="s">
-        <v>200</v>
-      </c>
-      <c r="O55" t="s">
-        <v>518</v>
-      </c>
-      <c r="P55" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q55" t="b">
+      <c r="P55" t="b">
         <v>0</v>
       </c>
     </row>
